--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="437">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1323,6 +1323,9 @@
   <si>
     <t>['60', '69']</t>
   </si>
+  <si>
+    <t>['57', '61', '71']</t>
+  </si>
 </sst>
 </file>
 
@@ -1683,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP350"/>
+  <dimension ref="A1:BP351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2847,7 +2850,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ6">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3462,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ9">
         <v>0.72</v>
@@ -6143,7 +6146,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ22">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR22">
         <v>1.13</v>
@@ -9642,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ39">
         <v>1.22</v>
@@ -10263,7 +10266,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ42">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR42">
         <v>1.7</v>
@@ -13762,7 +13765,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
         <v>1.11</v>
@@ -14383,7 +14386,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ62">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR62">
         <v>1.45</v>
@@ -14792,7 +14795,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ64">
         <v>1.28</v>
@@ -18294,7 +18297,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ81">
         <v>1.06</v>
@@ -21799,7 +21802,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ98">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR98">
         <v>1.29</v>
@@ -22623,7 +22626,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ102">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR102">
         <v>1.39</v>
@@ -22826,7 +22829,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ103">
         <v>1.41</v>
@@ -27976,7 +27979,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ128">
         <v>1.29</v>
@@ -28391,7 +28394,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ130">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR130">
         <v>1.59</v>
@@ -31275,7 +31278,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ144">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR144">
         <v>1.38</v>
@@ -31684,7 +31687,7 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ146">
         <v>1.71</v>
@@ -36216,7 +36219,7 @@
         <v>0.38</v>
       </c>
       <c r="AP168">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ168">
         <v>1.06</v>
@@ -36425,7 +36428,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ169">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR169">
         <v>1.33</v>
@@ -39309,7 +39312,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ183">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR183">
         <v>1.5</v>
@@ -39512,7 +39515,7 @@
         <v>0.89</v>
       </c>
       <c r="AP184">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ184">
         <v>0.89</v>
@@ -43429,7 +43432,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ203">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR203">
         <v>1.66</v>
@@ -44044,7 +44047,7 @@
         <v>0.8</v>
       </c>
       <c r="AP206">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ206">
         <v>0.59</v>
@@ -47340,7 +47343,7 @@
         <v>1.7</v>
       </c>
       <c r="AP222">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ222">
         <v>1.76</v>
@@ -47961,7 +47964,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ225">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR225">
         <v>1.47</v>
@@ -51872,7 +51875,7 @@
         <v>0.58</v>
       </c>
       <c r="AP244">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ244">
         <v>0.47</v>
@@ -52905,7 +52908,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ249">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR249">
         <v>1.33</v>
@@ -55992,7 +55995,7 @@
         <v>1.31</v>
       </c>
       <c r="AP264">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ264">
         <v>1.06</v>
@@ -57643,7 +57646,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ272">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR272">
         <v>1.39</v>
@@ -58052,7 +58055,7 @@
         <v>1.31</v>
       </c>
       <c r="AP274">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ274">
         <v>1.41</v>
@@ -62584,7 +62587,7 @@
         <v>1.07</v>
       </c>
       <c r="AP296">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ296">
         <v>1.24</v>
@@ -63617,7 +63620,7 @@
         <v>2</v>
       </c>
       <c r="AQ301">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR301">
         <v>1.15</v>
@@ -66295,7 +66298,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ314">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR314">
         <v>1.64</v>
@@ -66498,7 +66501,7 @@
         <v>1.44</v>
       </c>
       <c r="AP315">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ315">
         <v>1.61</v>
@@ -67943,7 +67946,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ322">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR322">
         <v>1.65</v>
@@ -73787,6 +73790,212 @@
       </c>
       <c r="BP350">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="351" spans="1:68">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>6652187</v>
+      </c>
+      <c r="C351" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" t="s">
+        <v>69</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45411.65625</v>
+      </c>
+      <c r="F351">
+        <v>35</v>
+      </c>
+      <c r="G351" t="s">
+        <v>77</v>
+      </c>
+      <c r="H351" t="s">
+        <v>82</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
+      <c r="L351">
+        <v>1</v>
+      </c>
+      <c r="M351">
+        <v>3</v>
+      </c>
+      <c r="N351">
+        <v>4</v>
+      </c>
+      <c r="O351" t="s">
+        <v>200</v>
+      </c>
+      <c r="P351" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q351">
+        <v>4.75</v>
+      </c>
+      <c r="R351">
+        <v>2.34</v>
+      </c>
+      <c r="S351">
+        <v>2.39</v>
+      </c>
+      <c r="T351">
+        <v>1.36</v>
+      </c>
+      <c r="U351">
+        <v>3.17</v>
+      </c>
+      <c r="V351">
+        <v>2.77</v>
+      </c>
+      <c r="W351">
+        <v>1.45</v>
+      </c>
+      <c r="X351">
+        <v>6</v>
+      </c>
+      <c r="Y351">
+        <v>1.09</v>
+      </c>
+      <c r="Z351">
+        <v>1.74</v>
+      </c>
+      <c r="AA351">
+        <v>4.86</v>
+      </c>
+      <c r="AB351">
+        <v>3.05</v>
+      </c>
+      <c r="AC351">
+        <v>1.02</v>
+      </c>
+      <c r="AD351">
+        <v>10</v>
+      </c>
+      <c r="AE351">
+        <v>1.26</v>
+      </c>
+      <c r="AF351">
+        <v>3.8</v>
+      </c>
+      <c r="AG351">
+        <v>1.87</v>
+      </c>
+      <c r="AH351">
+        <v>1.92</v>
+      </c>
+      <c r="AI351">
+        <v>1.73</v>
+      </c>
+      <c r="AJ351">
+        <v>2</v>
+      </c>
+      <c r="AK351">
+        <v>2</v>
+      </c>
+      <c r="AL351">
+        <v>1.22</v>
+      </c>
+      <c r="AM351">
+        <v>1.2</v>
+      </c>
+      <c r="AN351">
+        <v>0.88</v>
+      </c>
+      <c r="AO351">
+        <v>1.71</v>
+      </c>
+      <c r="AP351">
+        <v>0.83</v>
+      </c>
+      <c r="AQ351">
+        <v>1.78</v>
+      </c>
+      <c r="AR351">
+        <v>1.4</v>
+      </c>
+      <c r="AS351">
+        <v>1.56</v>
+      </c>
+      <c r="AT351">
+        <v>2.96</v>
+      </c>
+      <c r="AU351">
+        <v>2</v>
+      </c>
+      <c r="AV351">
+        <v>9</v>
+      </c>
+      <c r="AW351">
+        <v>4</v>
+      </c>
+      <c r="AX351">
+        <v>9</v>
+      </c>
+      <c r="AY351">
+        <v>6</v>
+      </c>
+      <c r="AZ351">
+        <v>18</v>
+      </c>
+      <c r="BA351">
+        <v>0</v>
+      </c>
+      <c r="BB351">
+        <v>9</v>
+      </c>
+      <c r="BC351">
+        <v>9</v>
+      </c>
+      <c r="BD351">
+        <v>2.67</v>
+      </c>
+      <c r="BE351">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF351">
+        <v>1.64</v>
+      </c>
+      <c r="BG351">
+        <v>1.23</v>
+      </c>
+      <c r="BH351">
+        <v>3.56</v>
+      </c>
+      <c r="BI351">
+        <v>1.46</v>
+      </c>
+      <c r="BJ351">
+        <v>2.52</v>
+      </c>
+      <c r="BK351">
+        <v>1.81</v>
+      </c>
+      <c r="BL351">
+        <v>1.94</v>
+      </c>
+      <c r="BM351">
+        <v>2.32</v>
+      </c>
+      <c r="BN351">
+        <v>1.54</v>
+      </c>
+      <c r="BO351">
+        <v>3.04</v>
+      </c>
+      <c r="BP351">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -73932,22 +73932,22 @@
         <v>2.96</v>
       </c>
       <c r="AU351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV351">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW351">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX351">
         <v>9</v>
       </c>
       <c r="AY351">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ351">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA351">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -73932,22 +73932,22 @@
         <v>2.96</v>
       </c>
       <c r="AU351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV351">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW351">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX351">
         <v>9</v>
       </c>
       <c r="AY351">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ351">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA351">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -74165,22 +74165,22 @@
         <v>2.89</v>
       </c>
       <c r="AU352">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV352">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW352">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX352">
         <v>5</v>
       </c>
       <c r="AY352">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ352">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA352">
         <v>7</v>
@@ -74371,22 +74371,22 @@
         <v>2.85</v>
       </c>
       <c r="AU353">
+        <v>6</v>
+      </c>
+      <c r="AV353">
+        <v>7</v>
+      </c>
+      <c r="AW353">
+        <v>3</v>
+      </c>
+      <c r="AX353">
         <v>5</v>
       </c>
-      <c r="AV353">
-        <v>4</v>
-      </c>
-      <c r="AW353">
-        <v>3</v>
-      </c>
-      <c r="AX353">
-        <v>4</v>
-      </c>
       <c r="AY353">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ353">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA353">
         <v>9</v>
@@ -74577,22 +74577,22 @@
         <v>2.67</v>
       </c>
       <c r="AU354">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV354">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW354">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX354">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY354">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ354">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA354">
         <v>4</v>
@@ -74786,19 +74786,19 @@
         <v>7</v>
       </c>
       <c r="AV355">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW355">
         <v>3</v>
       </c>
       <c r="AX355">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY355">
         <v>10</v>
       </c>
       <c r="AZ355">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA355">
         <v>6</v>
@@ -74989,22 +74989,22 @@
         <v>2.57</v>
       </c>
       <c r="AU356">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV356">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW356">
         <v>5</v>
       </c>
       <c r="AX356">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY356">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ356">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA356">
         <v>1</v>
@@ -75195,7 +75195,7 @@
         <v>2.71</v>
       </c>
       <c r="AU357">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV357">
         <v>3</v>
@@ -75204,13 +75204,13 @@
         <v>5</v>
       </c>
       <c r="AX357">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY357">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ357">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA357">
         <v>5</v>
@@ -75401,22 +75401,22 @@
         <v>2.67</v>
       </c>
       <c r="AU358">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV358">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW358">
+        <v>8</v>
+      </c>
+      <c r="AX358">
+        <v>3</v>
+      </c>
+      <c r="AY358">
+        <v>16</v>
+      </c>
+      <c r="AZ358">
         <v>7</v>
-      </c>
-      <c r="AX358">
-        <v>3</v>
-      </c>
-      <c r="AY358">
-        <v>13</v>
-      </c>
-      <c r="AZ358">
-        <v>6</v>
       </c>
       <c r="BA358">
         <v>7</v>
@@ -75607,10 +75607,10 @@
         <v>3.04</v>
       </c>
       <c r="AU359">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV359">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW359">
         <v>6</v>
@@ -75619,10 +75619,10 @@
         <v>4</v>
       </c>
       <c r="AY359">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ359">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA359">
         <v>5</v>
@@ -75813,31 +75813,31 @@
         <v>2.98</v>
       </c>
       <c r="AU360">
+        <v>7</v>
+      </c>
+      <c r="AV360">
+        <v>6</v>
+      </c>
+      <c r="AW360">
         <v>4</v>
       </c>
-      <c r="AV360">
+      <c r="AX360">
         <v>4</v>
       </c>
-      <c r="AW360">
-        <v>3</v>
-      </c>
-      <c r="AX360">
-        <v>2</v>
-      </c>
       <c r="AY360">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ360">
+        <v>10</v>
+      </c>
+      <c r="BA360">
         <v>6</v>
       </c>
-      <c r="BA360">
-        <v>4</v>
-      </c>
       <c r="BB360">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC360">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD360">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -75607,10 +75607,10 @@
         <v>3.04</v>
       </c>
       <c r="AU359">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV359">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW359">
         <v>6</v>
@@ -75619,10 +75619,10 @@
         <v>4</v>
       </c>
       <c r="AY359">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ359">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA359">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -1366,7 +1366,7 @@
     <t>['22', '45+2']</t>
   </si>
   <si>
-    <t>['9', '63']</t>
+    <t>['10', '63']</t>
   </si>
   <si>
     <t>['2', '68']</t>
@@ -1378,7 +1378,7 @@
     <t>['70', '83']</t>
   </si>
   <si>
-    <t>['41', '90']</t>
+    <t>['42', '90']</t>
   </si>
   <si>
     <t>['18', '63']</t>
@@ -76983,7 +76983,7 @@
         <v>3</v>
       </c>
       <c r="O366" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="P366" t="s">
         <v>453</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="465">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -943,28 +943,31 @@
     <t>['37', '50', '59', '72']</t>
   </si>
   <si>
-    <t>['50', '77']</t>
+    <t>['27', '78']</t>
   </si>
   <si>
     <t>['13', '30']</t>
   </si>
   <si>
-    <t>['27', '78']</t>
+    <t>['50', '77']</t>
   </si>
   <si>
     <t>['2', '6']</t>
   </si>
   <si>
-    <t>['7', '16', '51']</t>
+    <t>['63', '81']</t>
   </si>
   <si>
     <t>['40', '63', '80', '85']</t>
   </si>
   <si>
+    <t>['7', '16', '51']</t>
+  </si>
+  <si>
     <t>['23', '63', '85']</t>
   </si>
   <si>
-    <t>['63', '81']</t>
+    <t>['9', '33']</t>
   </si>
   <si>
     <t>['54', '72', '74', '90']</t>
@@ -1384,10 +1387,10 @@
     <t>['10', '63']</t>
   </si>
   <si>
-    <t>['2', '68']</t>
+    <t>['46', '69']</t>
   </si>
   <si>
-    <t>['46', '69']</t>
+    <t>['2', '68']</t>
   </si>
   <si>
     <t>['70', '83']</t>
@@ -1399,10 +1402,13 @@
     <t>['18', '63']</t>
   </si>
   <si>
+    <t>['63', '71', '88']</t>
+  </si>
+  <si>
     <t>['46', '90+3']</t>
   </si>
   <si>
-    <t>['63', '71', '88']</t>
+    <t>['4', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP380"/>
+  <dimension ref="A1:BP381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2641,7 +2647,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2847,7 +2853,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -3259,7 +3265,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3465,7 +3471,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -4083,7 +4089,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4161,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ12">
         <v>1.63</v>
@@ -4576,7 +4582,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ14">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4907,7 +4913,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -6143,7 +6149,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6761,7 +6767,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -7460,7 +7466,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ28">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -7585,7 +7591,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -8487,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ33">
         <v>0.44</v>
@@ -9645,7 +9651,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -10263,7 +10269,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q42">
         <v>2.65</v>
@@ -11087,7 +11093,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q46">
         <v>3.6</v>
@@ -11293,7 +11299,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q47">
         <v>2.7</v>
@@ -11499,7 +11505,7 @@
         <v>119</v>
       </c>
       <c r="P48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11786,7 +11792,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ49">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR49">
         <v>1.33</v>
@@ -11911,7 +11917,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -12323,7 +12329,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12529,7 +12535,7 @@
         <v>124</v>
       </c>
       <c r="P53" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -13147,7 +13153,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13225,7 +13231,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ56">
         <v>1.32</v>
@@ -13353,7 +13359,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q57">
         <v>2.1</v>
@@ -13559,7 +13565,7 @@
         <v>90</v>
       </c>
       <c r="P58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13971,7 +13977,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q60">
         <v>4.5</v>
@@ -14383,7 +14389,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -14795,7 +14801,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q64">
         <v>2.65</v>
@@ -14876,7 +14882,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ64">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -15001,7 +15007,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15413,7 +15419,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15619,7 +15625,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -15825,7 +15831,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q69">
         <v>3.5</v>
@@ -16933,7 +16939,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ74">
         <v>0.84</v>
@@ -17679,7 +17685,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17885,7 +17891,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -18503,7 +18509,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18915,7 +18921,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q84">
         <v>2.55</v>
@@ -19533,7 +19539,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19614,7 +19620,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ87">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -20151,7 +20157,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q90">
         <v>2.81</v>
@@ -20769,7 +20775,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -20975,7 +20981,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21053,7 +21059,7 @@
         <v>1.75</v>
       </c>
       <c r="AP94">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ94">
         <v>1.16</v>
@@ -21181,7 +21187,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q95">
         <v>2.45</v>
@@ -21387,7 +21393,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q96">
         <v>2.9</v>
@@ -21593,7 +21599,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -22417,7 +22423,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22829,7 +22835,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22907,7 +22913,7 @@
         <v>0.4</v>
       </c>
       <c r="AP103">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ103">
         <v>1.16</v>
@@ -23035,7 +23041,7 @@
         <v>158</v>
       </c>
       <c r="P104" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -23241,7 +23247,7 @@
         <v>159</v>
       </c>
       <c r="P105" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -23322,7 +23328,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ105">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR105">
         <v>1.59</v>
@@ -23653,7 +23659,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
@@ -24065,7 +24071,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q109">
         <v>3.4</v>
@@ -24477,7 +24483,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24683,7 +24689,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q112">
         <v>2.27</v>
@@ -24889,7 +24895,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -25095,7 +25101,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q114">
         <v>2.55</v>
@@ -25301,7 +25307,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25507,7 +25513,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q116">
         <v>1.9</v>
@@ -25713,7 +25719,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q117">
         <v>2.7</v>
@@ -26125,7 +26131,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26824,7 +26830,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ122">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR122">
         <v>1.43</v>
@@ -26949,7 +26955,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q123">
         <v>2.95</v>
@@ -27773,7 +27779,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -28185,7 +28191,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q129">
         <v>3.45</v>
@@ -28597,7 +28603,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -28881,7 +28887,7 @@
         <v>1.33</v>
       </c>
       <c r="AP132">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ132">
         <v>1.53</v>
@@ -29215,7 +29221,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q134">
         <v>2.35</v>
@@ -29627,7 +29633,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q136">
         <v>2.9</v>
@@ -29833,7 +29839,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q137">
         <v>2.35</v>
@@ -30245,7 +30251,7 @@
         <v>115</v>
       </c>
       <c r="P139" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q139">
         <v>3.1</v>
@@ -30451,7 +30457,7 @@
         <v>180</v>
       </c>
       <c r="P140" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q140">
         <v>3.85</v>
@@ -30657,7 +30663,7 @@
         <v>181</v>
       </c>
       <c r="P141" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q141">
         <v>2.2</v>
@@ -31481,7 +31487,7 @@
         <v>90</v>
       </c>
       <c r="P145" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -32305,7 +32311,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32717,7 +32723,7 @@
         <v>138</v>
       </c>
       <c r="P151" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q151">
         <v>2.9</v>
@@ -33207,7 +33213,7 @@
         <v>1.38</v>
       </c>
       <c r="AP153">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ153">
         <v>0.95</v>
@@ -33416,7 +33422,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ154">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR154">
         <v>1.47</v>
@@ -33541,7 +33547,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q155">
         <v>2.9</v>
@@ -33953,7 +33959,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -34159,7 +34165,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q158">
         <v>2.85</v>
@@ -35189,7 +35195,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q163">
         <v>4.4</v>
@@ -35395,7 +35401,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -35807,7 +35813,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q166">
         <v>3.3</v>
@@ -36631,7 +36637,7 @@
         <v>143</v>
       </c>
       <c r="P170" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q170">
         <v>2.7</v>
@@ -36837,7 +36843,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q171">
         <v>3.3</v>
@@ -37661,7 +37667,7 @@
         <v>162</v>
       </c>
       <c r="P175" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q175">
         <v>4.2</v>
@@ -38073,7 +38079,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q177">
         <v>2.9</v>
@@ -38151,7 +38157,7 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ177">
         <v>1.47</v>
@@ -38360,7 +38366,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ178">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR178">
         <v>1.54</v>
@@ -39103,7 +39109,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -39309,7 +39315,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q183">
         <v>3.7</v>
@@ -39515,7 +39521,7 @@
         <v>204</v>
       </c>
       <c r="P184" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q184">
         <v>2.75</v>
@@ -39721,7 +39727,7 @@
         <v>191</v>
       </c>
       <c r="P185" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q185">
         <v>3.5</v>
@@ -39927,7 +39933,7 @@
         <v>205</v>
       </c>
       <c r="P186" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q186">
         <v>2.49</v>
@@ -40339,7 +40345,7 @@
         <v>134</v>
       </c>
       <c r="P188" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -41369,7 +41375,7 @@
         <v>208</v>
       </c>
       <c r="P193" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41653,7 +41659,7 @@
         <v>1.33</v>
       </c>
       <c r="AP194">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ194">
         <v>1.26</v>
@@ -41987,7 +41993,7 @@
         <v>210</v>
       </c>
       <c r="P196" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q196">
         <v>3.75</v>
@@ -42399,7 +42405,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q198">
         <v>4</v>
@@ -43223,7 +43229,7 @@
         <v>214</v>
       </c>
       <c r="P202" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43841,7 +43847,7 @@
         <v>217</v>
       </c>
       <c r="P205" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -44047,7 +44053,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q206">
         <v>3.25</v>
@@ -44128,7 +44134,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ206">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR206">
         <v>1.45</v>
@@ -44459,7 +44465,7 @@
         <v>220</v>
       </c>
       <c r="P208" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -45077,7 +45083,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45283,7 +45289,7 @@
         <v>90</v>
       </c>
       <c r="P212" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q212">
         <v>2.69</v>
@@ -45489,7 +45495,7 @@
         <v>95</v>
       </c>
       <c r="P213" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q213">
         <v>2.87</v>
@@ -45567,7 +45573,7 @@
         <v>1.8</v>
       </c>
       <c r="AP213">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ213">
         <v>1.68</v>
@@ -45901,7 +45907,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q215">
         <v>2.34</v>
@@ -47549,7 +47555,7 @@
         <v>229</v>
       </c>
       <c r="P223" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q223">
         <v>4.33</v>
@@ -48167,7 +48173,7 @@
         <v>226</v>
       </c>
       <c r="P226" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q226">
         <v>2.15</v>
@@ -48579,7 +48585,7 @@
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q228">
         <v>4.33</v>
@@ -48785,7 +48791,7 @@
         <v>134</v>
       </c>
       <c r="P229" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q229">
         <v>3.1</v>
@@ -48866,7 +48872,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ229">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR229">
         <v>1.33</v>
@@ -48991,7 +48997,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -49687,7 +49693,7 @@
         <v>1.36</v>
       </c>
       <c r="AP233">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ233">
         <v>1.58</v>
@@ -50845,7 +50851,7 @@
         <v>90</v>
       </c>
       <c r="P239" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q239">
         <v>2.8</v>
@@ -51463,7 +51469,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q242">
         <v>2.85</v>
@@ -51669,7 +51675,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51875,7 +51881,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -51956,7 +51962,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ244">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR244">
         <v>1.36</v>
@@ -52081,7 +52087,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q245">
         <v>4.5</v>
@@ -52287,7 +52293,7 @@
         <v>90</v>
       </c>
       <c r="P246" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q246">
         <v>3.3</v>
@@ -52493,7 +52499,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -53111,7 +53117,7 @@
         <v>245</v>
       </c>
       <c r="P250" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q250">
         <v>2.8</v>
@@ -54553,7 +54559,7 @@
         <v>250</v>
       </c>
       <c r="P257" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q257">
         <v>2.71</v>
@@ -54759,7 +54765,7 @@
         <v>251</v>
       </c>
       <c r="P258" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q258">
         <v>3.7</v>
@@ -55252,7 +55258,7 @@
         <v>1</v>
       </c>
       <c r="AQ260">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR260">
         <v>1.66</v>
@@ -55789,7 +55795,7 @@
         <v>253</v>
       </c>
       <c r="P263" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q263">
         <v>3.4</v>
@@ -56819,7 +56825,7 @@
         <v>255</v>
       </c>
       <c r="P268" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q268">
         <v>3</v>
@@ -57025,7 +57031,7 @@
         <v>256</v>
       </c>
       <c r="P269" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q269">
         <v>3.1</v>
@@ -57103,7 +57109,7 @@
         <v>0.92</v>
       </c>
       <c r="AP269">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ269">
         <v>0.84</v>
@@ -57849,7 +57855,7 @@
         <v>258</v>
       </c>
       <c r="P273" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q273">
         <v>3.75</v>
@@ -58879,7 +58885,7 @@
         <v>260</v>
       </c>
       <c r="P278" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q278">
         <v>2.8</v>
@@ -59085,7 +59091,7 @@
         <v>261</v>
       </c>
       <c r="P279" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q279">
         <v>3</v>
@@ -59372,7 +59378,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ280">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR280">
         <v>1.42</v>
@@ -59497,7 +59503,7 @@
         <v>90</v>
       </c>
       <c r="P281" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q281">
         <v>3.12</v>
@@ -59703,7 +59709,7 @@
         <v>262</v>
       </c>
       <c r="P282" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q282">
         <v>2.2</v>
@@ -59909,7 +59915,7 @@
         <v>263</v>
       </c>
       <c r="P283" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q283">
         <v>2.63</v>
@@ -60115,7 +60121,7 @@
         <v>264</v>
       </c>
       <c r="P284" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q284">
         <v>2.7</v>
@@ -60193,7 +60199,7 @@
         <v>1.21</v>
       </c>
       <c r="AP284">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ284">
         <v>1.21</v>
@@ -60733,7 +60739,7 @@
         <v>267</v>
       </c>
       <c r="P287" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q287">
         <v>2.62</v>
@@ -60939,7 +60945,7 @@
         <v>147</v>
       </c>
       <c r="P288" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q288">
         <v>2.55</v>
@@ -61557,7 +61563,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q291">
         <v>3.4</v>
@@ -61763,7 +61769,7 @@
         <v>90</v>
       </c>
       <c r="P292" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q292">
         <v>5.5</v>
@@ -61969,7 +61975,7 @@
         <v>95</v>
       </c>
       <c r="P293" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q293">
         <v>3.1</v>
@@ -62381,7 +62387,7 @@
         <v>270</v>
       </c>
       <c r="P295" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q295">
         <v>4.33</v>
@@ -62587,7 +62593,7 @@
         <v>90</v>
       </c>
       <c r="P296" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q296">
         <v>3.1</v>
@@ -62793,7 +62799,7 @@
         <v>271</v>
       </c>
       <c r="P297" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q297">
         <v>3.4</v>
@@ -62999,7 +63005,7 @@
         <v>272</v>
       </c>
       <c r="P298" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63205,7 +63211,7 @@
         <v>273</v>
       </c>
       <c r="P299" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q299">
         <v>3</v>
@@ -63286,7 +63292,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ299">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR299">
         <v>1.69</v>
@@ -63411,7 +63417,7 @@
         <v>274</v>
       </c>
       <c r="P300" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q300">
         <v>2.75</v>
@@ -64029,7 +64035,7 @@
         <v>275</v>
       </c>
       <c r="P303" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q303">
         <v>2.85</v>
@@ -64107,7 +64113,7 @@
         <v>1.07</v>
       </c>
       <c r="AP303">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ303">
         <v>1</v>
@@ -64235,7 +64241,7 @@
         <v>276</v>
       </c>
       <c r="P304" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q304">
         <v>2.62</v>
@@ -66089,7 +66095,7 @@
         <v>280</v>
       </c>
       <c r="P313" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q313">
         <v>3.75</v>
@@ -66170,7 +66176,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ313">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR313">
         <v>1.31</v>
@@ -66295,7 +66301,7 @@
         <v>281</v>
       </c>
       <c r="P314" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q314">
         <v>4.33</v>
@@ -66501,7 +66507,7 @@
         <v>90</v>
       </c>
       <c r="P315" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q315">
         <v>4</v>
@@ -66707,7 +66713,7 @@
         <v>90</v>
       </c>
       <c r="P316" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q316">
         <v>2.9</v>
@@ -67325,7 +67331,7 @@
         <v>282</v>
       </c>
       <c r="P319" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q319">
         <v>2.65</v>
@@ -67531,7 +67537,7 @@
         <v>188</v>
       </c>
       <c r="P320" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q320">
         <v>3.55</v>
@@ -68021,7 +68027,7 @@
         <v>1.81</v>
       </c>
       <c r="AP322">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ322">
         <v>1.74</v>
@@ -69797,7 +69803,7 @@
         <v>288</v>
       </c>
       <c r="P331" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q331">
         <v>2.26</v>
@@ -70081,10 +70087,10 @@
         <v>1.5</v>
       </c>
       <c r="AP332">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ332">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR332">
         <v>1.64</v>
@@ -70209,7 +70215,7 @@
         <v>289</v>
       </c>
       <c r="P333" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q333">
         <v>2.7</v>
@@ -70415,7 +70421,7 @@
         <v>90</v>
       </c>
       <c r="P334" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q334">
         <v>4.1</v>
@@ -70621,7 +70627,7 @@
         <v>290</v>
       </c>
       <c r="P335" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q335">
         <v>3</v>
@@ -70827,7 +70833,7 @@
         <v>291</v>
       </c>
       <c r="P336" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q336">
         <v>2.7</v>
@@ -72475,7 +72481,7 @@
         <v>298</v>
       </c>
       <c r="P344" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q344">
         <v>2.45</v>
@@ -72681,7 +72687,7 @@
         <v>153</v>
       </c>
       <c r="P345" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q345">
         <v>3.7</v>
@@ -73299,7 +73305,7 @@
         <v>301</v>
       </c>
       <c r="P348" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q348">
         <v>3</v>
@@ -73505,7 +73511,7 @@
         <v>91</v>
       </c>
       <c r="P349" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q349">
         <v>3.55</v>
@@ -73917,7 +73923,7 @@
         <v>200</v>
       </c>
       <c r="P351" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q351">
         <v>4.75</v>
@@ -74123,7 +74129,7 @@
         <v>128</v>
       </c>
       <c r="P352" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q352">
         <v>2.9</v>
@@ -74201,7 +74207,7 @@
         <v>1.24</v>
       </c>
       <c r="AP352">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ352">
         <v>1.32</v>
@@ -74741,7 +74747,7 @@
         <v>207</v>
       </c>
       <c r="P355" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q355">
         <v>2.46</v>
@@ -74947,7 +74953,7 @@
         <v>228</v>
       </c>
       <c r="P356" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q356">
         <v>3</v>
@@ -75646,7 +75652,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ359">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR359">
         <v>1.69</v>
@@ -75771,7 +75777,7 @@
         <v>307</v>
       </c>
       <c r="P360" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q360">
         <v>3.45</v>
@@ -75977,7 +75983,7 @@
         <v>308</v>
       </c>
       <c r="P361" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q361">
         <v>3.7</v>
@@ -76141,7 +76147,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>6652207</v>
+        <v>6652206</v>
       </c>
       <c r="C362" t="s">
         <v>68</v>
@@ -76156,16 +76162,16 @@
         <v>37</v>
       </c>
       <c r="G362" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H362" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K362">
         <v>1</v>
@@ -76174,172 +76180,172 @@
         <v>2</v>
       </c>
       <c r="M362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N362">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O362" t="s">
         <v>309</v>
       </c>
       <c r="P362" t="s">
-        <v>456</v>
+        <v>91</v>
       </c>
       <c r="Q362">
-        <v>4.05</v>
+        <v>2.82</v>
       </c>
       <c r="R362">
-        <v>2.14</v>
+        <v>2.01</v>
       </c>
       <c r="S362">
-        <v>2.64</v>
+        <v>4.3</v>
       </c>
       <c r="T362">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="U362">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="V362">
-        <v>2.82</v>
+        <v>3.39</v>
       </c>
       <c r="W362">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="X362">
-        <v>7.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Y362">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z362">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="AA362">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB362">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="AC362">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="AD362">
-        <v>8.9</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AE362">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AF362">
-        <v>3.22</v>
+        <v>2.92</v>
       </c>
       <c r="AG362">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AH362">
-        <v>1.85</v>
+        <v>1.54</v>
       </c>
       <c r="AI362">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="AJ362">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="AK362">
-        <v>1.7</v>
+        <v>1.31</v>
       </c>
       <c r="AL362">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AM362">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="AN362">
-        <v>0.83</v>
+        <v>1.72</v>
       </c>
       <c r="AO362">
-        <v>1.17</v>
+        <v>1.61</v>
       </c>
       <c r="AP362">
-        <v>0.84</v>
+        <v>1.79</v>
       </c>
       <c r="AQ362">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="AR362">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AS362">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AT362">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="AU362">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV362">
         <v>4</v>
       </c>
       <c r="AW362">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX362">
+        <v>5</v>
+      </c>
+      <c r="AY362">
         <v>10</v>
       </c>
-      <c r="AY362">
-        <v>11</v>
-      </c>
       <c r="AZ362">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA362">
         <v>7</v>
       </c>
       <c r="BB362">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC362">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD362">
-        <v>2.52</v>
+        <v>1.75</v>
       </c>
       <c r="BE362">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF362">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="BG362">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BH362">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BI362">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="BJ362">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="BK362">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BL362">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="BM362">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="BN362">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="BO362">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BP362">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="363" spans="1:68">
@@ -76595,7 +76601,7 @@
         <v>310</v>
       </c>
       <c r="P364" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q364">
         <v>4.28</v>
@@ -76759,7 +76765,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>6652206</v>
+        <v>6652207</v>
       </c>
       <c r="C365" t="s">
         <v>68</v>
@@ -76774,16 +76780,16 @@
         <v>37</v>
       </c>
       <c r="G365" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H365" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K365">
         <v>1</v>
@@ -76792,172 +76798,172 @@
         <v>2</v>
       </c>
       <c r="M365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N365">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O365" t="s">
         <v>311</v>
       </c>
       <c r="P365" t="s">
-        <v>91</v>
+        <v>458</v>
       </c>
       <c r="Q365">
+        <v>4.05</v>
+      </c>
+      <c r="R365">
+        <v>2.14</v>
+      </c>
+      <c r="S365">
+        <v>2.64</v>
+      </c>
+      <c r="T365">
+        <v>1.4</v>
+      </c>
+      <c r="U365">
         <v>2.82</v>
       </c>
-      <c r="R365">
-        <v>2.01</v>
-      </c>
-      <c r="S365">
-        <v>4.3</v>
-      </c>
-      <c r="T365">
-        <v>1.47</v>
-      </c>
-      <c r="U365">
+      <c r="V365">
+        <v>2.82</v>
+      </c>
+      <c r="W365">
+        <v>1.4</v>
+      </c>
+      <c r="X365">
+        <v>7.2</v>
+      </c>
+      <c r="Y365">
+        <v>1.08</v>
+      </c>
+      <c r="Z365">
+        <v>3.4</v>
+      </c>
+      <c r="AA365">
+        <v>3.4</v>
+      </c>
+      <c r="AB365">
+        <v>2.1</v>
+      </c>
+      <c r="AC365">
+        <v>1.02</v>
+      </c>
+      <c r="AD365">
+        <v>8.9</v>
+      </c>
+      <c r="AE365">
+        <v>1.28</v>
+      </c>
+      <c r="AF365">
+        <v>3.22</v>
+      </c>
+      <c r="AG365">
+        <v>2</v>
+      </c>
+      <c r="AH365">
+        <v>1.85</v>
+      </c>
+      <c r="AI365">
+        <v>1.78</v>
+      </c>
+      <c r="AJ365">
+        <v>1.97</v>
+      </c>
+      <c r="AK365">
+        <v>1.7</v>
+      </c>
+      <c r="AL365">
+        <v>1.25</v>
+      </c>
+      <c r="AM365">
+        <v>1.3</v>
+      </c>
+      <c r="AN365">
+        <v>0.83</v>
+      </c>
+      <c r="AO365">
+        <v>1.17</v>
+      </c>
+      <c r="AP365">
+        <v>0.84</v>
+      </c>
+      <c r="AQ365">
+        <v>1.16</v>
+      </c>
+      <c r="AR365">
+        <v>1.36</v>
+      </c>
+      <c r="AS365">
+        <v>1.31</v>
+      </c>
+      <c r="AT365">
         <v>2.67</v>
       </c>
-      <c r="V365">
-        <v>3.39</v>
-      </c>
-      <c r="W365">
-        <v>1.32</v>
-      </c>
-      <c r="X365">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Y365">
-        <v>1.05</v>
-      </c>
-      <c r="Z365">
-        <v>2.15</v>
-      </c>
-      <c r="AA365">
-        <v>3.1</v>
-      </c>
-      <c r="AB365">
-        <v>3.5</v>
-      </c>
-      <c r="AC365">
-        <v>1.09</v>
-      </c>
-      <c r="AD365">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AE365">
-        <v>1.41</v>
-      </c>
-      <c r="AF365">
-        <v>2.92</v>
-      </c>
-      <c r="AG365">
-        <v>2.17</v>
-      </c>
-      <c r="AH365">
-        <v>1.54</v>
-      </c>
-      <c r="AI365">
-        <v>1.96</v>
-      </c>
-      <c r="AJ365">
-        <v>1.8</v>
-      </c>
-      <c r="AK365">
-        <v>1.31</v>
-      </c>
-      <c r="AL365">
-        <v>1.33</v>
-      </c>
-      <c r="AM365">
-        <v>1.69</v>
-      </c>
-      <c r="AN365">
-        <v>1.72</v>
-      </c>
-      <c r="AO365">
-        <v>1.61</v>
-      </c>
-      <c r="AP365">
-        <v>1.79</v>
-      </c>
-      <c r="AQ365">
-        <v>1.53</v>
-      </c>
-      <c r="AR365">
-        <v>1.44</v>
-      </c>
-      <c r="AS365">
-        <v>1.42</v>
-      </c>
-      <c r="AT365">
-        <v>2.86</v>
-      </c>
       <c r="AU365">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV365">
         <v>4</v>
       </c>
       <c r="AW365">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX365">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY365">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ365">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA365">
         <v>7</v>
       </c>
       <c r="BB365">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC365">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD365">
+        <v>2.52</v>
+      </c>
+      <c r="BE365">
+        <v>8</v>
+      </c>
+      <c r="BF365">
         <v>1.75</v>
       </c>
-      <c r="BE365">
-        <v>7.5</v>
-      </c>
-      <c r="BF365">
-        <v>2.45</v>
-      </c>
       <c r="BG365">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BH365">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="BI365">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="BJ365">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="BK365">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="BL365">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="BM365">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="BN365">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BO365">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="BP365">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="366" spans="1:68">
@@ -77007,7 +77013,7 @@
         <v>214</v>
       </c>
       <c r="P366" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q366">
         <v>2.72</v>
@@ -77213,7 +77219,7 @@
         <v>200</v>
       </c>
       <c r="P367" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q367">
         <v>3.93</v>
@@ -77419,7 +77425,7 @@
         <v>91</v>
       </c>
       <c r="P368" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q368">
         <v>3.04</v>
@@ -78115,7 +78121,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP371">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ371">
         <v>0.53</v>
@@ -78201,7 +78207,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>6652209</v>
+        <v>6652217</v>
       </c>
       <c r="C372" t="s">
         <v>68</v>
@@ -78216,10 +78222,10 @@
         <v>38</v>
       </c>
       <c r="G372" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H372" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I372">
         <v>0</v>
@@ -78231,145 +78237,145 @@
         <v>0</v>
       </c>
       <c r="L372">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N372">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O372" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="P372" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="Q372">
-        <v>1.89</v>
+        <v>4.1</v>
       </c>
       <c r="R372">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="S372">
-        <v>6.2</v>
+        <v>2.44</v>
       </c>
       <c r="T372">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U372">
-        <v>3.34</v>
+        <v>3.22</v>
       </c>
       <c r="V372">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="W372">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X372">
-        <v>5.55</v>
+        <v>5.95</v>
       </c>
       <c r="Y372">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z372">
-        <v>1.48</v>
+        <v>4</v>
       </c>
       <c r="AA372">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AB372">
-        <v>5.75</v>
+        <v>1.67</v>
       </c>
       <c r="AC372">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD372">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AE372">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AF372">
-        <v>4.25</v>
+        <v>3.94</v>
       </c>
       <c r="AG372">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AH372">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AI372">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AJ372">
-        <v>1.91</v>
+        <v>2.19</v>
       </c>
       <c r="AK372">
-        <v>1.1</v>
+        <v>1.93</v>
       </c>
       <c r="AL372">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AM372">
-        <v>2.75</v>
+        <v>1.22</v>
       </c>
       <c r="AN372">
-        <v>2.33</v>
+        <v>0.89</v>
       </c>
       <c r="AO372">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AP372">
-        <v>2.26</v>
+        <v>1</v>
       </c>
       <c r="AQ372">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="AR372">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="AS372">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AT372">
-        <v>2.66</v>
+        <v>3.12</v>
       </c>
       <c r="AU372">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV372">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW372">
         <v>6</v>
       </c>
       <c r="AX372">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AY372">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ372">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="BA372">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BB372">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC372">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD372">
-        <v>1.26</v>
+        <v>2.33</v>
       </c>
       <c r="BE372">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF372">
-        <v>4.64</v>
+        <v>1.82</v>
       </c>
       <c r="BG372">
         <v>1.27</v>
@@ -78407,7 +78413,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>6652210</v>
+        <v>6652216</v>
       </c>
       <c r="C373" t="s">
         <v>68</v>
@@ -78422,190 +78428,190 @@
         <v>38</v>
       </c>
       <c r="G373" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H373" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J373">
         <v>0</v>
       </c>
       <c r="K373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L373">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M373">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N373">
+        <v>4</v>
+      </c>
+      <c r="O373" t="s">
+        <v>93</v>
+      </c>
+      <c r="P373" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q373">
+        <v>2.99</v>
+      </c>
+      <c r="R373">
+        <v>2.06</v>
+      </c>
+      <c r="S373">
+        <v>3.66</v>
+      </c>
+      <c r="T373">
+        <v>1.44</v>
+      </c>
+      <c r="U373">
+        <v>2.67</v>
+      </c>
+      <c r="V373">
+        <v>3.05</v>
+      </c>
+      <c r="W373">
+        <v>1.35</v>
+      </c>
+      <c r="X373">
+        <v>8.1</v>
+      </c>
+      <c r="Y373">
+        <v>1.06</v>
+      </c>
+      <c r="Z373">
+        <v>2.25</v>
+      </c>
+      <c r="AA373">
+        <v>3</v>
+      </c>
+      <c r="AB373">
+        <v>2.9</v>
+      </c>
+      <c r="AC373">
+        <v>1.03</v>
+      </c>
+      <c r="AD373">
+        <v>8</v>
+      </c>
+      <c r="AE373">
+        <v>1.33</v>
+      </c>
+      <c r="AF373">
+        <v>2.93</v>
+      </c>
+      <c r="AG373">
+        <v>2.1</v>
+      </c>
+      <c r="AH373">
+        <v>1.67</v>
+      </c>
+      <c r="AI373">
+        <v>1.85</v>
+      </c>
+      <c r="AJ373">
+        <v>1.89</v>
+      </c>
+      <c r="AK373">
+        <v>1.36</v>
+      </c>
+      <c r="AL373">
+        <v>1.28</v>
+      </c>
+      <c r="AM373">
+        <v>1.57</v>
+      </c>
+      <c r="AN373">
+        <v>1.56</v>
+      </c>
+      <c r="AO373">
+        <v>1.39</v>
+      </c>
+      <c r="AP373">
+        <v>1.47</v>
+      </c>
+      <c r="AQ373">
+        <v>1.47</v>
+      </c>
+      <c r="AR373">
+        <v>1.49</v>
+      </c>
+      <c r="AS373">
+        <v>1.28</v>
+      </c>
+      <c r="AT373">
+        <v>2.77</v>
+      </c>
+      <c r="AU373">
+        <v>4</v>
+      </c>
+      <c r="AV373">
+        <v>9</v>
+      </c>
+      <c r="AW373">
+        <v>6</v>
+      </c>
+      <c r="AX373">
         <v>5</v>
       </c>
-      <c r="O373" t="s">
-        <v>313</v>
-      </c>
-      <c r="P373" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q373">
-        <v>2.34</v>
-      </c>
-      <c r="R373">
-        <v>2.41</v>
-      </c>
-      <c r="S373">
-        <v>3.98</v>
-      </c>
-      <c r="T373">
-        <v>1.27</v>
-      </c>
-      <c r="U373">
-        <v>3.55</v>
-      </c>
-      <c r="V373">
-        <v>2.24</v>
-      </c>
-      <c r="W373">
-        <v>1.61</v>
-      </c>
-      <c r="X373">
-        <v>5.05</v>
-      </c>
-      <c r="Y373">
-        <v>1.15</v>
-      </c>
-      <c r="Z373">
-        <v>1.8</v>
-      </c>
-      <c r="AA373">
-        <v>3.6</v>
-      </c>
-      <c r="AB373">
-        <v>3.6</v>
-      </c>
-      <c r="AC373">
-        <v>1.01</v>
-      </c>
-      <c r="AD373">
-        <v>12</v>
-      </c>
-      <c r="AE373">
-        <v>1.13</v>
-      </c>
-      <c r="AF373">
-        <v>4.75</v>
-      </c>
-      <c r="AG373">
-        <v>1.61</v>
-      </c>
-      <c r="AH373">
-        <v>2.2</v>
-      </c>
-      <c r="AI373">
-        <v>1.51</v>
-      </c>
-      <c r="AJ373">
-        <v>2.45</v>
-      </c>
-      <c r="AK373">
-        <v>1.25</v>
-      </c>
-      <c r="AL373">
-        <v>1.22</v>
-      </c>
-      <c r="AM373">
-        <v>1.9</v>
-      </c>
-      <c r="AN373">
-        <v>1.78</v>
-      </c>
-      <c r="AO373">
-        <v>1.33</v>
-      </c>
-      <c r="AP373">
-        <v>1.84</v>
-      </c>
-      <c r="AQ373">
-        <v>1.26</v>
-      </c>
-      <c r="AR373">
-        <v>1.69</v>
-      </c>
-      <c r="AS373">
-        <v>1.25</v>
-      </c>
-      <c r="AT373">
-        <v>2.94</v>
-      </c>
-      <c r="AU373">
-        <v>8</v>
-      </c>
-      <c r="AV373">
-        <v>6</v>
-      </c>
-      <c r="AW373">
-        <v>7</v>
-      </c>
-      <c r="AX373">
-        <v>3</v>
-      </c>
       <c r="AY373">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ373">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA373">
+        <v>4</v>
+      </c>
+      <c r="BB373">
         <v>5</v>
-      </c>
-      <c r="BB373">
-        <v>4</v>
       </c>
       <c r="BC373">
         <v>9</v>
       </c>
       <c r="BD373">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="BE373">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF373">
-        <v>3.16</v>
+        <v>2.62</v>
       </c>
       <c r="BG373">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BH373">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BI373">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="BJ373">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="BK373">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BL373">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BM373">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="BN373">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BO373">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="BP373">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="374" spans="1:68">
@@ -78613,7 +78619,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>6652211</v>
+        <v>6652215</v>
       </c>
       <c r="C374" t="s">
         <v>68</v>
@@ -78628,10 +78634,10 @@
         <v>38</v>
       </c>
       <c r="G374" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H374" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I374">
         <v>1</v>
@@ -78652,166 +78658,166 @@
         <v>2</v>
       </c>
       <c r="O374" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="P374" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="Q374">
-        <v>4.05</v>
+        <v>2.96</v>
       </c>
       <c r="R374">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="S374">
-        <v>2.59</v>
+        <v>3.4</v>
       </c>
       <c r="T374">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U374">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="V374">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="W374">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X374">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="Y374">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z374">
+        <v>2.3</v>
+      </c>
+      <c r="AA374">
         <v>3.2</v>
       </c>
-      <c r="AA374">
-        <v>3.5</v>
-      </c>
       <c r="AB374">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="AC374">
         <v>1.01</v>
       </c>
       <c r="AD374">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE374">
+        <v>1.22</v>
+      </c>
+      <c r="AF374">
+        <v>3.66</v>
+      </c>
+      <c r="AG374">
+        <v>1.8</v>
+      </c>
+      <c r="AH374">
+        <v>1.91</v>
+      </c>
+      <c r="AI374">
+        <v>1.64</v>
+      </c>
+      <c r="AJ374">
+        <v>2.17</v>
+      </c>
+      <c r="AK374">
+        <v>1.42</v>
+      </c>
+      <c r="AL374">
         <v>1.25</v>
       </c>
-      <c r="AF374">
-        <v>3.42</v>
-      </c>
-      <c r="AG374">
-        <v>1.95</v>
-      </c>
-      <c r="AH374">
-        <v>1.8</v>
-      </c>
-      <c r="AI374">
-        <v>1.72</v>
-      </c>
-      <c r="AJ374">
-        <v>2.05</v>
-      </c>
-      <c r="AK374">
-        <v>1.77</v>
-      </c>
-      <c r="AL374">
-        <v>1.22</v>
-      </c>
       <c r="AM374">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AN374">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AO374">
         <v>1.33</v>
       </c>
       <c r="AP374">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AQ374">
         <v>1.32</v>
       </c>
       <c r="AR374">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS374">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AT374">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="AU374">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV374">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW374">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX374">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY374">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ374">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA374">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB374">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC374">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD374">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="BE374">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF374">
         <v>1.82</v>
       </c>
       <c r="BG374">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="BH374">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="BI374">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="BJ374">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="BK374">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="BL374">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BM374">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="BN374">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BO374">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="BP374">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="375" spans="1:68">
@@ -78819,7 +78825,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>6652212</v>
+        <v>6652214</v>
       </c>
       <c r="C375" t="s">
         <v>68</v>
@@ -78834,190 +78840,190 @@
         <v>38</v>
       </c>
       <c r="G375" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H375" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J375">
         <v>1</v>
       </c>
       <c r="K375">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L375">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M375">
         <v>1</v>
       </c>
       <c r="N375">
+        <v>1</v>
+      </c>
+      <c r="O375" t="s">
+        <v>90</v>
+      </c>
+      <c r="P375" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q375">
+        <v>2.52</v>
+      </c>
+      <c r="R375">
+        <v>2.11</v>
+      </c>
+      <c r="S375">
+        <v>4.5</v>
+      </c>
+      <c r="T375">
+        <v>1.42</v>
+      </c>
+      <c r="U375">
+        <v>2.75</v>
+      </c>
+      <c r="V375">
+        <v>2.95</v>
+      </c>
+      <c r="W375">
+        <v>1.37</v>
+      </c>
+      <c r="X375">
+        <v>7.7</v>
+      </c>
+      <c r="Y375">
+        <v>1.07</v>
+      </c>
+      <c r="Z375">
+        <v>1.91</v>
+      </c>
+      <c r="AA375">
+        <v>3.3</v>
+      </c>
+      <c r="AB375">
+        <v>3.5</v>
+      </c>
+      <c r="AC375">
+        <v>1.03</v>
+      </c>
+      <c r="AD375">
+        <v>8.4</v>
+      </c>
+      <c r="AE375">
+        <v>1.31</v>
+      </c>
+      <c r="AF375">
+        <v>3.04</v>
+      </c>
+      <c r="AG375">
+        <v>2.05</v>
+      </c>
+      <c r="AH375">
+        <v>1.7</v>
+      </c>
+      <c r="AI375">
+        <v>1.87</v>
+      </c>
+      <c r="AJ375">
+        <v>1.87</v>
+      </c>
+      <c r="AK375">
+        <v>1.25</v>
+      </c>
+      <c r="AL375">
+        <v>1.25</v>
+      </c>
+      <c r="AM375">
+        <v>1.8</v>
+      </c>
+      <c r="AN375">
+        <v>1.22</v>
+      </c>
+      <c r="AO375">
+        <v>1.61</v>
+      </c>
+      <c r="AP375">
+        <v>1.16</v>
+      </c>
+      <c r="AQ375">
+        <v>1.68</v>
+      </c>
+      <c r="AR375">
+        <v>1.57</v>
+      </c>
+      <c r="AS375">
+        <v>1.26</v>
+      </c>
+      <c r="AT375">
+        <v>2.83</v>
+      </c>
+      <c r="AU375">
         <v>5</v>
       </c>
-      <c r="O375" t="s">
-        <v>314</v>
-      </c>
-      <c r="P375" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q375">
-        <v>1.82</v>
-      </c>
-      <c r="R375">
-        <v>2.6</v>
-      </c>
-      <c r="S375">
-        <v>6.25</v>
-      </c>
-      <c r="T375">
-        <v>1.26</v>
-      </c>
-      <c r="U375">
-        <v>3.64</v>
-      </c>
-      <c r="V375">
-        <v>2.24</v>
-      </c>
-      <c r="W375">
-        <v>1.61</v>
-      </c>
-      <c r="X375">
-        <v>5</v>
-      </c>
-      <c r="Y375">
-        <v>1.15</v>
-      </c>
-      <c r="Z375">
-        <v>1.35</v>
-      </c>
-      <c r="AA375">
-        <v>4.6</v>
-      </c>
-      <c r="AB375">
-        <v>6.5</v>
-      </c>
-      <c r="AC375">
-        <v>1.02</v>
-      </c>
-      <c r="AD375">
-        <v>21.5</v>
-      </c>
-      <c r="AE375">
-        <v>1.13</v>
-      </c>
-      <c r="AF375">
-        <v>4.8</v>
-      </c>
-      <c r="AG375">
-        <v>1.5</v>
-      </c>
-      <c r="AH375">
-        <v>2.4</v>
-      </c>
-      <c r="AI375">
-        <v>1.75</v>
-      </c>
-      <c r="AJ375">
-        <v>2.01</v>
-      </c>
-      <c r="AK375">
-        <v>1.09</v>
-      </c>
-      <c r="AL375">
-        <v>1.11</v>
-      </c>
-      <c r="AM375">
-        <v>2.95</v>
-      </c>
-      <c r="AN375">
-        <v>2.11</v>
-      </c>
-      <c r="AO375">
-        <v>1</v>
-      </c>
-      <c r="AP375">
-        <v>2.16</v>
-      </c>
-      <c r="AQ375">
-        <v>0.95</v>
-      </c>
-      <c r="AR375">
-        <v>1.69</v>
-      </c>
-      <c r="AS375">
-        <v>1.2</v>
-      </c>
-      <c r="AT375">
-        <v>2.89</v>
-      </c>
-      <c r="AU375">
-        <v>11</v>
-      </c>
       <c r="AV375">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW375">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX375">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY375">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ375">
         <v>9</v>
       </c>
       <c r="BA375">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BB375">
         <v>1</v>
       </c>
       <c r="BC375">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BD375">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="BE375">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BF375">
-        <v>4.64</v>
+        <v>2.45</v>
       </c>
       <c r="BG375">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="BH375">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="BI375">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="BJ375">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="BK375">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="BL375">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="BM375">
-        <v>2.38</v>
+        <v>2.95</v>
       </c>
       <c r="BN375">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="BO375">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="BP375">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="376" spans="1:68">
@@ -79025,7 +79031,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>6652213</v>
+        <v>6652212</v>
       </c>
       <c r="C376" t="s">
         <v>68</v>
@@ -79040,190 +79046,190 @@
         <v>38</v>
       </c>
       <c r="G376" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H376" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I376">
         <v>1</v>
       </c>
       <c r="J376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L376">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N376">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O376" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P376" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="Q376">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="R376">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="S376">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="T376">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="U376">
-        <v>3.16</v>
+        <v>3.64</v>
       </c>
       <c r="V376">
+        <v>2.24</v>
+      </c>
+      <c r="W376">
+        <v>1.61</v>
+      </c>
+      <c r="X376">
+        <v>5</v>
+      </c>
+      <c r="Y376">
+        <v>1.15</v>
+      </c>
+      <c r="Z376">
+        <v>1.35</v>
+      </c>
+      <c r="AA376">
+        <v>4.6</v>
+      </c>
+      <c r="AB376">
+        <v>6.5</v>
+      </c>
+      <c r="AC376">
+        <v>1.02</v>
+      </c>
+      <c r="AD376">
+        <v>21.5</v>
+      </c>
+      <c r="AE376">
+        <v>1.13</v>
+      </c>
+      <c r="AF376">
+        <v>4.8</v>
+      </c>
+      <c r="AG376">
+        <v>1.5</v>
+      </c>
+      <c r="AH376">
+        <v>2.4</v>
+      </c>
+      <c r="AI376">
+        <v>1.75</v>
+      </c>
+      <c r="AJ376">
+        <v>2.01</v>
+      </c>
+      <c r="AK376">
+        <v>1.09</v>
+      </c>
+      <c r="AL376">
+        <v>1.11</v>
+      </c>
+      <c r="AM376">
+        <v>2.95</v>
+      </c>
+      <c r="AN376">
+        <v>2.11</v>
+      </c>
+      <c r="AO376">
+        <v>1</v>
+      </c>
+      <c r="AP376">
+        <v>2.16</v>
+      </c>
+      <c r="AQ376">
+        <v>0.95</v>
+      </c>
+      <c r="AR376">
+        <v>1.69</v>
+      </c>
+      <c r="AS376">
+        <v>1.2</v>
+      </c>
+      <c r="AT376">
+        <v>2.89</v>
+      </c>
+      <c r="AU376">
+        <v>11</v>
+      </c>
+      <c r="AV376">
+        <v>5</v>
+      </c>
+      <c r="AW376">
+        <v>10</v>
+      </c>
+      <c r="AX376">
+        <v>4</v>
+      </c>
+      <c r="AY376">
+        <v>21</v>
+      </c>
+      <c r="AZ376">
+        <v>9</v>
+      </c>
+      <c r="BA376">
+        <v>2</v>
+      </c>
+      <c r="BB376">
+        <v>1</v>
+      </c>
+      <c r="BC376">
+        <v>3</v>
+      </c>
+      <c r="BD376">
+        <v>1.26</v>
+      </c>
+      <c r="BE376">
+        <v>10</v>
+      </c>
+      <c r="BF376">
+        <v>4.64</v>
+      </c>
+      <c r="BG376">
+        <v>1.25</v>
+      </c>
+      <c r="BH376">
+        <v>3.7</v>
+      </c>
+      <c r="BI376">
+        <v>1.47</v>
+      </c>
+      <c r="BJ376">
         <v>2.55</v>
       </c>
-      <c r="W376">
-        <v>1.48</v>
-      </c>
-      <c r="X376">
-        <v>6.15</v>
-      </c>
-      <c r="Y376">
-        <v>1.1</v>
-      </c>
-      <c r="Z376">
-        <v>1.33</v>
-      </c>
-      <c r="AA376">
-        <v>4.5</v>
-      </c>
-      <c r="AB376">
-        <v>7</v>
-      </c>
-      <c r="AC376">
-        <v>1.01</v>
-      </c>
-      <c r="AD376">
-        <v>11</v>
-      </c>
-      <c r="AE376">
-        <v>1.21</v>
-      </c>
-      <c r="AF376">
-        <v>3.75</v>
-      </c>
-      <c r="AG376">
-        <v>1.73</v>
-      </c>
-      <c r="AH376">
-        <v>2</v>
-      </c>
-      <c r="AI376">
-        <v>2.01</v>
-      </c>
-      <c r="AJ376">
-        <v>1.75</v>
-      </c>
-      <c r="AK376">
-        <v>1.06</v>
-      </c>
-      <c r="AL376">
-        <v>1.18</v>
-      </c>
-      <c r="AM376">
-        <v>3.1</v>
-      </c>
-      <c r="AN376">
-        <v>1.83</v>
-      </c>
-      <c r="AO376">
-        <v>0.47</v>
-      </c>
-      <c r="AP376">
-        <v>1.89</v>
-      </c>
-      <c r="AQ376">
-        <v>0.44</v>
-      </c>
-      <c r="AR376">
-        <v>1.43</v>
-      </c>
-      <c r="AS376">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT376">
-        <v>2.37</v>
-      </c>
-      <c r="AU376">
-        <v>9</v>
-      </c>
-      <c r="AV376">
-        <v>4</v>
-      </c>
-      <c r="AW376">
-        <v>9</v>
-      </c>
-      <c r="AX376">
-        <v>11</v>
-      </c>
-      <c r="AY376">
-        <v>18</v>
-      </c>
-      <c r="AZ376">
-        <v>15</v>
-      </c>
-      <c r="BA376">
-        <v>5</v>
-      </c>
-      <c r="BB376">
-        <v>5</v>
-      </c>
-      <c r="BC376">
-        <v>10</v>
-      </c>
-      <c r="BD376">
-        <v>1.14</v>
-      </c>
-      <c r="BE376">
-        <v>11</v>
-      </c>
-      <c r="BF376">
-        <v>7.55</v>
-      </c>
-      <c r="BG376">
-        <v>1.48</v>
-      </c>
-      <c r="BH376">
-        <v>2.55</v>
-      </c>
-      <c r="BI376">
-        <v>1.85</v>
-      </c>
-      <c r="BJ376">
-        <v>1.85</v>
-      </c>
       <c r="BK376">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="BL376">
-        <v>1.49</v>
+        <v>1.91</v>
       </c>
       <c r="BM376">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="BN376">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="BO376">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="BP376">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="377" spans="1:68">
@@ -79231,7 +79237,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>6652214</v>
+        <v>6652211</v>
       </c>
       <c r="C377" t="s">
         <v>68</v>
@@ -79246,190 +79252,190 @@
         <v>38</v>
       </c>
       <c r="G377" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H377" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377">
         <v>1</v>
       </c>
       <c r="K377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M377">
         <v>1</v>
       </c>
       <c r="N377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O377" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="P377" t="s">
-        <v>93</v>
+        <v>443</v>
       </c>
       <c r="Q377">
-        <v>2.52</v>
+        <v>4.05</v>
       </c>
       <c r="R377">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="S377">
-        <v>4.5</v>
+        <v>2.59</v>
       </c>
       <c r="T377">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="U377">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="V377">
-        <v>2.95</v>
+        <v>2.71</v>
       </c>
       <c r="W377">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="X377">
-        <v>7.7</v>
+        <v>6.75</v>
       </c>
       <c r="Y377">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="Z377">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="AA377">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB377">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="AC377">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD377">
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="AE377">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AF377">
-        <v>3.04</v>
+        <v>3.42</v>
       </c>
       <c r="AG377">
+        <v>1.95</v>
+      </c>
+      <c r="AH377">
+        <v>1.8</v>
+      </c>
+      <c r="AI377">
+        <v>1.72</v>
+      </c>
+      <c r="AJ377">
         <v>2.05</v>
       </c>
-      <c r="AH377">
-        <v>1.7</v>
-      </c>
-      <c r="AI377">
-        <v>1.87</v>
-      </c>
-      <c r="AJ377">
-        <v>1.87</v>
-      </c>
       <c r="AK377">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="AL377">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM377">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AN377">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="AO377">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="AP377">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="AQ377">
-        <v>1.68</v>
+        <v>1.3</v>
       </c>
       <c r="AR377">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="AS377">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AT377">
-        <v>2.83</v>
+        <v>2.66</v>
       </c>
       <c r="AU377">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV377">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW377">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX377">
+        <v>2</v>
+      </c>
+      <c r="AY377">
+        <v>14</v>
+      </c>
+      <c r="AZ377">
         <v>6</v>
       </c>
-      <c r="AY377">
-        <v>13</v>
-      </c>
-      <c r="AZ377">
-        <v>9</v>
-      </c>
       <c r="BA377">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BB377">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC377">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD377">
-        <v>1.75</v>
+        <v>2.34</v>
       </c>
       <c r="BE377">
         <v>7.5</v>
       </c>
       <c r="BF377">
-        <v>2.45</v>
+        <v>1.82</v>
       </c>
       <c r="BG377">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="BH377">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="BI377">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BJ377">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="BK377">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BL377">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="BM377">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="BN377">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="BO377">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="BP377">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="378" spans="1:68">
@@ -79437,7 +79443,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>6652215</v>
+        <v>6652210</v>
       </c>
       <c r="C378" t="s">
         <v>68</v>
@@ -79452,124 +79458,124 @@
         <v>38</v>
       </c>
       <c r="G378" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H378" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K378">
         <v>2</v>
       </c>
       <c r="L378">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N378">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O378" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="P378" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="Q378">
-        <v>2.96</v>
+        <v>2.34</v>
       </c>
       <c r="R378">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="S378">
-        <v>3.4</v>
+        <v>3.98</v>
       </c>
       <c r="T378">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="U378">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="V378">
-        <v>2.61</v>
+        <v>2.24</v>
       </c>
       <c r="W378">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="X378">
-        <v>6.4</v>
+        <v>5.05</v>
       </c>
       <c r="Y378">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z378">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AA378">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB378">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="AC378">
         <v>1.01</v>
       </c>
       <c r="AD378">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AE378">
+        <v>1.13</v>
+      </c>
+      <c r="AF378">
+        <v>4.75</v>
+      </c>
+      <c r="AG378">
+        <v>1.61</v>
+      </c>
+      <c r="AH378">
+        <v>2.2</v>
+      </c>
+      <c r="AI378">
+        <v>1.51</v>
+      </c>
+      <c r="AJ378">
+        <v>2.45</v>
+      </c>
+      <c r="AK378">
+        <v>1.25</v>
+      </c>
+      <c r="AL378">
         <v>1.22</v>
       </c>
-      <c r="AF378">
-        <v>3.66</v>
-      </c>
-      <c r="AG378">
-        <v>1.8</v>
-      </c>
-      <c r="AH378">
-        <v>1.91</v>
-      </c>
-      <c r="AI378">
-        <v>1.64</v>
-      </c>
-      <c r="AJ378">
-        <v>2.17</v>
-      </c>
-      <c r="AK378">
-        <v>1.42</v>
-      </c>
-      <c r="AL378">
-        <v>1.25</v>
-      </c>
       <c r="AM378">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="AN378">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AO378">
         <v>1.33</v>
       </c>
       <c r="AP378">
-        <v>1.39</v>
+        <v>1.84</v>
       </c>
       <c r="AQ378">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AR378">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="AS378">
         <v>1.25</v>
       </c>
       <c r="AT378">
-        <v>2.61</v>
+        <v>2.94</v>
       </c>
       <c r="AU378">
         <v>8</v>
@@ -79578,64 +79584,64 @@
         <v>6</v>
       </c>
       <c r="AW378">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AX378">
+        <v>3</v>
+      </c>
+      <c r="AY378">
+        <v>15</v>
+      </c>
+      <c r="AZ378">
+        <v>9</v>
+      </c>
+      <c r="BA378">
         <v>5</v>
       </c>
-      <c r="AY378">
-        <v>20</v>
-      </c>
-      <c r="AZ378">
-        <v>11</v>
-      </c>
-      <c r="BA378">
-        <v>8</v>
-      </c>
       <c r="BB378">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC378">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD378">
-        <v>2.33</v>
+        <v>1.51</v>
       </c>
       <c r="BE378">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF378">
-        <v>1.82</v>
+        <v>3.16</v>
       </c>
       <c r="BG378">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BH378">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BI378">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="BJ378">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BK378">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="BL378">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BM378">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="BN378">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="BO378">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="BP378">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="379" spans="1:68">
@@ -79643,7 +79649,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>6652216</v>
+        <v>6652209</v>
       </c>
       <c r="C379" t="s">
         <v>68</v>
@@ -79658,190 +79664,190 @@
         <v>38</v>
       </c>
       <c r="G379" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H379" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J379">
         <v>0</v>
       </c>
       <c r="K379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M379">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N379">
+        <v>0</v>
+      </c>
+      <c r="O379" t="s">
+        <v>90</v>
+      </c>
+      <c r="P379" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q379">
+        <v>1.89</v>
+      </c>
+      <c r="R379">
+        <v>2.48</v>
+      </c>
+      <c r="S379">
+        <v>6.2</v>
+      </c>
+      <c r="T379">
+        <v>1.3</v>
+      </c>
+      <c r="U379">
+        <v>3.34</v>
+      </c>
+      <c r="V379">
+        <v>2.4</v>
+      </c>
+      <c r="W379">
+        <v>1.53</v>
+      </c>
+      <c r="X379">
+        <v>5.55</v>
+      </c>
+      <c r="Y379">
+        <v>1.12</v>
+      </c>
+      <c r="Z379">
+        <v>1.48</v>
+      </c>
+      <c r="AA379">
         <v>4</v>
       </c>
-      <c r="O379" t="s">
-        <v>93</v>
-      </c>
-      <c r="P379" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q379">
-        <v>2.99</v>
-      </c>
-      <c r="R379">
-        <v>2.06</v>
-      </c>
-      <c r="S379">
-        <v>3.66</v>
-      </c>
-      <c r="T379">
-        <v>1.44</v>
-      </c>
-      <c r="U379">
-        <v>2.67</v>
-      </c>
-      <c r="V379">
-        <v>3.05</v>
-      </c>
-      <c r="W379">
-        <v>1.35</v>
-      </c>
-      <c r="X379">
-        <v>8.1</v>
-      </c>
-      <c r="Y379">
-        <v>1.06</v>
-      </c>
-      <c r="Z379">
-        <v>2.25</v>
-      </c>
-      <c r="AA379">
-        <v>3</v>
-      </c>
       <c r="AB379">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="AC379">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD379">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="AE379">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AF379">
-        <v>2.93</v>
+        <v>4.25</v>
       </c>
       <c r="AG379">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AH379">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="AI379">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AJ379">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AK379">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="AL379">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AM379">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="AN379">
-        <v>1.56</v>
+        <v>2.33</v>
       </c>
       <c r="AO379">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AP379">
-        <v>1.47</v>
+        <v>2.26</v>
       </c>
       <c r="AQ379">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AR379">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS379">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT379">
-        <v>2.77</v>
+        <v>2.66</v>
       </c>
       <c r="AU379">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV379">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW379">
         <v>6</v>
       </c>
       <c r="AX379">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY379">
+        <v>9</v>
+      </c>
+      <c r="AZ379">
+        <v>4</v>
+      </c>
+      <c r="BA379">
+        <v>12</v>
+      </c>
+      <c r="BB379">
+        <v>1</v>
+      </c>
+      <c r="BC379">
+        <v>13</v>
+      </c>
+      <c r="BD379">
+        <v>1.26</v>
+      </c>
+      <c r="BE379">
         <v>10</v>
       </c>
-      <c r="AZ379">
-        <v>14</v>
-      </c>
-      <c r="BA379">
-        <v>4</v>
-      </c>
-      <c r="BB379">
-        <v>5</v>
-      </c>
-      <c r="BC379">
-        <v>9</v>
-      </c>
-      <c r="BD379">
-        <v>1.69</v>
-      </c>
-      <c r="BE379">
-        <v>8</v>
-      </c>
       <c r="BF379">
-        <v>2.62</v>
+        <v>4.64</v>
       </c>
       <c r="BG379">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BH379">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="BI379">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BJ379">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="BK379">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BL379">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BM379">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="BN379">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="BO379">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BP379">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="380" spans="1:68">
@@ -79849,7 +79855,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>6652217</v>
+        <v>6652213</v>
       </c>
       <c r="C380" t="s">
         <v>68</v>
@@ -79864,25 +79870,25 @@
         <v>38</v>
       </c>
       <c r="G380" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H380" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380">
         <v>0</v>
       </c>
       <c r="K380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L380">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N380">
         <v>3</v>
@@ -79891,163 +79897,369 @@
         <v>316</v>
       </c>
       <c r="P380" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="Q380">
-        <v>4.1</v>
+        <v>1.86</v>
       </c>
       <c r="R380">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="S380">
-        <v>2.44</v>
+        <v>7</v>
       </c>
       <c r="T380">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U380">
-        <v>3.22</v>
+        <v>3.16</v>
       </c>
       <c r="V380">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="W380">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X380">
-        <v>5.95</v>
+        <v>6.15</v>
       </c>
       <c r="Y380">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z380">
-        <v>4</v>
+        <v>1.33</v>
       </c>
       <c r="AA380">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB380">
-        <v>1.67</v>
+        <v>7</v>
       </c>
       <c r="AC380">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD380">
         <v>11</v>
       </c>
       <c r="AE380">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AF380">
-        <v>3.94</v>
+        <v>3.75</v>
       </c>
       <c r="AG380">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AH380">
+        <v>2</v>
+      </c>
+      <c r="AI380">
+        <v>2.01</v>
+      </c>
+      <c r="AJ380">
+        <v>1.75</v>
+      </c>
+      <c r="AK380">
+        <v>1.06</v>
+      </c>
+      <c r="AL380">
+        <v>1.18</v>
+      </c>
+      <c r="AM380">
+        <v>3.1</v>
+      </c>
+      <c r="AN380">
+        <v>1.83</v>
+      </c>
+      <c r="AO380">
+        <v>0.47</v>
+      </c>
+      <c r="AP380">
+        <v>1.89</v>
+      </c>
+      <c r="AQ380">
+        <v>0.44</v>
+      </c>
+      <c r="AR380">
+        <v>1.43</v>
+      </c>
+      <c r="AS380">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT380">
+        <v>2.37</v>
+      </c>
+      <c r="AU380">
+        <v>9</v>
+      </c>
+      <c r="AV380">
+        <v>4</v>
+      </c>
+      <c r="AW380">
+        <v>9</v>
+      </c>
+      <c r="AX380">
+        <v>11</v>
+      </c>
+      <c r="AY380">
+        <v>18</v>
+      </c>
+      <c r="AZ380">
+        <v>15</v>
+      </c>
+      <c r="BA380">
+        <v>5</v>
+      </c>
+      <c r="BB380">
+        <v>5</v>
+      </c>
+      <c r="BC380">
+        <v>10</v>
+      </c>
+      <c r="BD380">
+        <v>1.14</v>
+      </c>
+      <c r="BE380">
+        <v>11</v>
+      </c>
+      <c r="BF380">
+        <v>7.55</v>
+      </c>
+      <c r="BG380">
+        <v>1.48</v>
+      </c>
+      <c r="BH380">
+        <v>2.55</v>
+      </c>
+      <c r="BI380">
+        <v>1.85</v>
+      </c>
+      <c r="BJ380">
+        <v>1.85</v>
+      </c>
+      <c r="BK380">
+        <v>2.5</v>
+      </c>
+      <c r="BL380">
+        <v>1.49</v>
+      </c>
+      <c r="BM380">
+        <v>3.5</v>
+      </c>
+      <c r="BN380">
+        <v>1.28</v>
+      </c>
+      <c r="BO380">
+        <v>5.1</v>
+      </c>
+      <c r="BP380">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="381" spans="1:68">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>7438106</v>
+      </c>
+      <c r="C381" t="s">
+        <v>68</v>
+      </c>
+      <c r="D381" t="s">
+        <v>69</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45433.64583333334</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381" t="s">
+        <v>80</v>
+      </c>
+      <c r="H381" t="s">
+        <v>76</v>
+      </c>
+      <c r="I381">
+        <v>2</v>
+      </c>
+      <c r="J381">
+        <v>1</v>
+      </c>
+      <c r="K381">
+        <v>3</v>
+      </c>
+      <c r="L381">
+        <v>2</v>
+      </c>
+      <c r="M381">
+        <v>2</v>
+      </c>
+      <c r="N381">
+        <v>4</v>
+      </c>
+      <c r="O381" t="s">
+        <v>317</v>
+      </c>
+      <c r="P381" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q381">
+        <v>3</v>
+      </c>
+      <c r="R381">
         <v>2.1</v>
       </c>
-      <c r="AI380">
-        <v>1.63</v>
-      </c>
-      <c r="AJ380">
-        <v>2.19</v>
-      </c>
-      <c r="AK380">
-        <v>1.93</v>
-      </c>
-      <c r="AL380">
-        <v>1.22</v>
-      </c>
-      <c r="AM380">
-        <v>1.22</v>
-      </c>
-      <c r="AN380">
-        <v>0.89</v>
-      </c>
-      <c r="AO380">
-        <v>1.72</v>
-      </c>
-      <c r="AP380">
-        <v>1</v>
-      </c>
-      <c r="AQ380">
-        <v>1.63</v>
-      </c>
-      <c r="AR380">
-        <v>1.69</v>
-      </c>
-      <c r="AS380">
-        <v>1.43</v>
-      </c>
-      <c r="AT380">
-        <v>3.12</v>
-      </c>
-      <c r="AU380">
+      <c r="S381">
+        <v>3.75</v>
+      </c>
+      <c r="T381">
+        <v>1.44</v>
+      </c>
+      <c r="U381">
+        <v>2.63</v>
+      </c>
+      <c r="V381">
+        <v>3</v>
+      </c>
+      <c r="W381">
+        <v>1.36</v>
+      </c>
+      <c r="X381">
+        <v>9</v>
+      </c>
+      <c r="Y381">
+        <v>1.07</v>
+      </c>
+      <c r="Z381">
+        <v>2.3</v>
+      </c>
+      <c r="AA381">
+        <v>3.2</v>
+      </c>
+      <c r="AB381">
+        <v>3.1</v>
+      </c>
+      <c r="AC381">
+        <v>0</v>
+      </c>
+      <c r="AD381">
+        <v>0</v>
+      </c>
+      <c r="AE381">
+        <v>0</v>
+      </c>
+      <c r="AF381">
+        <v>0</v>
+      </c>
+      <c r="AG381">
+        <v>2.05</v>
+      </c>
+      <c r="AH381">
+        <v>1.7</v>
+      </c>
+      <c r="AI381">
+        <v>1.8</v>
+      </c>
+      <c r="AJ381">
+        <v>1.91</v>
+      </c>
+      <c r="AK381">
+        <v>0</v>
+      </c>
+      <c r="AL381">
+        <v>0</v>
+      </c>
+      <c r="AM381">
+        <v>0</v>
+      </c>
+      <c r="AN381">
+        <v>1.58</v>
+      </c>
+      <c r="AO381">
+        <v>1.55</v>
+      </c>
+      <c r="AP381">
+        <v>1.56</v>
+      </c>
+      <c r="AQ381">
+        <v>1.54</v>
+      </c>
+      <c r="AR381">
+        <v>1.6</v>
+      </c>
+      <c r="AS381">
+        <v>1.32</v>
+      </c>
+      <c r="AT381">
+        <v>2.92</v>
+      </c>
+      <c r="AU381">
+        <v>12</v>
+      </c>
+      <c r="AV381">
+        <v>6</v>
+      </c>
+      <c r="AW381">
+        <v>11</v>
+      </c>
+      <c r="AX381">
         <v>5</v>
       </c>
-      <c r="AV380">
+      <c r="AY381">
+        <v>23</v>
+      </c>
+      <c r="AZ381">
         <v>11</v>
       </c>
-      <c r="AW380">
-        <v>6</v>
-      </c>
-      <c r="AX380">
-        <v>17</v>
-      </c>
-      <c r="AY380">
-        <v>11</v>
-      </c>
-      <c r="AZ380">
-        <v>28</v>
-      </c>
-      <c r="BA380">
-        <v>3</v>
-      </c>
-      <c r="BB380">
-        <v>8</v>
-      </c>
-      <c r="BC380">
-        <v>11</v>
-      </c>
-      <c r="BD380">
-        <v>2.33</v>
-      </c>
-      <c r="BE380">
-        <v>8</v>
-      </c>
-      <c r="BF380">
-        <v>1.82</v>
-      </c>
-      <c r="BG380">
-        <v>1.27</v>
-      </c>
-      <c r="BH380">
-        <v>3.55</v>
-      </c>
-      <c r="BI380">
-        <v>1.5</v>
-      </c>
-      <c r="BJ380">
-        <v>2.48</v>
-      </c>
-      <c r="BK380">
-        <v>1.85</v>
-      </c>
-      <c r="BL380">
-        <v>1.85</v>
-      </c>
-      <c r="BM380">
-        <v>2.45</v>
-      </c>
-      <c r="BN380">
-        <v>1.5</v>
-      </c>
-      <c r="BO380">
-        <v>3.4</v>
-      </c>
-      <c r="BP380">
-        <v>1.29</v>
+      <c r="BA381">
+        <v>5</v>
+      </c>
+      <c r="BB381">
+        <v>7</v>
+      </c>
+      <c r="BC381">
+        <v>12</v>
+      </c>
+      <c r="BD381">
+        <v>0</v>
+      </c>
+      <c r="BE381">
+        <v>0</v>
+      </c>
+      <c r="BF381">
+        <v>0</v>
+      </c>
+      <c r="BG381">
+        <v>0</v>
+      </c>
+      <c r="BH381">
+        <v>0</v>
+      </c>
+      <c r="BI381">
+        <v>0</v>
+      </c>
+      <c r="BJ381">
+        <v>0</v>
+      </c>
+      <c r="BK381">
+        <v>0</v>
+      </c>
+      <c r="BL381">
+        <v>0</v>
+      </c>
+      <c r="BM381">
+        <v>0</v>
+      </c>
+      <c r="BN381">
+        <v>0</v>
+      </c>
+      <c r="BO381">
+        <v>0</v>
+      </c>
+      <c r="BP381">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="466">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -970,6 +970,9 @@
     <t>['9', '33']</t>
   </si>
   <si>
+    <t>['64', '90+6']</t>
+  </si>
+  <si>
     <t>['54', '72', '74', '90']</t>
   </si>
   <si>
@@ -1770,7 +1773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP381"/>
+  <dimension ref="A1:BP382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2107,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ2">
         <v>1.21</v>
@@ -2522,7 +2525,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ4">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2647,7 +2650,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2853,7 +2856,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -3265,7 +3268,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3471,7 +3474,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -4089,7 +4092,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4913,7 +4916,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -6149,7 +6152,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6767,7 +6770,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -7054,7 +7057,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ26">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
         <v>1.36</v>
@@ -7591,7 +7594,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7875,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -9651,7 +9654,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -10269,7 +10272,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q42">
         <v>2.65</v>
@@ -10553,7 +10556,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ43">
         <v>0.44</v>
@@ -11093,7 +11096,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q46">
         <v>3.6</v>
@@ -11299,7 +11302,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q47">
         <v>2.7</v>
@@ -11505,7 +11508,7 @@
         <v>119</v>
       </c>
       <c r="P48" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11586,7 +11589,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ48">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -11917,7 +11920,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -12329,7 +12332,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12535,7 +12538,7 @@
         <v>124</v>
       </c>
       <c r="P53" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -13153,7 +13156,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13359,7 +13362,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q57">
         <v>2.1</v>
@@ -13565,7 +13568,7 @@
         <v>90</v>
       </c>
       <c r="P58" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13977,7 +13980,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q60">
         <v>4.5</v>
@@ -14389,7 +14392,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q62">
         <v>3.5</v>
@@ -14801,7 +14804,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q64">
         <v>2.65</v>
@@ -15007,7 +15010,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15419,7 +15422,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15625,7 +15628,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -15706,7 +15709,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ68">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR68">
         <v>1.61</v>
@@ -15831,7 +15834,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q69">
         <v>3.5</v>
@@ -17685,7 +17688,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17891,7 +17894,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -18509,7 +18512,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18921,7 +18924,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q84">
         <v>2.55</v>
@@ -19208,7 +19211,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ85">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -19539,7 +19542,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -20157,7 +20160,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q90">
         <v>2.81</v>
@@ -20441,7 +20444,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ91">
         <v>1.58</v>
@@ -20775,7 +20778,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -20981,7 +20984,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21187,7 +21190,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q95">
         <v>2.45</v>
@@ -21393,7 +21396,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q96">
         <v>2.9</v>
@@ -21599,7 +21602,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21883,7 +21886,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ98">
         <v>0.53</v>
@@ -22423,7 +22426,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22835,7 +22838,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -23041,7 +23044,7 @@
         <v>158</v>
       </c>
       <c r="P104" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -23247,7 +23250,7 @@
         <v>159</v>
       </c>
       <c r="P105" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -23659,7 +23662,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q107">
         <v>2.6</v>
@@ -24071,7 +24074,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q109">
         <v>3.4</v>
@@ -24483,7 +24486,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24689,7 +24692,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q112">
         <v>2.27</v>
@@ -24770,7 +24773,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ112">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR112">
         <v>1.88</v>
@@ -24895,7 +24898,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -25101,7 +25104,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q114">
         <v>2.55</v>
@@ -25307,7 +25310,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25513,7 +25516,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q116">
         <v>1.9</v>
@@ -25719,7 +25722,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q117">
         <v>2.7</v>
@@ -26131,7 +26134,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26621,7 +26624,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ121">
         <v>1.32</v>
@@ -26827,7 +26830,7 @@
         <v>0.67</v>
       </c>
       <c r="AP122">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ122">
         <v>1.3</v>
@@ -26955,7 +26958,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q123">
         <v>2.95</v>
@@ -27654,7 +27657,7 @@
         <v>1</v>
       </c>
       <c r="AQ126">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR126">
         <v>1.69</v>
@@ -27779,7 +27782,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q127">
         <v>3.8</v>
@@ -28191,7 +28194,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q129">
         <v>3.45</v>
@@ -28603,7 +28606,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -29221,7 +29224,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q134">
         <v>2.35</v>
@@ -29633,7 +29636,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q136">
         <v>2.9</v>
@@ -29839,7 +29842,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q137">
         <v>2.35</v>
@@ -30251,7 +30254,7 @@
         <v>115</v>
       </c>
       <c r="P139" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q139">
         <v>3.1</v>
@@ -30457,7 +30460,7 @@
         <v>180</v>
       </c>
       <c r="P140" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q140">
         <v>3.85</v>
@@ -30663,7 +30666,7 @@
         <v>181</v>
       </c>
       <c r="P141" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q141">
         <v>2.2</v>
@@ -30741,7 +30744,7 @@
         <v>0.83</v>
       </c>
       <c r="AP141">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ141">
         <v>1.26</v>
@@ -31156,7 +31159,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ143">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR143">
         <v>1.72</v>
@@ -31487,7 +31490,7 @@
         <v>90</v>
       </c>
       <c r="P145" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -32311,7 +32314,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32723,7 +32726,7 @@
         <v>138</v>
       </c>
       <c r="P151" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q151">
         <v>2.9</v>
@@ -33547,7 +33550,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q155">
         <v>2.9</v>
@@ -33959,7 +33962,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q157">
         <v>2.1</v>
@@ -34165,7 +34168,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q158">
         <v>2.85</v>
@@ -35195,7 +35198,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q163">
         <v>4.4</v>
@@ -35401,7 +35404,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -35688,7 +35691,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ165">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR165">
         <v>1.4</v>
@@ -35813,7 +35816,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q166">
         <v>3.3</v>
@@ -36637,7 +36640,7 @@
         <v>143</v>
       </c>
       <c r="P170" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q170">
         <v>2.7</v>
@@ -36715,7 +36718,7 @@
         <v>1.5</v>
       </c>
       <c r="AP170">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ170">
         <v>1.53</v>
@@ -36843,7 +36846,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q171">
         <v>3.3</v>
@@ -37667,7 +37670,7 @@
         <v>162</v>
       </c>
       <c r="P175" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q175">
         <v>4.2</v>
@@ -38079,7 +38082,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q177">
         <v>2.9</v>
@@ -39109,7 +39112,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -39315,7 +39318,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q183">
         <v>3.7</v>
@@ -39521,7 +39524,7 @@
         <v>204</v>
       </c>
       <c r="P184" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q184">
         <v>2.75</v>
@@ -39727,7 +39730,7 @@
         <v>191</v>
       </c>
       <c r="P185" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q185">
         <v>3.5</v>
@@ -39933,7 +39936,7 @@
         <v>205</v>
       </c>
       <c r="P186" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q186">
         <v>2.49</v>
@@ -40011,7 +40014,7 @@
         <v>0.67</v>
       </c>
       <c r="AP186">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ186">
         <v>1.16</v>
@@ -40345,7 +40348,7 @@
         <v>134</v>
       </c>
       <c r="P188" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40426,7 +40429,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ188">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR188">
         <v>1.37</v>
@@ -41247,7 +41250,7 @@
         <v>1.89</v>
       </c>
       <c r="AP192">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ192">
         <v>1.68</v>
@@ -41375,7 +41378,7 @@
         <v>208</v>
       </c>
       <c r="P193" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41993,7 +41996,7 @@
         <v>210</v>
       </c>
       <c r="P196" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q196">
         <v>3.75</v>
@@ -42405,7 +42408,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q198">
         <v>4</v>
@@ -43229,7 +43232,7 @@
         <v>214</v>
       </c>
       <c r="P202" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43847,7 +43850,7 @@
         <v>217</v>
       </c>
       <c r="P205" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43928,7 +43931,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ205">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR205">
         <v>1.48</v>
@@ -44053,7 +44056,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q206">
         <v>3.25</v>
@@ -44465,7 +44468,7 @@
         <v>220</v>
       </c>
       <c r="P208" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -45083,7 +45086,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45289,7 +45292,7 @@
         <v>90</v>
       </c>
       <c r="P212" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q212">
         <v>2.69</v>
@@ -45367,7 +45370,7 @@
         <v>1.22</v>
       </c>
       <c r="AP212">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ212">
         <v>1.47</v>
@@ -45495,7 +45498,7 @@
         <v>95</v>
       </c>
       <c r="P213" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q213">
         <v>2.87</v>
@@ -45907,7 +45910,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q215">
         <v>2.34</v>
@@ -47555,7 +47558,7 @@
         <v>229</v>
       </c>
       <c r="P223" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q223">
         <v>4.33</v>
@@ -48173,7 +48176,7 @@
         <v>226</v>
       </c>
       <c r="P226" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q226">
         <v>2.15</v>
@@ -48460,7 +48463,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ227">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR227">
         <v>1.47</v>
@@ -48585,7 +48588,7 @@
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q228">
         <v>4.33</v>
@@ -48791,7 +48794,7 @@
         <v>134</v>
       </c>
       <c r="P229" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q229">
         <v>3.1</v>
@@ -48997,7 +49000,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -50851,7 +50854,7 @@
         <v>90</v>
       </c>
       <c r="P239" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q239">
         <v>2.8</v>
@@ -51341,7 +51344,7 @@
         <v>0.83</v>
       </c>
       <c r="AP241">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ241">
         <v>0.84</v>
@@ -51469,7 +51472,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q242">
         <v>2.85</v>
@@ -51675,7 +51678,7 @@
         <v>242</v>
       </c>
       <c r="P243" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51881,7 +51884,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -52087,7 +52090,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q245">
         <v>4.5</v>
@@ -52293,7 +52296,7 @@
         <v>90</v>
       </c>
       <c r="P246" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q246">
         <v>3.3</v>
@@ -52499,7 +52502,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52580,7 +52583,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ247">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR247">
         <v>1.23</v>
@@ -53117,7 +53120,7 @@
         <v>245</v>
       </c>
       <c r="P250" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q250">
         <v>2.8</v>
@@ -53607,7 +53610,7 @@
         <v>1</v>
       </c>
       <c r="AP252">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ252">
         <v>1.32</v>
@@ -54434,7 +54437,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ256">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR256">
         <v>1.42</v>
@@ -54559,7 +54562,7 @@
         <v>250</v>
       </c>
       <c r="P257" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q257">
         <v>2.71</v>
@@ -54765,7 +54768,7 @@
         <v>251</v>
       </c>
       <c r="P258" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q258">
         <v>3.7</v>
@@ -55795,7 +55798,7 @@
         <v>253</v>
       </c>
       <c r="P263" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q263">
         <v>3.4</v>
@@ -56825,7 +56828,7 @@
         <v>255</v>
       </c>
       <c r="P268" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q268">
         <v>3</v>
@@ -57031,7 +57034,7 @@
         <v>256</v>
       </c>
       <c r="P269" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q269">
         <v>3.1</v>
@@ -57727,7 +57730,7 @@
         <v>2</v>
       </c>
       <c r="AP272">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ272">
         <v>1.74</v>
@@ -57855,7 +57858,7 @@
         <v>258</v>
       </c>
       <c r="P273" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q273">
         <v>3.75</v>
@@ -58885,7 +58888,7 @@
         <v>260</v>
       </c>
       <c r="P278" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q278">
         <v>2.8</v>
@@ -59091,7 +59094,7 @@
         <v>261</v>
       </c>
       <c r="P279" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q279">
         <v>3</v>
@@ -59172,7 +59175,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ279">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR279">
         <v>1.35</v>
@@ -59503,7 +59506,7 @@
         <v>90</v>
       </c>
       <c r="P281" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q281">
         <v>3.12</v>
@@ -59709,7 +59712,7 @@
         <v>262</v>
       </c>
       <c r="P282" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q282">
         <v>2.2</v>
@@ -59915,7 +59918,7 @@
         <v>263</v>
       </c>
       <c r="P283" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q283">
         <v>2.63</v>
@@ -60121,7 +60124,7 @@
         <v>264</v>
       </c>
       <c r="P284" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q284">
         <v>2.7</v>
@@ -60739,7 +60742,7 @@
         <v>267</v>
       </c>
       <c r="P287" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q287">
         <v>2.62</v>
@@ -60945,7 +60948,7 @@
         <v>147</v>
       </c>
       <c r="P288" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q288">
         <v>2.55</v>
@@ -61563,7 +61566,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q291">
         <v>3.4</v>
@@ -61769,7 +61772,7 @@
         <v>90</v>
       </c>
       <c r="P292" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q292">
         <v>5.5</v>
@@ -61975,7 +61978,7 @@
         <v>95</v>
       </c>
       <c r="P293" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q293">
         <v>3.1</v>
@@ -62387,7 +62390,7 @@
         <v>270</v>
       </c>
       <c r="P295" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q295">
         <v>4.33</v>
@@ -62593,7 +62596,7 @@
         <v>90</v>
       </c>
       <c r="P296" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q296">
         <v>3.1</v>
@@ -62799,7 +62802,7 @@
         <v>271</v>
       </c>
       <c r="P297" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q297">
         <v>3.4</v>
@@ -62880,7 +62883,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ297">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR297">
         <v>1.28</v>
@@ -63005,7 +63008,7 @@
         <v>272</v>
       </c>
       <c r="P298" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q298">
         <v>2.88</v>
@@ -63211,7 +63214,7 @@
         <v>273</v>
       </c>
       <c r="P299" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q299">
         <v>3</v>
@@ -63417,7 +63420,7 @@
         <v>274</v>
       </c>
       <c r="P300" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q300">
         <v>2.75</v>
@@ -63907,7 +63910,7 @@
         <v>1.2</v>
       </c>
       <c r="AP302">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ302">
         <v>0.95</v>
@@ -64035,7 +64038,7 @@
         <v>275</v>
       </c>
       <c r="P303" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q303">
         <v>2.85</v>
@@ -64241,7 +64244,7 @@
         <v>276</v>
       </c>
       <c r="P304" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q304">
         <v>2.62</v>
@@ -66095,7 +66098,7 @@
         <v>280</v>
       </c>
       <c r="P313" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q313">
         <v>3.75</v>
@@ -66301,7 +66304,7 @@
         <v>281</v>
       </c>
       <c r="P314" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q314">
         <v>4.33</v>
@@ -66507,7 +66510,7 @@
         <v>90</v>
       </c>
       <c r="P315" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q315">
         <v>4</v>
@@ -66713,7 +66716,7 @@
         <v>90</v>
       </c>
       <c r="P316" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q316">
         <v>2.9</v>
@@ -67206,7 +67209,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ318">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR318">
         <v>1.42</v>
@@ -67331,7 +67334,7 @@
         <v>282</v>
       </c>
       <c r="P319" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q319">
         <v>2.65</v>
@@ -67537,7 +67540,7 @@
         <v>188</v>
       </c>
       <c r="P320" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q320">
         <v>3.55</v>
@@ -68851,7 +68854,7 @@
         <v>1</v>
       </c>
       <c r="AP326">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ326">
         <v>0.84</v>
@@ -69803,7 +69806,7 @@
         <v>288</v>
       </c>
       <c r="P331" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q331">
         <v>2.26</v>
@@ -70215,7 +70218,7 @@
         <v>289</v>
       </c>
       <c r="P333" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q333">
         <v>2.7</v>
@@ -70421,7 +70424,7 @@
         <v>90</v>
       </c>
       <c r="P334" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q334">
         <v>4.1</v>
@@ -70627,7 +70630,7 @@
         <v>290</v>
       </c>
       <c r="P335" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q335">
         <v>3</v>
@@ -70833,7 +70836,7 @@
         <v>291</v>
       </c>
       <c r="P336" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q336">
         <v>2.7</v>
@@ -72147,7 +72150,7 @@
         <v>1.24</v>
       </c>
       <c r="AP342">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ342">
         <v>1.16</v>
@@ -72481,7 +72484,7 @@
         <v>298</v>
       </c>
       <c r="P344" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q344">
         <v>2.45</v>
@@ -72687,7 +72690,7 @@
         <v>153</v>
       </c>
       <c r="P345" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q345">
         <v>3.7</v>
@@ -73305,7 +73308,7 @@
         <v>301</v>
       </c>
       <c r="P348" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q348">
         <v>3</v>
@@ -73511,7 +73514,7 @@
         <v>91</v>
       </c>
       <c r="P349" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q349">
         <v>3.55</v>
@@ -73592,7 +73595,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ349">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR349">
         <v>1.38</v>
@@ -73923,7 +73926,7 @@
         <v>200</v>
       </c>
       <c r="P351" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q351">
         <v>4.75</v>
@@ -74129,7 +74132,7 @@
         <v>128</v>
       </c>
       <c r="P352" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q352">
         <v>2.9</v>
@@ -74747,7 +74750,7 @@
         <v>207</v>
       </c>
       <c r="P355" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q355">
         <v>2.46</v>
@@ -74953,7 +74956,7 @@
         <v>228</v>
       </c>
       <c r="P356" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q356">
         <v>3</v>
@@ -75777,7 +75780,7 @@
         <v>307</v>
       </c>
       <c r="P360" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q360">
         <v>3.45</v>
@@ -75983,7 +75986,7 @@
         <v>308</v>
       </c>
       <c r="P361" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q361">
         <v>3.7</v>
@@ -76395,7 +76398,7 @@
         <v>147</v>
       </c>
       <c r="P363" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q363">
         <v>2.57</v>
@@ -76601,7 +76604,7 @@
         <v>310</v>
       </c>
       <c r="P364" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q364">
         <v>4.28</v>
@@ -76807,7 +76810,7 @@
         <v>311</v>
       </c>
       <c r="P365" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q365">
         <v>4.05</v>
@@ -77013,7 +77016,7 @@
         <v>214</v>
       </c>
       <c r="P366" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q366">
         <v>2.72</v>
@@ -77219,7 +77222,7 @@
         <v>200</v>
       </c>
       <c r="P367" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q367">
         <v>3.93</v>
@@ -77425,7 +77428,7 @@
         <v>91</v>
       </c>
       <c r="P368" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q368">
         <v>3.04</v>
@@ -77915,10 +77918,10 @@
         <v>1.28</v>
       </c>
       <c r="AP370">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AQ370">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AR370">
         <v>1.44</v>
@@ -78455,7 +78458,7 @@
         <v>93</v>
       </c>
       <c r="P373" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q373">
         <v>2.99</v>
@@ -78661,7 +78664,7 @@
         <v>246</v>
       </c>
       <c r="P374" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q374">
         <v>2.96</v>
@@ -79279,7 +79282,7 @@
         <v>260</v>
       </c>
       <c r="P377" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q377">
         <v>4.05</v>
@@ -79485,7 +79488,7 @@
         <v>315</v>
       </c>
       <c r="P378" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q378">
         <v>2.34</v>
@@ -80103,7 +80106,7 @@
         <v>317</v>
       </c>
       <c r="P381" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q381">
         <v>3</v>
@@ -80181,7 +80184,7 @@
         <v>1.55</v>
       </c>
       <c r="AP381">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ381">
         <v>1.54</v>
@@ -80259,6 +80262,212 @@
         <v>0</v>
       </c>
       <c r="BP381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:68">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>7437919</v>
+      </c>
+      <c r="C382" t="s">
+        <v>68</v>
+      </c>
+      <c r="D382" t="s">
+        <v>69</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45436.64583333334</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382" t="s">
+        <v>70</v>
+      </c>
+      <c r="H382" t="s">
+        <v>80</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>2</v>
+      </c>
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382">
+        <v>2</v>
+      </c>
+      <c r="O382" t="s">
+        <v>318</v>
+      </c>
+      <c r="P382" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q382">
+        <v>2.5</v>
+      </c>
+      <c r="R382">
+        <v>2.25</v>
+      </c>
+      <c r="S382">
+        <v>4.33</v>
+      </c>
+      <c r="T382">
+        <v>1.36</v>
+      </c>
+      <c r="U382">
+        <v>3</v>
+      </c>
+      <c r="V382">
+        <v>2.63</v>
+      </c>
+      <c r="W382">
+        <v>1.44</v>
+      </c>
+      <c r="X382">
+        <v>7</v>
+      </c>
+      <c r="Y382">
+        <v>1.1</v>
+      </c>
+      <c r="Z382">
+        <v>1.95</v>
+      </c>
+      <c r="AA382">
+        <v>3.3</v>
+      </c>
+      <c r="AB382">
+        <v>3.5</v>
+      </c>
+      <c r="AC382">
+        <v>0</v>
+      </c>
+      <c r="AD382">
+        <v>0</v>
+      </c>
+      <c r="AE382">
+        <v>0</v>
+      </c>
+      <c r="AF382">
+        <v>0</v>
+      </c>
+      <c r="AG382">
+        <v>1.88</v>
+      </c>
+      <c r="AH382">
+        <v>2</v>
+      </c>
+      <c r="AI382">
+        <v>1.73</v>
+      </c>
+      <c r="AJ382">
+        <v>2</v>
+      </c>
+      <c r="AK382">
+        <v>0</v>
+      </c>
+      <c r="AL382">
+        <v>0</v>
+      </c>
+      <c r="AM382">
+        <v>0</v>
+      </c>
+      <c r="AN382">
+        <v>1.71</v>
+      </c>
+      <c r="AO382">
+        <v>1.56</v>
+      </c>
+      <c r="AP382">
+        <v>1.74</v>
+      </c>
+      <c r="AQ382">
+        <v>1.53</v>
+      </c>
+      <c r="AR382">
+        <v>1.46</v>
+      </c>
+      <c r="AS382">
+        <v>1.42</v>
+      </c>
+      <c r="AT382">
+        <v>2.88</v>
+      </c>
+      <c r="AU382">
+        <v>12</v>
+      </c>
+      <c r="AV382">
+        <v>2</v>
+      </c>
+      <c r="AW382">
+        <v>13</v>
+      </c>
+      <c r="AX382">
+        <v>7</v>
+      </c>
+      <c r="AY382">
+        <v>25</v>
+      </c>
+      <c r="AZ382">
+        <v>9</v>
+      </c>
+      <c r="BA382">
+        <v>14</v>
+      </c>
+      <c r="BB382">
+        <v>6</v>
+      </c>
+      <c r="BC382">
+        <v>20</v>
+      </c>
+      <c r="BD382">
+        <v>0</v>
+      </c>
+      <c r="BE382">
+        <v>0</v>
+      </c>
+      <c r="BF382">
+        <v>0</v>
+      </c>
+      <c r="BG382">
+        <v>0</v>
+      </c>
+      <c r="BH382">
+        <v>0</v>
+      </c>
+      <c r="BI382">
+        <v>0</v>
+      </c>
+      <c r="BJ382">
+        <v>0</v>
+      </c>
+      <c r="BK382">
+        <v>0</v>
+      </c>
+      <c r="BL382">
+        <v>0</v>
+      </c>
+      <c r="BM382">
+        <v>0</v>
+      </c>
+      <c r="BN382">
+        <v>0</v>
+      </c>
+      <c r="BO382">
+        <v>0</v>
+      </c>
+      <c r="BP382">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="466">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1773,7 +1773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP382"/>
+  <dimension ref="A1:BP383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ15">
         <v>1.68</v>
@@ -5203,7 +5203,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ17">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -8499,7 +8499,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ33">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR33">
         <v>2.1</v>
@@ -10559,7 +10559,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ43">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -14470,7 +14470,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ62">
         <v>1.74</v>
@@ -14679,7 +14679,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ63">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR63">
         <v>1.4</v>
@@ -18178,7 +18178,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ80">
         <v>1.63</v>
@@ -18799,7 +18799,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ83">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR83">
         <v>1.35</v>
@@ -23125,7 +23125,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ104">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR104">
         <v>1.7</v>
@@ -23534,7 +23534,7 @@
         <v>1.2</v>
       </c>
       <c r="AP106">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ106">
         <v>0.95</v>
@@ -27448,7 +27448,7 @@
         <v>1.33</v>
       </c>
       <c r="AP125">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ125">
         <v>1.16</v>
@@ -28069,7 +28069,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ128">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR128">
         <v>1.62</v>
@@ -30953,7 +30953,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR142">
         <v>1.63</v>
@@ -31774,7 +31774,7 @@
         <v>1.29</v>
       </c>
       <c r="AP146">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ146">
         <v>1.53</v>
@@ -35070,7 +35070,7 @@
         <v>1.17</v>
       </c>
       <c r="AP162">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ162">
         <v>1.47</v>
@@ -36309,7 +36309,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ168">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR168">
         <v>1.45</v>
@@ -37748,7 +37748,7 @@
         <v>1.38</v>
       </c>
       <c r="AP175">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ175">
         <v>1.32</v>
@@ -40635,7 +40635,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ189">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR189">
         <v>1.22</v>
@@ -42074,7 +42074,7 @@
         <v>0.89</v>
       </c>
       <c r="AP196">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ196">
         <v>0.53</v>
@@ -44343,7 +44343,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ207">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR207">
         <v>1.79</v>
@@ -47636,7 +47636,7 @@
         <v>1</v>
       </c>
       <c r="AP223">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ223">
         <v>0.84</v>
@@ -48051,7 +48051,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ225">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR225">
         <v>1.36</v>
@@ -51756,7 +51756,7 @@
         <v>1.42</v>
       </c>
       <c r="AP243">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ243">
         <v>1.21</v>
@@ -53201,7 +53201,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ250">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR250">
         <v>1.45</v>
@@ -54640,7 +54640,7 @@
         <v>1.33</v>
       </c>
       <c r="AP257">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ257">
         <v>1.58</v>
@@ -56291,7 +56291,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ265">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR265">
         <v>1.66</v>
@@ -58348,7 +58348,7 @@
         <v>0.77</v>
       </c>
       <c r="AP275">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ275">
         <v>1.16</v>
@@ -60617,7 +60617,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ286">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR286">
         <v>1.48</v>
@@ -62880,7 +62880,7 @@
         <v>1.13</v>
       </c>
       <c r="AP297">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ297">
         <v>1.2</v>
@@ -64943,7 +64943,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ307">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR307">
         <v>1.34</v>
@@ -66176,7 +66176,7 @@
         <v>1.4</v>
       </c>
       <c r="AP313">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ313">
         <v>1.3</v>
@@ -68445,7 +68445,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ324">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR324">
         <v>1.37</v>
@@ -70708,7 +70708,7 @@
         <v>1.44</v>
       </c>
       <c r="AP335">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ335">
         <v>1.26</v>
@@ -74090,7 +74090,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>6652198</v>
+        <v>6652195</v>
       </c>
       <c r="C352" t="s">
         <v>68</v>
@@ -74105,16 +74105,16 @@
         <v>36</v>
       </c>
       <c r="G352" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H352" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K352">
         <v>1</v>
@@ -74123,172 +74123,172 @@
         <v>1</v>
       </c>
       <c r="M352">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O352" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="P352" t="s">
-        <v>453</v>
+        <v>215</v>
       </c>
       <c r="Q352">
-        <v>2.9</v>
+        <v>2.03</v>
       </c>
       <c r="R352">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="S352">
+        <v>6.86</v>
+      </c>
+      <c r="T352">
+        <v>1.38</v>
+      </c>
+      <c r="U352">
+        <v>3.03</v>
+      </c>
+      <c r="V352">
+        <v>2.92</v>
+      </c>
+      <c r="W352">
+        <v>1.41</v>
+      </c>
+      <c r="X352">
+        <v>7.1</v>
+      </c>
+      <c r="Y352">
+        <v>1.08</v>
+      </c>
+      <c r="Z352">
+        <v>1.48</v>
+      </c>
+      <c r="AA352">
+        <v>3.9</v>
+      </c>
+      <c r="AB352">
+        <v>5.9</v>
+      </c>
+      <c r="AC352">
+        <v>1.02</v>
+      </c>
+      <c r="AD352">
+        <v>9.1</v>
+      </c>
+      <c r="AE352">
+        <v>1.27</v>
+      </c>
+      <c r="AF352">
+        <v>3.28</v>
+      </c>
+      <c r="AG352">
+        <v>1.98</v>
+      </c>
+      <c r="AH352">
+        <v>1.9</v>
+      </c>
+      <c r="AI352">
+        <v>2.02</v>
+      </c>
+      <c r="AJ352">
+        <v>1.74</v>
+      </c>
+      <c r="AK352">
+        <v>1.11</v>
+      </c>
+      <c r="AL352">
+        <v>1.23</v>
+      </c>
+      <c r="AM352">
+        <v>2.53</v>
+      </c>
+      <c r="AN352">
+        <v>1.41</v>
+      </c>
+      <c r="AO352">
+        <v>0.47</v>
+      </c>
+      <c r="AP352">
+        <v>1.37</v>
+      </c>
+      <c r="AQ352">
+        <v>0.47</v>
+      </c>
+      <c r="AR352">
+        <v>1.36</v>
+      </c>
+      <c r="AS352">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT352">
+        <v>2.3</v>
+      </c>
+      <c r="AU352">
+        <v>7</v>
+      </c>
+      <c r="AV352">
+        <v>5</v>
+      </c>
+      <c r="AW352">
+        <v>6</v>
+      </c>
+      <c r="AX352">
+        <v>3</v>
+      </c>
+      <c r="AY352">
+        <v>13</v>
+      </c>
+      <c r="AZ352">
+        <v>8</v>
+      </c>
+      <c r="BA352">
+        <v>5</v>
+      </c>
+      <c r="BB352">
+        <v>2</v>
+      </c>
+      <c r="BC352">
+        <v>7</v>
+      </c>
+      <c r="BD352">
+        <v>1.41</v>
+      </c>
+      <c r="BE352">
+        <v>8.5</v>
+      </c>
+      <c r="BF352">
         <v>3.5</v>
       </c>
-      <c r="T352">
-        <v>1.4</v>
-      </c>
-      <c r="U352">
-        <v>2.7</v>
-      </c>
-      <c r="V352">
-        <v>2.95</v>
-      </c>
-      <c r="W352">
-        <v>1.35</v>
-      </c>
-      <c r="X352">
-        <v>7.6</v>
-      </c>
-      <c r="Y352">
-        <v>1.07</v>
-      </c>
-      <c r="Z352">
-        <v>2.22</v>
-      </c>
-      <c r="AA352">
-        <v>3.2</v>
-      </c>
-      <c r="AB352">
-        <v>2.9</v>
-      </c>
-      <c r="AC352">
-        <v>1.06</v>
-      </c>
-      <c r="AD352">
-        <v>11</v>
-      </c>
-      <c r="AE352">
-        <v>1.33</v>
-      </c>
-      <c r="AF352">
-        <v>3.35</v>
-      </c>
-      <c r="AG352">
-        <v>1.99</v>
-      </c>
-      <c r="AH352">
-        <v>1.89</v>
-      </c>
-      <c r="AI352">
-        <v>1.75</v>
-      </c>
-      <c r="AJ352">
-        <v>1.93</v>
-      </c>
-      <c r="AK352">
-        <v>1.4</v>
-      </c>
-      <c r="AL352">
-        <v>1.32</v>
-      </c>
-      <c r="AM352">
-        <v>1.6</v>
-      </c>
-      <c r="AN352">
-        <v>1.94</v>
-      </c>
-      <c r="AO352">
-        <v>1.24</v>
-      </c>
-      <c r="AP352">
-        <v>1.85</v>
-      </c>
-      <c r="AQ352">
-        <v>1.32</v>
-      </c>
-      <c r="AR352">
-        <v>1.61</v>
-      </c>
-      <c r="AS352">
-        <v>1.24</v>
-      </c>
-      <c r="AT352">
-        <v>2.85</v>
-      </c>
-      <c r="AU352">
-        <v>6</v>
-      </c>
-      <c r="AV352">
-        <v>7</v>
-      </c>
-      <c r="AW352">
-        <v>3</v>
-      </c>
-      <c r="AX352">
-        <v>5</v>
-      </c>
-      <c r="AY352">
-        <v>9</v>
-      </c>
-      <c r="AZ352">
-        <v>12</v>
-      </c>
-      <c r="BA352">
-        <v>9</v>
-      </c>
-      <c r="BB352">
-        <v>3</v>
-      </c>
-      <c r="BC352">
-        <v>12</v>
-      </c>
-      <c r="BD352">
-        <v>2</v>
-      </c>
-      <c r="BE352">
-        <v>8</v>
-      </c>
-      <c r="BF352">
-        <v>2.1</v>
-      </c>
       <c r="BG352">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BH352">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BI352">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="BJ352">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BK352">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BL352">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="BM352">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="BN352">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="BO352">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="BP352">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="353" spans="1:68">
@@ -74296,7 +74296,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>6652196</v>
+        <v>6652198</v>
       </c>
       <c r="C353" t="s">
         <v>68</v>
@@ -74311,190 +74311,190 @@
         <v>36</v>
       </c>
       <c r="G353" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H353" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I353">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J353">
         <v>1</v>
       </c>
       <c r="K353">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N353">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O353" t="s">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="P353" t="s">
-        <v>250</v>
+        <v>453</v>
       </c>
       <c r="Q353">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="R353">
         <v>2.05</v>
       </c>
       <c r="S353">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="T353">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U353">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="V353">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="W353">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X353">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y353">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z353">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="AA353">
         <v>3.2</v>
       </c>
       <c r="AB353">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AC353">
         <v>1.06</v>
       </c>
       <c r="AD353">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AE353">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AF353">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="AG353">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="AH353">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="AI353">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AJ353">
+        <v>1.93</v>
+      </c>
+      <c r="AK353">
+        <v>1.4</v>
+      </c>
+      <c r="AL353">
+        <v>1.32</v>
+      </c>
+      <c r="AM353">
+        <v>1.6</v>
+      </c>
+      <c r="AN353">
+        <v>1.94</v>
+      </c>
+      <c r="AO353">
+        <v>1.24</v>
+      </c>
+      <c r="AP353">
         <v>1.85</v>
       </c>
-      <c r="AK353">
-        <v>1.3</v>
-      </c>
-      <c r="AL353">
-        <v>1.25</v>
-      </c>
-      <c r="AM353">
-        <v>1.7</v>
-      </c>
-      <c r="AN353">
-        <v>1.47</v>
-      </c>
-      <c r="AO353">
-        <v>1.06</v>
-      </c>
-      <c r="AP353">
-        <v>1.47</v>
-      </c>
       <c r="AQ353">
-        <v>0.95</v>
+        <v>1.32</v>
       </c>
       <c r="AR353">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="AS353">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AT353">
-        <v>2.69</v>
+        <v>2.85</v>
       </c>
       <c r="AU353">
+        <v>6</v>
+      </c>
+      <c r="AV353">
         <v>7</v>
       </c>
-      <c r="AV353">
-        <v>3</v>
-      </c>
       <c r="AW353">
         <v>3</v>
       </c>
       <c r="AX353">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY353">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ353">
+        <v>12</v>
+      </c>
+      <c r="BA353">
         <v>9</v>
       </c>
-      <c r="BA353">
-        <v>6</v>
-      </c>
       <c r="BB353">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC353">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD353">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="BE353">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF353">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="BG353">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BH353">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="BI353">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="BJ353">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="BK353">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="BL353">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="BM353">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="BN353">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="BO353">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="BP353">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="354" spans="1:68">
@@ -74502,7 +74502,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>6652193</v>
+        <v>6652196</v>
       </c>
       <c r="C354" t="s">
         <v>68</v>
@@ -74517,190 +74517,190 @@
         <v>36</v>
       </c>
       <c r="G354" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H354" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K354">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N354">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O354" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P354" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="Q354">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R354">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S354">
-        <v>4.55</v>
+        <v>3.9</v>
       </c>
       <c r="T354">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="U354">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="V354">
-        <v>3.16</v>
+        <v>3</v>
       </c>
       <c r="W354">
         <v>1.33</v>
       </c>
       <c r="X354">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y354">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z354">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AA354">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB354">
         <v>3.3</v>
       </c>
       <c r="AC354">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD354">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="AE354">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AF354">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AG354">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AH354">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AI354">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AJ354">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AK354">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AL354">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AM354">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AN354">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="AO354">
-        <v>1.71</v>
+        <v>1.06</v>
       </c>
       <c r="AP354">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="AQ354">
-        <v>1.68</v>
+        <v>0.95</v>
       </c>
       <c r="AR354">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AS354">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AT354">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU354">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV354">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW354">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX354">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY354">
+        <v>10</v>
+      </c>
+      <c r="AZ354">
+        <v>9</v>
+      </c>
+      <c r="BA354">
+        <v>6</v>
+      </c>
+      <c r="BB354">
+        <v>7</v>
+      </c>
+      <c r="BC354">
         <v>13</v>
-      </c>
-      <c r="AZ354">
-        <v>8</v>
-      </c>
-      <c r="BA354">
-        <v>4</v>
-      </c>
-      <c r="BB354">
-        <v>8</v>
-      </c>
-      <c r="BC354">
-        <v>12</v>
       </c>
       <c r="BD354">
         <v>1.75</v>
       </c>
       <c r="BE354">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF354">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="BG354">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BH354">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BI354">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="BJ354">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="BK354">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BL354">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="BM354">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="BN354">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="BO354">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BP354">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="355" spans="1:68">
@@ -74708,7 +74708,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>6652197</v>
+        <v>6652193</v>
       </c>
       <c r="C355" t="s">
         <v>68</v>
@@ -74723,190 +74723,190 @@
         <v>36</v>
       </c>
       <c r="G355" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H355" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J355">
         <v>0</v>
       </c>
       <c r="K355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L355">
         <v>1</v>
       </c>
       <c r="M355">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N355">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O355" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="P355" t="s">
-        <v>454</v>
+        <v>90</v>
       </c>
       <c r="Q355">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="R355">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S355">
-        <v>5.08</v>
+        <v>4.55</v>
       </c>
       <c r="T355">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="U355">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="V355">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="W355">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X355">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="Y355">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z355">
-        <v>1.85</v>
+        <v>2.13</v>
       </c>
       <c r="AA355">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB355">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="AC355">
         <v>1.04</v>
       </c>
       <c r="AD355">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE355">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF355">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AG355">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AH355">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AI355">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="AJ355">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AK355">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AL355">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AM355">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="AN355">
-        <v>0.9399999999999999</v>
+        <v>1.76</v>
       </c>
       <c r="AO355">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="AP355">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="AQ355">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AR355">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="AS355">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AT355">
-        <v>2.89</v>
+        <v>2.67</v>
       </c>
       <c r="AU355">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV355">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW355">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX355">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY355">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ355">
+        <v>8</v>
+      </c>
+      <c r="BA355">
+        <v>4</v>
+      </c>
+      <c r="BB355">
+        <v>8</v>
+      </c>
+      <c r="BC355">
         <v>12</v>
       </c>
-      <c r="BA355">
-        <v>7</v>
-      </c>
-      <c r="BB355">
-        <v>3</v>
-      </c>
-      <c r="BC355">
-        <v>10</v>
-      </c>
       <c r="BD355">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="BE355">
         <v>8</v>
       </c>
       <c r="BF355">
-        <v>3.02</v>
+        <v>2.44</v>
       </c>
       <c r="BG355">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="BH355">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="BI355">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="BJ355">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="BK355">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="BL355">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="BM355">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="BN355">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BO355">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="BP355">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="356" spans="1:68">
@@ -74914,7 +74914,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>6652191</v>
+        <v>6652197</v>
       </c>
       <c r="C356" t="s">
         <v>68</v>
@@ -74929,19 +74929,19 @@
         <v>36</v>
       </c>
       <c r="G356" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H356" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L356">
         <v>1</v>
@@ -74953,166 +74953,166 @@
         <v>3</v>
       </c>
       <c r="O356" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="P356" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q356">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="R356">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S356">
-        <v>3.8</v>
+        <v>5.08</v>
       </c>
       <c r="T356">
+        <v>1.43</v>
+      </c>
+      <c r="U356">
+        <v>2.84</v>
+      </c>
+      <c r="V356">
+        <v>3.15</v>
+      </c>
+      <c r="W356">
+        <v>1.36</v>
+      </c>
+      <c r="X356">
+        <v>7.8</v>
+      </c>
+      <c r="Y356">
+        <v>1.06</v>
+      </c>
+      <c r="Z356">
+        <v>1.85</v>
+      </c>
+      <c r="AA356">
+        <v>3.2</v>
+      </c>
+      <c r="AB356">
+        <v>4</v>
+      </c>
+      <c r="AC356">
+        <v>1.04</v>
+      </c>
+      <c r="AD356">
+        <v>8.5</v>
+      </c>
+      <c r="AE356">
+        <v>1.33</v>
+      </c>
+      <c r="AF356">
+        <v>3</v>
+      </c>
+      <c r="AG356">
+        <v>2</v>
+      </c>
+      <c r="AH356">
+        <v>1.7</v>
+      </c>
+      <c r="AI356">
+        <v>1.99</v>
+      </c>
+      <c r="AJ356">
+        <v>1.8</v>
+      </c>
+      <c r="AK356">
+        <v>1.2</v>
+      </c>
+      <c r="AL356">
+        <v>1.25</v>
+      </c>
+      <c r="AM356">
+        <v>1.93</v>
+      </c>
+      <c r="AN356">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO356">
         <v>1.53</v>
       </c>
-      <c r="U356">
-        <v>2.38</v>
-      </c>
-      <c r="V356">
-        <v>3.3</v>
-      </c>
-      <c r="W356">
-        <v>1.28</v>
-      </c>
-      <c r="X356">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="Y356">
-        <v>1.04</v>
-      </c>
-      <c r="Z356">
-        <v>2.27</v>
-      </c>
-      <c r="AA356">
-        <v>3</v>
-      </c>
-      <c r="AB356">
-        <v>3</v>
-      </c>
-      <c r="AC356">
-        <v>1.1</v>
-      </c>
-      <c r="AD356">
-        <v>6.5</v>
-      </c>
-      <c r="AE356">
-        <v>1.45</v>
-      </c>
-      <c r="AF356">
-        <v>2.7</v>
-      </c>
-      <c r="AG356">
-        <v>2.35</v>
-      </c>
-      <c r="AH356">
-        <v>1.53</v>
-      </c>
-      <c r="AI356">
-        <v>1.93</v>
-      </c>
-      <c r="AJ356">
-        <v>1.75</v>
-      </c>
-      <c r="AK356">
-        <v>1.33</v>
-      </c>
-      <c r="AL356">
-        <v>1.33</v>
-      </c>
-      <c r="AM356">
-        <v>1.57</v>
-      </c>
-      <c r="AN356">
-        <v>1.65</v>
-      </c>
-      <c r="AO356">
-        <v>1.29</v>
-      </c>
       <c r="AP356">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="AQ356">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AR356">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="AS356">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AT356">
-        <v>2.57</v>
+        <v>2.89</v>
       </c>
       <c r="AU356">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV356">
         <v>7</v>
       </c>
       <c r="AW356">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX356">
         <v>5</v>
       </c>
       <c r="AY356">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ356">
         <v>12</v>
       </c>
       <c r="BA356">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB356">
         <v>3</v>
       </c>
       <c r="BC356">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD356">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="BE356">
         <v>8</v>
       </c>
       <c r="BF356">
-        <v>2.44</v>
+        <v>3.02</v>
       </c>
       <c r="BG356">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="BH356">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="BI356">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="BJ356">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="BK356">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="BL356">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="BM356">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="BN356">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BO356">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="BP356">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="357" spans="1:68">
@@ -75120,7 +75120,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>6652190</v>
+        <v>6652191</v>
       </c>
       <c r="C357" t="s">
         <v>68</v>
@@ -75135,82 +75135,82 @@
         <v>36</v>
       </c>
       <c r="G357" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H357" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I357">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J357">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K357">
         <v>2</v>
       </c>
       <c r="L357">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M357">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N357">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O357" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="P357" t="s">
-        <v>90</v>
+        <v>455</v>
       </c>
       <c r="Q357">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="R357">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S357">
-        <v>4.95</v>
+        <v>3.8</v>
       </c>
       <c r="T357">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U357">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V357">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="W357">
         <v>1.28</v>
       </c>
       <c r="X357">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y357">
         <v>1.04</v>
       </c>
       <c r="Z357">
-        <v>2.03</v>
+        <v>2.27</v>
       </c>
       <c r="AA357">
         <v>3</v>
       </c>
       <c r="AB357">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AC357">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AD357">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="AE357">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AF357">
-        <v>2.51</v>
+        <v>2.7</v>
       </c>
       <c r="AG357">
         <v>2.35</v>
@@ -75219,106 +75219,106 @@
         <v>1.53</v>
       </c>
       <c r="AI357">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="AJ357">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AK357">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AL357">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AM357">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="AN357">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="AO357">
-        <v>0.59</v>
+        <v>1.29</v>
       </c>
       <c r="AP357">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="AQ357">
-        <v>0.53</v>
+        <v>1.47</v>
       </c>
       <c r="AR357">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AS357">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="AT357">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="AU357">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV357">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW357">
         <v>5</v>
       </c>
       <c r="AX357">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY357">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ357">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA357">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB357">
+        <v>3</v>
+      </c>
+      <c r="BC357">
         <v>4</v>
       </c>
-      <c r="BC357">
-        <v>9</v>
-      </c>
       <c r="BD357">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="BE357">
         <v>8</v>
       </c>
       <c r="BF357">
-        <v>2.9</v>
+        <v>2.44</v>
       </c>
       <c r="BG357">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="BH357">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="BI357">
+        <v>1.53</v>
+      </c>
+      <c r="BJ357">
+        <v>2.4</v>
+      </c>
+      <c r="BK357">
+        <v>2</v>
+      </c>
+      <c r="BL357">
         <v>1.8</v>
       </c>
-      <c r="BJ357">
-        <v>2</v>
-      </c>
-      <c r="BK357">
-        <v>2.4</v>
-      </c>
-      <c r="BL357">
-        <v>1.53</v>
-      </c>
       <c r="BM357">
-        <v>3.35</v>
+        <v>2.55</v>
       </c>
       <c r="BN357">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="BO357">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="BP357">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="358" spans="1:68">
@@ -75326,7 +75326,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>6652189</v>
+        <v>6652190</v>
       </c>
       <c r="C358" t="s">
         <v>68</v>
@@ -75341,190 +75341,190 @@
         <v>36</v>
       </c>
       <c r="G358" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H358" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J358">
         <v>0</v>
       </c>
       <c r="K358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L358">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N358">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O358" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P358" t="s">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="Q358">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="R358">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="S358">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="T358">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="U358">
-        <v>2.88</v>
+        <v>2.36</v>
       </c>
       <c r="V358">
-        <v>2.62</v>
+        <v>3.48</v>
       </c>
       <c r="W358">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="X358">
-        <v>6.8</v>
+        <v>9.5</v>
       </c>
       <c r="Y358">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="Z358">
+        <v>2.03</v>
+      </c>
+      <c r="AA358">
+        <v>3</v>
+      </c>
+      <c r="AB358">
+        <v>3.6</v>
+      </c>
+      <c r="AC358">
+        <v>1.06</v>
+      </c>
+      <c r="AD358">
+        <v>6.45</v>
+      </c>
+      <c r="AE358">
+        <v>1.44</v>
+      </c>
+      <c r="AF358">
+        <v>2.51</v>
+      </c>
+      <c r="AG358">
+        <v>2.35</v>
+      </c>
+      <c r="AH358">
+        <v>1.53</v>
+      </c>
+      <c r="AI358">
+        <v>2.11</v>
+      </c>
+      <c r="AJ358">
+        <v>1.68</v>
+      </c>
+      <c r="AK358">
+        <v>1.23</v>
+      </c>
+      <c r="AL358">
+        <v>1.35</v>
+      </c>
+      <c r="AM358">
+        <v>1.81</v>
+      </c>
+      <c r="AN358">
         <v>1.71</v>
       </c>
-      <c r="AA358">
-        <v>3.5</v>
-      </c>
-      <c r="AB358">
-        <v>4.3</v>
-      </c>
-      <c r="AC358">
-        <v>1.05</v>
-      </c>
-      <c r="AD358">
-        <v>9</v>
-      </c>
-      <c r="AE358">
-        <v>1.28</v>
-      </c>
-      <c r="AF358">
-        <v>3.55</v>
-      </c>
-      <c r="AG358">
-        <v>1.94</v>
-      </c>
-      <c r="AH358">
-        <v>1.94</v>
-      </c>
-      <c r="AI358">
-        <v>1.77</v>
-      </c>
-      <c r="AJ358">
-        <v>1.91</v>
-      </c>
-      <c r="AK358">
-        <v>1.15</v>
-      </c>
-      <c r="AL358">
-        <v>1.22</v>
-      </c>
-      <c r="AM358">
-        <v>2.15</v>
-      </c>
-      <c r="AN358">
-        <v>2.29</v>
-      </c>
       <c r="AO358">
-        <v>1.41</v>
+        <v>0.59</v>
       </c>
       <c r="AP358">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="AQ358">
-        <v>1.26</v>
+        <v>0.53</v>
       </c>
       <c r="AR358">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="AS358">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="AT358">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU358">
         <v>8</v>
       </c>
       <c r="AV358">
+        <v>3</v>
+      </c>
+      <c r="AW358">
+        <v>5</v>
+      </c>
+      <c r="AX358">
+        <v>3</v>
+      </c>
+      <c r="AY358">
+        <v>13</v>
+      </c>
+      <c r="AZ358">
+        <v>6</v>
+      </c>
+      <c r="BA358">
+        <v>5</v>
+      </c>
+      <c r="BB358">
         <v>4</v>
       </c>
-      <c r="AW358">
-        <v>8</v>
-      </c>
-      <c r="AX358">
-        <v>3</v>
-      </c>
-      <c r="AY358">
-        <v>16</v>
-      </c>
-      <c r="AZ358">
-        <v>7</v>
-      </c>
-      <c r="BA358">
-        <v>7</v>
-      </c>
-      <c r="BB358">
-        <v>6</v>
-      </c>
       <c r="BC358">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD358">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="BE358">
         <v>8</v>
       </c>
       <c r="BF358">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="BG358">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="BH358">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="BI358">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="BJ358">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BK358">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="BL358">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="BM358">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="BN358">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BO358">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="BP358">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="359" spans="1:68">
@@ -75532,7 +75532,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>6652192</v>
+        <v>6652189</v>
       </c>
       <c r="C359" t="s">
         <v>68</v>
@@ -75541,16 +75541,16 @@
         <v>69</v>
       </c>
       <c r="E359" s="2">
-        <v>45416.41666666666</v>
+        <v>45415.625</v>
       </c>
       <c r="F359">
         <v>36</v>
       </c>
       <c r="G359" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H359" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I359">
         <v>1</v>
@@ -75565,172 +75565,172 @@
         <v>2</v>
       </c>
       <c r="M359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O359" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P359" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="Q359">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="R359">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S359">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T359">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U359">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="V359">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="W359">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X359">
-        <v>6.45</v>
+        <v>6.8</v>
       </c>
       <c r="Y359">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z359">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AA359">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB359">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AC359">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD359">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="AE359">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AF359">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="AG359">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="AH359">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="AI359">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AJ359">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AK359">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AL359">
         <v>1.22</v>
       </c>
       <c r="AM359">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AN359">
-        <v>2.06</v>
+        <v>2.29</v>
       </c>
       <c r="AO359">
         <v>1.41</v>
       </c>
       <c r="AP359">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="AQ359">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AR359">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="AS359">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AT359">
-        <v>3.04</v>
+        <v>2.67</v>
       </c>
       <c r="AU359">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV359">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW359">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX359">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY359">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ359">
         <v>7</v>
       </c>
       <c r="BA359">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB359">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC359">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD359">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="BE359">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF359">
-        <v>3.16</v>
+        <v>2.92</v>
       </c>
       <c r="BG359">
+        <v>1.36</v>
+      </c>
+      <c r="BH359">
+        <v>3</v>
+      </c>
+      <c r="BI359">
+        <v>1.66</v>
+      </c>
+      <c r="BJ359">
+        <v>2.15</v>
+      </c>
+      <c r="BK359">
+        <v>2.12</v>
+      </c>
+      <c r="BL359">
+        <v>1.66</v>
+      </c>
+      <c r="BM359">
+        <v>2.88</v>
+      </c>
+      <c r="BN359">
+        <v>1.38</v>
+      </c>
+      <c r="BO359">
+        <v>4.1</v>
+      </c>
+      <c r="BP359">
         <v>1.22</v>
-      </c>
-      <c r="BH359">
-        <v>4</v>
-      </c>
-      <c r="BI359">
-        <v>1.41</v>
-      </c>
-      <c r="BJ359">
-        <v>2.75</v>
-      </c>
-      <c r="BK359">
-        <v>1.74</v>
-      </c>
-      <c r="BL359">
-        <v>2</v>
-      </c>
-      <c r="BM359">
-        <v>2.23</v>
-      </c>
-      <c r="BN359">
-        <v>1.61</v>
-      </c>
-      <c r="BO359">
-        <v>3</v>
-      </c>
-      <c r="BP359">
-        <v>1.36</v>
       </c>
     </row>
     <row r="360" spans="1:68">
@@ -75738,7 +75738,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>6652194</v>
+        <v>6652192</v>
       </c>
       <c r="C360" t="s">
         <v>68</v>
@@ -75747,196 +75747,196 @@
         <v>69</v>
       </c>
       <c r="E360" s="2">
-        <v>45416.58333333334</v>
+        <v>45416.41666666666</v>
       </c>
       <c r="F360">
         <v>36</v>
       </c>
       <c r="G360" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H360" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J360">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L360">
         <v>2</v>
       </c>
       <c r="M360">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N360">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O360" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P360" t="s">
-        <v>456</v>
+        <v>90</v>
       </c>
       <c r="Q360">
-        <v>3.45</v>
+        <v>2.29</v>
       </c>
       <c r="R360">
+        <v>2.25</v>
+      </c>
+      <c r="S360">
+        <v>4.75</v>
+      </c>
+      <c r="T360">
+        <v>1.35</v>
+      </c>
+      <c r="U360">
+        <v>3.05</v>
+      </c>
+      <c r="V360">
+        <v>2.64</v>
+      </c>
+      <c r="W360">
+        <v>1.45</v>
+      </c>
+      <c r="X360">
+        <v>6.45</v>
+      </c>
+      <c r="Y360">
+        <v>1.1</v>
+      </c>
+      <c r="Z360">
+        <v>1.67</v>
+      </c>
+      <c r="AA360">
+        <v>3.6</v>
+      </c>
+      <c r="AB360">
+        <v>4.2</v>
+      </c>
+      <c r="AC360">
+        <v>1.01</v>
+      </c>
+      <c r="AD360">
+        <v>9.9</v>
+      </c>
+      <c r="AE360">
+        <v>1.23</v>
+      </c>
+      <c r="AF360">
+        <v>3.58</v>
+      </c>
+      <c r="AG360">
+        <v>1.75</v>
+      </c>
+      <c r="AH360">
         <v>1.95</v>
       </c>
-      <c r="S360">
-        <v>3.1</v>
-      </c>
-      <c r="T360">
-        <v>1.45</v>
-      </c>
-      <c r="U360">
-        <v>2.55</v>
-      </c>
-      <c r="V360">
-        <v>3</v>
-      </c>
-      <c r="W360">
-        <v>1.33</v>
-      </c>
-      <c r="X360">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y360">
-        <v>1.06</v>
-      </c>
-      <c r="Z360">
-        <v>2.63</v>
-      </c>
-      <c r="AA360">
-        <v>3.1</v>
-      </c>
-      <c r="AB360">
-        <v>2.55</v>
-      </c>
-      <c r="AC360">
-        <v>1.07</v>
-      </c>
-      <c r="AD360">
-        <v>8</v>
-      </c>
-      <c r="AE360">
-        <v>1.38</v>
-      </c>
-      <c r="AF360">
-        <v>3</v>
-      </c>
-      <c r="AG360">
+      <c r="AI360">
+        <v>1.74</v>
+      </c>
+      <c r="AJ360">
+        <v>2.02</v>
+      </c>
+      <c r="AK360">
+        <v>1.2</v>
+      </c>
+      <c r="AL360">
+        <v>1.22</v>
+      </c>
+      <c r="AM360">
+        <v>2</v>
+      </c>
+      <c r="AN360">
+        <v>2.06</v>
+      </c>
+      <c r="AO360">
+        <v>1.41</v>
+      </c>
+      <c r="AP360">
         <v>2.16</v>
       </c>
-      <c r="AH360">
-        <v>1.66</v>
-      </c>
-      <c r="AI360">
-        <v>1.8</v>
-      </c>
-      <c r="AJ360">
-        <v>1.85</v>
-      </c>
-      <c r="AK360">
-        <v>1.5</v>
-      </c>
-      <c r="AL360">
+      <c r="AQ360">
         <v>1.3</v>
       </c>
-      <c r="AM360">
-        <v>1.4</v>
-      </c>
-      <c r="AN360">
-        <v>1.24</v>
-      </c>
-      <c r="AO360">
-        <v>1.76</v>
-      </c>
-      <c r="AP360">
-        <v>1.16</v>
-      </c>
-      <c r="AQ360">
-        <v>1.63</v>
-      </c>
       <c r="AR360">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="AS360">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="AT360">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="AU360">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV360">
+        <v>3</v>
+      </c>
+      <c r="AW360">
         <v>6</v>
-      </c>
-      <c r="AW360">
-        <v>4</v>
       </c>
       <c r="AX360">
         <v>4</v>
       </c>
       <c r="AY360">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ360">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA360">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB360">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC360">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD360">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="BE360">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF360">
-        <v>2.1</v>
+        <v>3.16</v>
       </c>
       <c r="BG360">
+        <v>1.22</v>
+      </c>
+      <c r="BH360">
+        <v>4</v>
+      </c>
+      <c r="BI360">
+        <v>1.41</v>
+      </c>
+      <c r="BJ360">
+        <v>2.75</v>
+      </c>
+      <c r="BK360">
+        <v>1.74</v>
+      </c>
+      <c r="BL360">
+        <v>2</v>
+      </c>
+      <c r="BM360">
+        <v>2.23</v>
+      </c>
+      <c r="BN360">
+        <v>1.61</v>
+      </c>
+      <c r="BO360">
+        <v>3</v>
+      </c>
+      <c r="BP360">
         <v>1.36</v>
-      </c>
-      <c r="BH360">
-        <v>3</v>
-      </c>
-      <c r="BI360">
-        <v>1.66</v>
-      </c>
-      <c r="BJ360">
-        <v>2.15</v>
-      </c>
-      <c r="BK360">
-        <v>2.12</v>
-      </c>
-      <c r="BL360">
-        <v>1.66</v>
-      </c>
-      <c r="BM360">
-        <v>2.9</v>
-      </c>
-      <c r="BN360">
-        <v>1.38</v>
-      </c>
-      <c r="BO360">
-        <v>4.1</v>
-      </c>
-      <c r="BP360">
-        <v>1.22</v>
       </c>
     </row>
     <row r="361" spans="1:68">
@@ -75944,7 +75944,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>6652208</v>
+        <v>6652194</v>
       </c>
       <c r="C361" t="s">
         <v>68</v>
@@ -75953,196 +75953,196 @@
         <v>69</v>
       </c>
       <c r="E361" s="2">
-        <v>45422.65625</v>
+        <v>45416.58333333334</v>
       </c>
       <c r="F361">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G361" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H361" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K361">
         <v>2</v>
       </c>
       <c r="L361">
+        <v>2</v>
+      </c>
+      <c r="M361">
+        <v>2</v>
+      </c>
+      <c r="N361">
         <v>4</v>
       </c>
-      <c r="M361">
-        <v>2</v>
-      </c>
-      <c r="N361">
+      <c r="O361" t="s">
+        <v>307</v>
+      </c>
+      <c r="P361" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q361">
+        <v>3.45</v>
+      </c>
+      <c r="R361">
+        <v>1.95</v>
+      </c>
+      <c r="S361">
+        <v>3.1</v>
+      </c>
+      <c r="T361">
+        <v>1.45</v>
+      </c>
+      <c r="U361">
+        <v>2.55</v>
+      </c>
+      <c r="V361">
+        <v>3</v>
+      </c>
+      <c r="W361">
+        <v>1.33</v>
+      </c>
+      <c r="X361">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y361">
+        <v>1.06</v>
+      </c>
+      <c r="Z361">
+        <v>2.63</v>
+      </c>
+      <c r="AA361">
+        <v>3.1</v>
+      </c>
+      <c r="AB361">
+        <v>2.55</v>
+      </c>
+      <c r="AC361">
+        <v>1.07</v>
+      </c>
+      <c r="AD361">
+        <v>8</v>
+      </c>
+      <c r="AE361">
+        <v>1.38</v>
+      </c>
+      <c r="AF361">
+        <v>3</v>
+      </c>
+      <c r="AG361">
+        <v>2.16</v>
+      </c>
+      <c r="AH361">
+        <v>1.66</v>
+      </c>
+      <c r="AI361">
+        <v>1.8</v>
+      </c>
+      <c r="AJ361">
+        <v>1.85</v>
+      </c>
+      <c r="AK361">
+        <v>1.5</v>
+      </c>
+      <c r="AL361">
+        <v>1.3</v>
+      </c>
+      <c r="AM361">
+        <v>1.4</v>
+      </c>
+      <c r="AN361">
+        <v>1.24</v>
+      </c>
+      <c r="AO361">
+        <v>1.76</v>
+      </c>
+      <c r="AP361">
+        <v>1.16</v>
+      </c>
+      <c r="AQ361">
+        <v>1.63</v>
+      </c>
+      <c r="AR361">
+        <v>1.55</v>
+      </c>
+      <c r="AS361">
+        <v>1.43</v>
+      </c>
+      <c r="AT361">
+        <v>2.98</v>
+      </c>
+      <c r="AU361">
+        <v>7</v>
+      </c>
+      <c r="AV361">
         <v>6</v>
       </c>
-      <c r="O361" t="s">
-        <v>308</v>
-      </c>
-      <c r="P361" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q361">
-        <v>3.7</v>
-      </c>
-      <c r="R361">
-        <v>2.2</v>
-      </c>
-      <c r="S361">
-        <v>2.72</v>
-      </c>
-      <c r="T361">
-        <v>1.36</v>
-      </c>
-      <c r="U361">
-        <v>3</v>
-      </c>
-      <c r="V361">
-        <v>2.66</v>
-      </c>
-      <c r="W361">
-        <v>1.44</v>
-      </c>
-      <c r="X361">
-        <v>6.45</v>
-      </c>
-      <c r="Y361">
-        <v>1.09</v>
-      </c>
-      <c r="Z361">
-        <v>3.2</v>
-      </c>
-      <c r="AA361">
-        <v>3.4</v>
-      </c>
-      <c r="AB361">
-        <v>2.2</v>
-      </c>
-      <c r="AC361">
-        <v>1.01</v>
-      </c>
-      <c r="AD361">
-        <v>9.9</v>
-      </c>
-      <c r="AE361">
-        <v>1.23</v>
-      </c>
-      <c r="AF361">
-        <v>3.58</v>
-      </c>
-      <c r="AG361">
-        <v>1.83</v>
-      </c>
-      <c r="AH361">
-        <v>2.03</v>
-      </c>
-      <c r="AI361">
-        <v>1.67</v>
-      </c>
-      <c r="AJ361">
-        <v>2.13</v>
-      </c>
-      <c r="AK361">
-        <v>1.65</v>
-      </c>
-      <c r="AL361">
-        <v>1.25</v>
-      </c>
-      <c r="AM361">
-        <v>1.35</v>
-      </c>
-      <c r="AN361">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AO361">
-        <v>0.89</v>
-      </c>
-      <c r="AP361">
-        <v>1.05</v>
-      </c>
-      <c r="AQ361">
-        <v>0.84</v>
-      </c>
-      <c r="AR361">
-        <v>1.37</v>
-      </c>
-      <c r="AS361">
-        <v>1.5</v>
-      </c>
-      <c r="AT361">
-        <v>2.87</v>
-      </c>
-      <c r="AU361">
-        <v>11</v>
-      </c>
-      <c r="AV361">
-        <v>5</v>
-      </c>
       <c r="AW361">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX361">
         <v>4</v>
       </c>
       <c r="AY361">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ361">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA361">
+        <v>6</v>
+      </c>
+      <c r="BB361">
         <v>5</v>
       </c>
-      <c r="BB361">
-        <v>4</v>
-      </c>
       <c r="BC361">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD361">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BE361">
         <v>7.5</v>
       </c>
       <c r="BF361">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BG361">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BH361">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="BI361">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="BJ361">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="BK361">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="BL361">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="BM361">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="BN361">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BO361">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="BP361">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="362" spans="1:68">
@@ -76150,7 +76150,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>6652206</v>
+        <v>6652208</v>
       </c>
       <c r="C362" t="s">
         <v>68</v>
@@ -76165,160 +76165,160 @@
         <v>37</v>
       </c>
       <c r="G362" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H362" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I362">
         <v>1</v>
       </c>
       <c r="J362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L362">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N362">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O362" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P362" t="s">
-        <v>91</v>
+        <v>457</v>
       </c>
       <c r="Q362">
-        <v>2.82</v>
+        <v>3.7</v>
       </c>
       <c r="R362">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="S362">
-        <v>4.3</v>
+        <v>2.72</v>
       </c>
       <c r="T362">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="U362">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="V362">
-        <v>3.39</v>
+        <v>2.66</v>
       </c>
       <c r="W362">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="X362">
-        <v>8.699999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="Y362">
+        <v>1.09</v>
+      </c>
+      <c r="Z362">
+        <v>3.2</v>
+      </c>
+      <c r="AA362">
+        <v>3.4</v>
+      </c>
+      <c r="AB362">
+        <v>2.2</v>
+      </c>
+      <c r="AC362">
+        <v>1.01</v>
+      </c>
+      <c r="AD362">
+        <v>9.9</v>
+      </c>
+      <c r="AE362">
+        <v>1.23</v>
+      </c>
+      <c r="AF362">
+        <v>3.58</v>
+      </c>
+      <c r="AG362">
+        <v>1.83</v>
+      </c>
+      <c r="AH362">
+        <v>2.03</v>
+      </c>
+      <c r="AI362">
+        <v>1.67</v>
+      </c>
+      <c r="AJ362">
+        <v>2.13</v>
+      </c>
+      <c r="AK362">
+        <v>1.65</v>
+      </c>
+      <c r="AL362">
+        <v>1.25</v>
+      </c>
+      <c r="AM362">
+        <v>1.35</v>
+      </c>
+      <c r="AN362">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO362">
+        <v>0.89</v>
+      </c>
+      <c r="AP362">
         <v>1.05</v>
       </c>
-      <c r="Z362">
-        <v>2.15</v>
-      </c>
-      <c r="AA362">
-        <v>3.1</v>
-      </c>
-      <c r="AB362">
-        <v>3.5</v>
-      </c>
-      <c r="AC362">
-        <v>1.09</v>
-      </c>
-      <c r="AD362">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AE362">
-        <v>1.41</v>
-      </c>
-      <c r="AF362">
-        <v>2.92</v>
-      </c>
-      <c r="AG362">
-        <v>2.17</v>
-      </c>
-      <c r="AH362">
-        <v>1.54</v>
-      </c>
-      <c r="AI362">
-        <v>1.96</v>
-      </c>
-      <c r="AJ362">
-        <v>1.8</v>
-      </c>
-      <c r="AK362">
-        <v>1.31</v>
-      </c>
-      <c r="AL362">
-        <v>1.33</v>
-      </c>
-      <c r="AM362">
-        <v>1.69</v>
-      </c>
-      <c r="AN362">
-        <v>1.72</v>
-      </c>
-      <c r="AO362">
-        <v>1.61</v>
-      </c>
-      <c r="AP362">
-        <v>1.79</v>
-      </c>
       <c r="AQ362">
-        <v>1.53</v>
+        <v>0.84</v>
       </c>
       <c r="AR362">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AS362">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT362">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AU362">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV362">
+        <v>5</v>
+      </c>
+      <c r="AW362">
+        <v>6</v>
+      </c>
+      <c r="AX362">
         <v>4</v>
       </c>
-      <c r="AW362">
-        <v>2</v>
-      </c>
-      <c r="AX362">
-        <v>5</v>
-      </c>
       <c r="AY362">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ362">
         <v>9</v>
       </c>
       <c r="BA362">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB362">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC362">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD362">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="BE362">
         <v>7.5</v>
       </c>
       <c r="BF362">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="BG362">
         <v>1.4</v>
@@ -76356,7 +76356,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>6652205</v>
+        <v>6652206</v>
       </c>
       <c r="C363" t="s">
         <v>68</v>
@@ -76371,10 +76371,10 @@
         <v>37</v>
       </c>
       <c r="G363" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H363" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I363">
         <v>1</v>
@@ -76386,175 +76386,175 @@
         <v>1</v>
       </c>
       <c r="L363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N363">
         <v>3</v>
       </c>
       <c r="O363" t="s">
-        <v>147</v>
+        <v>309</v>
       </c>
       <c r="P363" t="s">
-        <v>458</v>
+        <v>91</v>
       </c>
       <c r="Q363">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="R363">
-        <v>2.22</v>
+        <v>2.01</v>
       </c>
       <c r="S363">
-        <v>4.61</v>
+        <v>4.3</v>
       </c>
       <c r="T363">
+        <v>1.47</v>
+      </c>
+      <c r="U363">
+        <v>2.67</v>
+      </c>
+      <c r="V363">
+        <v>3.39</v>
+      </c>
+      <c r="W363">
+        <v>1.32</v>
+      </c>
+      <c r="X363">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y363">
+        <v>1.05</v>
+      </c>
+      <c r="Z363">
+        <v>2.15</v>
+      </c>
+      <c r="AA363">
+        <v>3.1</v>
+      </c>
+      <c r="AB363">
+        <v>3.5</v>
+      </c>
+      <c r="AC363">
+        <v>1.09</v>
+      </c>
+      <c r="AD363">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AE363">
         <v>1.41</v>
       </c>
-      <c r="U363">
-        <v>2.9</v>
-      </c>
-      <c r="V363">
-        <v>3.06</v>
-      </c>
-      <c r="W363">
-        <v>1.38</v>
-      </c>
-      <c r="X363">
-        <v>7.6</v>
-      </c>
-      <c r="Y363">
-        <v>1.07</v>
-      </c>
-      <c r="Z363">
-        <v>2.1</v>
-      </c>
-      <c r="AA363">
-        <v>3.4</v>
-      </c>
-      <c r="AB363">
-        <v>3.4</v>
-      </c>
-      <c r="AC363">
-        <v>1.04</v>
-      </c>
-      <c r="AD363">
-        <v>8.5</v>
-      </c>
-      <c r="AE363">
-        <v>1.3</v>
-      </c>
       <c r="AF363">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="AG363">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="AH363">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AI363">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="AJ363">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AK363">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AL363">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM363">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AN363">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="AO363">
-        <v>0.72</v>
+        <v>1.61</v>
       </c>
       <c r="AP363">
-        <v>1.21</v>
+        <v>1.79</v>
       </c>
       <c r="AQ363">
-        <v>0.84</v>
+        <v>1.53</v>
       </c>
       <c r="AR363">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AS363">
-        <v>0.99</v>
+        <v>1.42</v>
       </c>
       <c r="AT363">
-        <v>2.47</v>
+        <v>2.86</v>
       </c>
       <c r="AU363">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV363">
         <v>4</v>
       </c>
       <c r="AW363">
+        <v>2</v>
+      </c>
+      <c r="AX363">
+        <v>5</v>
+      </c>
+      <c r="AY363">
+        <v>10</v>
+      </c>
+      <c r="AZ363">
+        <v>9</v>
+      </c>
+      <c r="BA363">
         <v>7</v>
       </c>
-      <c r="AX363">
-        <v>4</v>
-      </c>
-      <c r="AY363">
-        <v>17</v>
-      </c>
-      <c r="AZ363">
-        <v>8</v>
-      </c>
-      <c r="BA363">
+      <c r="BB363">
+        <v>3</v>
+      </c>
+      <c r="BC363">
         <v>10</v>
       </c>
-      <c r="BB363">
-        <v>2</v>
-      </c>
-      <c r="BC363">
-        <v>12</v>
-      </c>
       <c r="BD363">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="BE363">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF363">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="BG363">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BH363">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BI363">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="BJ363">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="BK363">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BL363">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="BM363">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="BN363">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="BO363">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BP363">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="364" spans="1:68">
@@ -76562,7 +76562,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>6652204</v>
+        <v>6652205</v>
       </c>
       <c r="C364" t="s">
         <v>68</v>
@@ -76577,190 +76577,190 @@
         <v>37</v>
       </c>
       <c r="G364" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H364" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J364">
         <v>0</v>
       </c>
       <c r="K364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N364">
         <v>3</v>
       </c>
       <c r="O364" t="s">
-        <v>310</v>
+        <v>147</v>
       </c>
       <c r="P364" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="Q364">
-        <v>4.28</v>
+        <v>2.57</v>
       </c>
       <c r="R364">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S364">
-        <v>2.75</v>
+        <v>4.61</v>
       </c>
       <c r="T364">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="U364">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="V364">
-        <v>3.13</v>
+        <v>3.06</v>
       </c>
       <c r="W364">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X364">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y364">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z364">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="AA364">
         <v>3.4</v>
       </c>
       <c r="AB364">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="AC364">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AD364">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE364">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AF364">
         <v>3.2</v>
       </c>
       <c r="AG364">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="AH364">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AI364">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AJ364">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AK364">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="AL364">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AM364">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="AN364">
-        <v>0.83</v>
+        <v>1.28</v>
       </c>
       <c r="AO364">
-        <v>1.06</v>
+        <v>0.72</v>
       </c>
       <c r="AP364">
-        <v>0.95</v>
+        <v>1.21</v>
       </c>
       <c r="AQ364">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AR364">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AS364">
-        <v>1.37</v>
+        <v>0.99</v>
       </c>
       <c r="AT364">
-        <v>2.76</v>
+        <v>2.47</v>
       </c>
       <c r="AU364">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AV364">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW364">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX364">
+        <v>4</v>
+      </c>
+      <c r="AY364">
+        <v>17</v>
+      </c>
+      <c r="AZ364">
         <v>8</v>
       </c>
-      <c r="AY364">
-        <v>5</v>
-      </c>
-      <c r="AZ364">
-        <v>17</v>
-      </c>
       <c r="BA364">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BB364">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC364">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD364">
-        <v>2.62</v>
+        <v>1.41</v>
       </c>
       <c r="BE364">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF364">
-        <v>1.69</v>
+        <v>3.5</v>
       </c>
       <c r="BG364">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BH364">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="BI364">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="BJ364">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="BK364">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="BL364">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="BM364">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="BN364">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BO364">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="BP364">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="365" spans="1:68">
@@ -76768,7 +76768,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>6652207</v>
+        <v>6652204</v>
       </c>
       <c r="C365" t="s">
         <v>68</v>
@@ -76783,100 +76783,100 @@
         <v>37</v>
       </c>
       <c r="G365" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H365" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I365">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L365">
         <v>2</v>
       </c>
       <c r="M365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N365">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O365" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P365" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="Q365">
-        <v>4.05</v>
+        <v>4.28</v>
       </c>
       <c r="R365">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="S365">
-        <v>2.64</v>
+        <v>2.75</v>
       </c>
       <c r="T365">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="U365">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="V365">
-        <v>2.82</v>
+        <v>3.13</v>
       </c>
       <c r="W365">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X365">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="Y365">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z365">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AA365">
         <v>3.4</v>
       </c>
       <c r="AB365">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AC365">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD365">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="AE365">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AF365">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="AG365">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AH365">
+        <v>1.59</v>
+      </c>
+      <c r="AI365">
         <v>1.85</v>
       </c>
-      <c r="AI365">
-        <v>1.78</v>
-      </c>
       <c r="AJ365">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="AK365">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AL365">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AM365">
         <v>1.3</v>
@@ -76885,88 +76885,88 @@
         <v>0.83</v>
       </c>
       <c r="AO365">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="AP365">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ365">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AR365">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS365">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT365">
-        <v>2.67</v>
+        <v>2.76</v>
       </c>
       <c r="AU365">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV365">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW365">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX365">
+        <v>8</v>
+      </c>
+      <c r="AY365">
+        <v>5</v>
+      </c>
+      <c r="AZ365">
+        <v>17</v>
+      </c>
+      <c r="BA365">
+        <v>2</v>
+      </c>
+      <c r="BB365">
+        <v>8</v>
+      </c>
+      <c r="BC365">
         <v>10</v>
       </c>
-      <c r="AY365">
-        <v>11</v>
-      </c>
-      <c r="AZ365">
-        <v>14</v>
-      </c>
-      <c r="BA365">
-        <v>7</v>
-      </c>
-      <c r="BB365">
-        <v>5</v>
-      </c>
-      <c r="BC365">
-        <v>12</v>
-      </c>
       <c r="BD365">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="BE365">
         <v>8</v>
       </c>
       <c r="BF365">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="BG365">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BH365">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BI365">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="BJ365">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="BK365">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BL365">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="BM365">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="BN365">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="BO365">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BP365">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="366" spans="1:68">
@@ -76974,7 +76974,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>6652202</v>
+        <v>6652207</v>
       </c>
       <c r="C366" t="s">
         <v>68</v>
@@ -76989,190 +76989,190 @@
         <v>37</v>
       </c>
       <c r="G366" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H366" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K366">
         <v>1</v>
       </c>
       <c r="L366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M366">
         <v>2</v>
       </c>
       <c r="N366">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O366" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="P366" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q366">
-        <v>2.72</v>
+        <v>4.05</v>
       </c>
       <c r="R366">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="S366">
-        <v>3.99</v>
+        <v>2.64</v>
       </c>
       <c r="T366">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U366">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="V366">
-        <v>2.79</v>
+        <v>2.82</v>
       </c>
       <c r="W366">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X366">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y366">
         <v>1.08</v>
       </c>
       <c r="Z366">
+        <v>3.4</v>
+      </c>
+      <c r="AA366">
+        <v>3.4</v>
+      </c>
+      <c r="AB366">
         <v>2.1</v>
       </c>
-      <c r="AA366">
-        <v>3.25</v>
-      </c>
-      <c r="AB366">
-        <v>3.5</v>
-      </c>
       <c r="AC366">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD366">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AE366">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AF366">
-        <v>3.3</v>
+        <v>3.22</v>
       </c>
       <c r="AG366">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AH366">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AI366">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AJ366">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AK366">
-        <v>1.32</v>
+        <v>1.7</v>
       </c>
       <c r="AL366">
+        <v>1.25</v>
+      </c>
+      <c r="AM366">
         <v>1.3</v>
       </c>
-      <c r="AM366">
-        <v>1.74</v>
-      </c>
       <c r="AN366">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="AO366">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AP366">
-        <v>1.42</v>
+        <v>0.84</v>
       </c>
       <c r="AQ366">
         <v>1.16</v>
       </c>
       <c r="AR366">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AS366">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AT366">
-        <v>2.73</v>
+        <v>2.67</v>
       </c>
       <c r="AU366">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV366">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW366">
         <v>4</v>
       </c>
       <c r="AX366">
+        <v>10</v>
+      </c>
+      <c r="AY366">
+        <v>11</v>
+      </c>
+      <c r="AZ366">
+        <v>14</v>
+      </c>
+      <c r="BA366">
+        <v>7</v>
+      </c>
+      <c r="BB366">
         <v>5</v>
-      </c>
-      <c r="AY366">
-        <v>7</v>
-      </c>
-      <c r="AZ366">
-        <v>12</v>
-      </c>
-      <c r="BA366">
-        <v>6</v>
-      </c>
-      <c r="BB366">
-        <v>6</v>
       </c>
       <c r="BC366">
         <v>12</v>
       </c>
       <c r="BD366">
-        <v>1.64</v>
+        <v>2.52</v>
       </c>
       <c r="BE366">
         <v>8</v>
       </c>
       <c r="BF366">
-        <v>2.77</v>
+        <v>1.75</v>
       </c>
       <c r="BG366">
         <v>1.36</v>
       </c>
       <c r="BH366">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="BI366">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="BJ366">
+        <v>2.15</v>
+      </c>
+      <c r="BK366">
         <v>2.12</v>
       </c>
-      <c r="BK366">
-        <v>2.15</v>
-      </c>
       <c r="BL366">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="BM366">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BN366">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BO366">
         <v>4.1</v>
       </c>
       <c r="BP366">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="367" spans="1:68">
@@ -77180,7 +77180,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>6652201</v>
+        <v>6652202</v>
       </c>
       <c r="C367" t="s">
         <v>68</v>
@@ -77195,19 +77195,19 @@
         <v>37</v>
       </c>
       <c r="G367" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H367" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I367">
         <v>1</v>
       </c>
       <c r="J367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K367">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L367">
         <v>1</v>
@@ -77219,19 +77219,19 @@
         <v>3</v>
       </c>
       <c r="O367" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="P367" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q367">
-        <v>3.93</v>
+        <v>2.72</v>
       </c>
       <c r="R367">
         <v>2.29</v>
       </c>
       <c r="S367">
-        <v>2.74</v>
+        <v>3.99</v>
       </c>
       <c r="T367">
         <v>1.36</v>
@@ -77246,139 +77246,139 @@
         <v>1.44</v>
       </c>
       <c r="X367">
-        <v>6.85</v>
+        <v>7</v>
       </c>
       <c r="Y367">
         <v>1.08</v>
       </c>
       <c r="Z367">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA367">
+        <v>3.25</v>
+      </c>
+      <c r="AB367">
         <v>3.5</v>
       </c>
-      <c r="AB367">
-        <v>2.15</v>
-      </c>
       <c r="AC367">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD367">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE367">
         <v>1.29</v>
       </c>
       <c r="AF367">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AG367">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AH367">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AI367">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AJ367">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AK367">
-        <v>1.71</v>
+        <v>1.32</v>
       </c>
       <c r="AL367">
         <v>1.3</v>
       </c>
       <c r="AM367">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="AN367">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO367">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AP367">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="AQ367">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AR367">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AS367">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AT367">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="AU367">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV367">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW367">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX367">
         <v>5</v>
       </c>
       <c r="AY367">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ367">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA367">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB367">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC367">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BD367">
-        <v>2.05</v>
+        <v>1.64</v>
       </c>
       <c r="BE367">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF367">
-        <v>2</v>
+        <v>2.77</v>
       </c>
       <c r="BG367">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="BH367">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BI367">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="BJ367">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="BK367">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="BL367">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="BM367">
-        <v>2.44</v>
+        <v>2.95</v>
       </c>
       <c r="BN367">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="BO367">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="BP367">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="368" spans="1:68">
@@ -77386,7 +77386,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>6652200</v>
+        <v>6652201</v>
       </c>
       <c r="C368" t="s">
         <v>68</v>
@@ -77401,19 +77401,19 @@
         <v>37</v>
       </c>
       <c r="G368" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H368" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J368">
         <v>1</v>
       </c>
       <c r="K368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L368">
         <v>1</v>
@@ -77425,166 +77425,166 @@
         <v>3</v>
       </c>
       <c r="O368" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="P368" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q368">
-        <v>3.04</v>
+        <v>3.93</v>
       </c>
       <c r="R368">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="S368">
-        <v>4.39</v>
+        <v>2.74</v>
       </c>
       <c r="T368">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="U368">
-        <v>2.46</v>
+        <v>3.15</v>
       </c>
       <c r="V368">
-        <v>3.55</v>
+        <v>2.79</v>
       </c>
       <c r="W368">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="X368">
-        <v>9.800000000000001</v>
+        <v>6.85</v>
       </c>
       <c r="Y368">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="Z368">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="AA368">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AB368">
+        <v>2.15</v>
+      </c>
+      <c r="AC368">
+        <v>1.02</v>
+      </c>
+      <c r="AD368">
+        <v>10</v>
+      </c>
+      <c r="AE368">
+        <v>1.29</v>
+      </c>
+      <c r="AF368">
         <v>3.4</v>
       </c>
-      <c r="AC368">
-        <v>1.09</v>
-      </c>
-      <c r="AD368">
-        <v>6</v>
-      </c>
-      <c r="AE368">
-        <v>1.5</v>
-      </c>
-      <c r="AF368">
-        <v>2.5</v>
-      </c>
       <c r="AG368">
-        <v>2.54</v>
+        <v>1.9</v>
       </c>
       <c r="AH368">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="AI368">
-        <v>2.09</v>
+        <v>1.72</v>
       </c>
       <c r="AJ368">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="AK368">
+        <v>1.71</v>
+      </c>
+      <c r="AL368">
+        <v>1.3</v>
+      </c>
+      <c r="AM368">
+        <v>1.33</v>
+      </c>
+      <c r="AN368">
+        <v>1.17</v>
+      </c>
+      <c r="AO368">
+        <v>1.22</v>
+      </c>
+      <c r="AP368">
+        <v>1.11</v>
+      </c>
+      <c r="AQ368">
         <v>1.32</v>
       </c>
-      <c r="AL368">
-        <v>1.36</v>
-      </c>
-      <c r="AM368">
-        <v>1.65</v>
-      </c>
-      <c r="AN368">
-        <v>2</v>
-      </c>
-      <c r="AO368">
-        <v>1.11</v>
-      </c>
-      <c r="AP368">
-        <v>1.89</v>
-      </c>
-      <c r="AQ368">
-        <v>1.21</v>
-      </c>
       <c r="AR368">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="AS368">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT368">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="AU368">
         <v>5</v>
       </c>
       <c r="AV368">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW368">
         <v>6</v>
       </c>
       <c r="AX368">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY368">
         <v>11</v>
       </c>
       <c r="AZ368">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA368">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BB368">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC368">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BD368">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BE368">
         <v>7.5</v>
       </c>
       <c r="BF368">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BG368">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="BH368">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="BI368">
-        <v>1.98</v>
+        <v>1.55</v>
       </c>
       <c r="BJ368">
-        <v>1.82</v>
+        <v>2.37</v>
       </c>
       <c r="BK368">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="BL368">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="BM368">
-        <v>3.65</v>
+        <v>2.44</v>
       </c>
       <c r="BN368">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="BO368">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP368">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="369" spans="1:68">
@@ -77592,7 +77592,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>6652199</v>
+        <v>6652200</v>
       </c>
       <c r="C369" t="s">
         <v>68</v>
@@ -77607,190 +77607,190 @@
         <v>37</v>
       </c>
       <c r="G369" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H369" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I369">
         <v>0</v>
       </c>
       <c r="J369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M369">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N369">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O369" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P369" t="s">
-        <v>90</v>
+        <v>462</v>
       </c>
       <c r="Q369">
-        <v>4.87</v>
+        <v>3.04</v>
       </c>
       <c r="R369">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="S369">
-        <v>2.41</v>
+        <v>4.39</v>
       </c>
       <c r="T369">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="U369">
-        <v>3.05</v>
+        <v>2.46</v>
       </c>
       <c r="V369">
-        <v>2.89</v>
+        <v>3.55</v>
       </c>
       <c r="W369">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="X369">
-        <v>7.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y369">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="Z369">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="AA369">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AB369">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="AC369">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="AD369">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE369">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AF369">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="AG369">
-        <v>1.95</v>
+        <v>2.54</v>
       </c>
       <c r="AH369">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AI369">
-        <v>1.81</v>
+        <v>2.09</v>
       </c>
       <c r="AJ369">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AK369">
-        <v>1.95</v>
+        <v>1.32</v>
       </c>
       <c r="AL369">
+        <v>1.36</v>
+      </c>
+      <c r="AM369">
+        <v>1.65</v>
+      </c>
+      <c r="AN369">
+        <v>2</v>
+      </c>
+      <c r="AO369">
+        <v>1.11</v>
+      </c>
+      <c r="AP369">
+        <v>1.89</v>
+      </c>
+      <c r="AQ369">
+        <v>1.21</v>
+      </c>
+      <c r="AR369">
+        <v>1.18</v>
+      </c>
+      <c r="AS369">
         <v>1.28</v>
       </c>
-      <c r="AM369">
-        <v>1.23</v>
-      </c>
-      <c r="AN369">
-        <v>1.33</v>
-      </c>
-      <c r="AO369">
-        <v>1.78</v>
-      </c>
-      <c r="AP369">
-        <v>1.32</v>
-      </c>
-      <c r="AQ369">
-        <v>1.74</v>
-      </c>
-      <c r="AR369">
-        <v>1.34</v>
-      </c>
-      <c r="AS369">
-        <v>1.6</v>
-      </c>
       <c r="AT369">
-        <v>2.94</v>
+        <v>2.46</v>
       </c>
       <c r="AU369">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV369">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW369">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX369">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY369">
         <v>11</v>
       </c>
       <c r="AZ369">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BA369">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB369">
         <v>4</v>
       </c>
       <c r="BC369">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD369">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="BE369">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF369">
-        <v>1.64</v>
+        <v>2.05</v>
       </c>
       <c r="BG369">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="BH369">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="BI369">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="BJ369">
-        <v>2.28</v>
+        <v>1.82</v>
       </c>
       <c r="BK369">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="BL369">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="BM369">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="BN369">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="BO369">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="BP369">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="370" spans="1:68">
@@ -77798,7 +77798,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>6652203</v>
+        <v>6652199</v>
       </c>
       <c r="C370" t="s">
         <v>68</v>
@@ -77813,190 +77813,190 @@
         <v>37</v>
       </c>
       <c r="G370" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H370" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J370">
         <v>0</v>
       </c>
       <c r="K370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N370">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O370" t="s">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="P370" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="Q370">
-        <v>2.3</v>
+        <v>4.87</v>
       </c>
       <c r="R370">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="S370">
-        <v>4.41</v>
+        <v>2.41</v>
       </c>
       <c r="T370">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="U370">
-        <v>3.42</v>
+        <v>3.05</v>
       </c>
       <c r="V370">
-        <v>2.41</v>
+        <v>2.89</v>
       </c>
       <c r="W370">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="X370">
-        <v>5.45</v>
+        <v>7.1</v>
       </c>
       <c r="Y370">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z370">
-        <v>1.75</v>
+        <v>4.33</v>
       </c>
       <c r="AA370">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AB370">
-        <v>4</v>
+        <v>1.83</v>
       </c>
       <c r="AC370">
         <v>1.03</v>
       </c>
       <c r="AD370">
-        <v>17.75</v>
+        <v>9</v>
       </c>
       <c r="AE370">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AF370">
-        <v>4.68</v>
+        <v>3.3</v>
       </c>
       <c r="AG370">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="AH370">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="AI370">
+        <v>1.81</v>
+      </c>
+      <c r="AJ370">
+        <v>1.95</v>
+      </c>
+      <c r="AK370">
+        <v>1.95</v>
+      </c>
+      <c r="AL370">
+        <v>1.28</v>
+      </c>
+      <c r="AM370">
+        <v>1.23</v>
+      </c>
+      <c r="AN370">
+        <v>1.33</v>
+      </c>
+      <c r="AO370">
+        <v>1.78</v>
+      </c>
+      <c r="AP370">
+        <v>1.32</v>
+      </c>
+      <c r="AQ370">
+        <v>1.74</v>
+      </c>
+      <c r="AR370">
+        <v>1.34</v>
+      </c>
+      <c r="AS370">
         <v>1.6</v>
       </c>
-      <c r="AJ370">
-        <v>2.27</v>
-      </c>
-      <c r="AK370">
-        <v>1.23</v>
-      </c>
-      <c r="AL370">
-        <v>1.24</v>
-      </c>
-      <c r="AM370">
-        <v>2.05</v>
-      </c>
-      <c r="AN370">
-        <v>1.83</v>
-      </c>
-      <c r="AO370">
-        <v>1.28</v>
-      </c>
-      <c r="AP370">
-        <v>1.85</v>
-      </c>
-      <c r="AQ370">
-        <v>1.2</v>
-      </c>
-      <c r="AR370">
-        <v>1.44</v>
-      </c>
-      <c r="AS370">
-        <v>1.43</v>
-      </c>
       <c r="AT370">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="AU370">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV370">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW370">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX370">
+        <v>2</v>
+      </c>
+      <c r="AY370">
+        <v>11</v>
+      </c>
+      <c r="AZ370">
+        <v>5</v>
+      </c>
+      <c r="BA370">
+        <v>4</v>
+      </c>
+      <c r="BB370">
+        <v>4</v>
+      </c>
+      <c r="BC370">
         <v>8</v>
       </c>
-      <c r="AY370">
-        <v>13</v>
-      </c>
-      <c r="AZ370">
-        <v>10</v>
-      </c>
-      <c r="BA370">
-        <v>8</v>
-      </c>
-      <c r="BB370">
-        <v>6</v>
-      </c>
-      <c r="BC370">
-        <v>14</v>
-      </c>
       <c r="BD370">
-        <v>1.69</v>
+        <v>2.67</v>
       </c>
       <c r="BE370">
         <v>8</v>
       </c>
       <c r="BF370">
-        <v>2.54</v>
+        <v>1.64</v>
       </c>
       <c r="BG370">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="BH370">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="BI370">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BJ370">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="BK370">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="BL370">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="BM370">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="BN370">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="BO370">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="BP370">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="371" spans="1:68">
@@ -78004,7 +78004,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>6652218</v>
+        <v>6652203</v>
       </c>
       <c r="C371" t="s">
         <v>68</v>
@@ -78013,133 +78013,133 @@
         <v>69</v>
       </c>
       <c r="E371" s="2">
-        <v>45429.65625</v>
+        <v>45422.65625</v>
       </c>
       <c r="F371">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G371" t="s">
+        <v>70</v>
+      </c>
+      <c r="H371" t="s">
         <v>80</v>
       </c>
-      <c r="H371" t="s">
-        <v>72</v>
-      </c>
       <c r="I371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J371">
         <v>0</v>
       </c>
       <c r="K371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N371">
         <v>2</v>
       </c>
       <c r="O371" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="P371" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="Q371">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="R371">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="S371">
-        <v>5.55</v>
+        <v>4.41</v>
       </c>
       <c r="T371">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U371">
-        <v>2.82</v>
+        <v>3.42</v>
       </c>
       <c r="V371">
-        <v>2.82</v>
+        <v>2.41</v>
       </c>
       <c r="W371">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X371">
-        <v>7.2</v>
+        <v>5.45</v>
       </c>
       <c r="Y371">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z371">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA371">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AB371">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AC371">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD371">
-        <v>9</v>
+        <v>17.75</v>
       </c>
       <c r="AE371">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AF371">
-        <v>3.22</v>
+        <v>4.68</v>
       </c>
       <c r="AG371">
+        <v>1.57</v>
+      </c>
+      <c r="AH371">
+        <v>2.12</v>
+      </c>
+      <c r="AI371">
+        <v>1.6</v>
+      </c>
+      <c r="AJ371">
+        <v>2.27</v>
+      </c>
+      <c r="AK371">
+        <v>1.23</v>
+      </c>
+      <c r="AL371">
+        <v>1.24</v>
+      </c>
+      <c r="AM371">
         <v>2.05</v>
-      </c>
-      <c r="AH371">
-        <v>1.7</v>
-      </c>
-      <c r="AI371">
-        <v>1.92</v>
-      </c>
-      <c r="AJ371">
-        <v>1.82</v>
-      </c>
-      <c r="AK371">
-        <v>1.14</v>
-      </c>
-      <c r="AL371">
-        <v>1.2</v>
-      </c>
-      <c r="AM371">
-        <v>2.25</v>
       </c>
       <c r="AN371">
         <v>1.83</v>
       </c>
       <c r="AO371">
-        <v>0.5600000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="AP371">
         <v>1.85</v>
       </c>
       <c r="AQ371">
-        <v>0.53</v>
+        <v>1.2</v>
       </c>
       <c r="AR371">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AS371">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="AT371">
-        <v>2.63</v>
+        <v>2.87</v>
       </c>
       <c r="AU371">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV371">
         <v>2</v>
@@ -78148,61 +78148,61 @@
         <v>7</v>
       </c>
       <c r="AX371">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY371">
+        <v>13</v>
+      </c>
+      <c r="AZ371">
         <v>10</v>
       </c>
-      <c r="AZ371">
-        <v>3</v>
-      </c>
       <c r="BA371">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB371">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC371">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD371">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="BE371">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF371">
-        <v>4.43</v>
+        <v>2.54</v>
       </c>
       <c r="BG371">
+        <v>1.27</v>
+      </c>
+      <c r="BH371">
+        <v>3.55</v>
+      </c>
+      <c r="BI371">
         <v>1.5</v>
       </c>
-      <c r="BH371">
+      <c r="BJ371">
+        <v>2.48</v>
+      </c>
+      <c r="BK371">
+        <v>1.85</v>
+      </c>
+      <c r="BL371">
+        <v>1.95</v>
+      </c>
+      <c r="BM371">
         <v>2.45</v>
       </c>
-      <c r="BI371">
-        <v>1.91</v>
-      </c>
-      <c r="BJ371">
-        <v>1.8</v>
-      </c>
-      <c r="BK371">
-        <v>2.6</v>
-      </c>
-      <c r="BL371">
-        <v>1.46</v>
-      </c>
-      <c r="BM371">
-        <v>3.65</v>
-      </c>
       <c r="BN371">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="BO371">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="BP371">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="372" spans="1:68">
@@ -78210,7 +78210,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>6652217</v>
+        <v>6652218</v>
       </c>
       <c r="C372" t="s">
         <v>68</v>
@@ -78225,190 +78225,190 @@
         <v>38</v>
       </c>
       <c r="G372" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H372" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J372">
         <v>0</v>
       </c>
       <c r="K372">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L372">
         <v>2</v>
       </c>
       <c r="M372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N372">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O372" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P372" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="Q372">
-        <v>4.1</v>
+        <v>2.19</v>
       </c>
       <c r="R372">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="S372">
-        <v>2.44</v>
+        <v>5.55</v>
       </c>
       <c r="T372">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="U372">
+        <v>2.82</v>
+      </c>
+      <c r="V372">
+        <v>2.82</v>
+      </c>
+      <c r="W372">
+        <v>1.4</v>
+      </c>
+      <c r="X372">
+        <v>7.2</v>
+      </c>
+      <c r="Y372">
+        <v>1.08</v>
+      </c>
+      <c r="Z372">
+        <v>1.7</v>
+      </c>
+      <c r="AA372">
+        <v>3.2</v>
+      </c>
+      <c r="AB372">
+        <v>4.5</v>
+      </c>
+      <c r="AC372">
+        <v>1.02</v>
+      </c>
+      <c r="AD372">
+        <v>9</v>
+      </c>
+      <c r="AE372">
+        <v>1.28</v>
+      </c>
+      <c r="AF372">
         <v>3.22</v>
       </c>
-      <c r="V372">
-        <v>2.49</v>
-      </c>
-      <c r="W372">
-        <v>1.5</v>
-      </c>
-      <c r="X372">
-        <v>5.95</v>
-      </c>
-      <c r="Y372">
-        <v>1.11</v>
-      </c>
-      <c r="Z372">
+      <c r="AG372">
+        <v>2.05</v>
+      </c>
+      <c r="AH372">
+        <v>1.7</v>
+      </c>
+      <c r="AI372">
+        <v>1.92</v>
+      </c>
+      <c r="AJ372">
+        <v>1.82</v>
+      </c>
+      <c r="AK372">
+        <v>1.14</v>
+      </c>
+      <c r="AL372">
+        <v>1.2</v>
+      </c>
+      <c r="AM372">
+        <v>2.25</v>
+      </c>
+      <c r="AN372">
+        <v>1.83</v>
+      </c>
+      <c r="AO372">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP372">
+        <v>1.85</v>
+      </c>
+      <c r="AQ372">
+        <v>0.53</v>
+      </c>
+      <c r="AR372">
+        <v>1.62</v>
+      </c>
+      <c r="AS372">
+        <v>1.01</v>
+      </c>
+      <c r="AT372">
+        <v>2.63</v>
+      </c>
+      <c r="AU372">
+        <v>3</v>
+      </c>
+      <c r="AV372">
+        <v>2</v>
+      </c>
+      <c r="AW372">
+        <v>7</v>
+      </c>
+      <c r="AX372">
+        <v>1</v>
+      </c>
+      <c r="AY372">
+        <v>10</v>
+      </c>
+      <c r="AZ372">
+        <v>3</v>
+      </c>
+      <c r="BA372">
+        <v>7</v>
+      </c>
+      <c r="BB372">
         <v>4</v>
-      </c>
-      <c r="AA372">
-        <v>3.75</v>
-      </c>
-      <c r="AB372">
-        <v>1.67</v>
-      </c>
-      <c r="AC372">
-        <v>1.04</v>
-      </c>
-      <c r="AD372">
-        <v>11</v>
-      </c>
-      <c r="AE372">
-        <v>1.19</v>
-      </c>
-      <c r="AF372">
-        <v>3.94</v>
-      </c>
-      <c r="AG372">
-        <v>1.65</v>
-      </c>
-      <c r="AH372">
-        <v>2.1</v>
-      </c>
-      <c r="AI372">
-        <v>1.63</v>
-      </c>
-      <c r="AJ372">
-        <v>2.19</v>
-      </c>
-      <c r="AK372">
-        <v>1.93</v>
-      </c>
-      <c r="AL372">
-        <v>1.22</v>
-      </c>
-      <c r="AM372">
-        <v>1.22</v>
-      </c>
-      <c r="AN372">
-        <v>0.89</v>
-      </c>
-      <c r="AO372">
-        <v>1.72</v>
-      </c>
-      <c r="AP372">
-        <v>1</v>
-      </c>
-      <c r="AQ372">
-        <v>1.63</v>
-      </c>
-      <c r="AR372">
-        <v>1.69</v>
-      </c>
-      <c r="AS372">
-        <v>1.43</v>
-      </c>
-      <c r="AT372">
-        <v>3.12</v>
-      </c>
-      <c r="AU372">
-        <v>5</v>
-      </c>
-      <c r="AV372">
-        <v>11</v>
-      </c>
-      <c r="AW372">
-        <v>6</v>
-      </c>
-      <c r="AX372">
-        <v>17</v>
-      </c>
-      <c r="AY372">
-        <v>11</v>
-      </c>
-      <c r="AZ372">
-        <v>28</v>
-      </c>
-      <c r="BA372">
-        <v>3</v>
-      </c>
-      <c r="BB372">
-        <v>8</v>
       </c>
       <c r="BC372">
         <v>11</v>
       </c>
       <c r="BD372">
-        <v>2.33</v>
+        <v>1.31</v>
       </c>
       <c r="BE372">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF372">
-        <v>1.82</v>
+        <v>4.43</v>
       </c>
       <c r="BG372">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="BH372">
-        <v>3.55</v>
+        <v>2.45</v>
       </c>
       <c r="BI372">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="BJ372">
-        <v>2.48</v>
+        <v>1.8</v>
       </c>
       <c r="BK372">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="BL372">
-        <v>1.85</v>
+        <v>1.46</v>
       </c>
       <c r="BM372">
-        <v>2.45</v>
+        <v>3.65</v>
       </c>
       <c r="BN372">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="BO372">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="BP372">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="373" spans="1:68">
@@ -78416,7 +78416,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>6652216</v>
+        <v>6652217</v>
       </c>
       <c r="C373" t="s">
         <v>68</v>
@@ -78431,190 +78431,190 @@
         <v>38</v>
       </c>
       <c r="G373" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H373" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J373">
         <v>0</v>
       </c>
       <c r="K373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M373">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N373">
+        <v>3</v>
+      </c>
+      <c r="O373" t="s">
+        <v>313</v>
+      </c>
+      <c r="P373" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q373">
+        <v>4.1</v>
+      </c>
+      <c r="R373">
+        <v>2.28</v>
+      </c>
+      <c r="S373">
+        <v>2.44</v>
+      </c>
+      <c r="T373">
+        <v>1.32</v>
+      </c>
+      <c r="U373">
+        <v>3.22</v>
+      </c>
+      <c r="V373">
+        <v>2.49</v>
+      </c>
+      <c r="W373">
+        <v>1.5</v>
+      </c>
+      <c r="X373">
+        <v>5.95</v>
+      </c>
+      <c r="Y373">
+        <v>1.11</v>
+      </c>
+      <c r="Z373">
         <v>4</v>
       </c>
-      <c r="O373" t="s">
-        <v>93</v>
-      </c>
-      <c r="P373" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q373">
-        <v>2.99</v>
-      </c>
-      <c r="R373">
-        <v>2.06</v>
-      </c>
-      <c r="S373">
-        <v>3.66</v>
-      </c>
-      <c r="T373">
-        <v>1.44</v>
-      </c>
-      <c r="U373">
-        <v>2.67</v>
-      </c>
-      <c r="V373">
-        <v>3.05</v>
-      </c>
-      <c r="W373">
-        <v>1.35</v>
-      </c>
-      <c r="X373">
-        <v>8.1</v>
-      </c>
-      <c r="Y373">
-        <v>1.06</v>
-      </c>
-      <c r="Z373">
-        <v>2.25</v>
-      </c>
       <c r="AA373">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AB373">
-        <v>2.9</v>
+        <v>1.67</v>
       </c>
       <c r="AC373">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD373">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE373">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AF373">
-        <v>2.93</v>
+        <v>3.94</v>
       </c>
       <c r="AG373">
+        <v>1.65</v>
+      </c>
+      <c r="AH373">
         <v>2.1</v>
       </c>
-      <c r="AH373">
-        <v>1.67</v>
-      </c>
       <c r="AI373">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="AJ373">
-        <v>1.89</v>
+        <v>2.19</v>
       </c>
       <c r="AK373">
-        <v>1.36</v>
+        <v>1.93</v>
       </c>
       <c r="AL373">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM373">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AN373">
-        <v>1.56</v>
+        <v>0.89</v>
       </c>
       <c r="AO373">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="AP373">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AQ373">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AR373">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="AS373">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AT373">
-        <v>2.77</v>
+        <v>3.12</v>
       </c>
       <c r="AU373">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV373">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW373">
         <v>6</v>
       </c>
       <c r="AX373">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AY373">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ373">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="BA373">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB373">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC373">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD373">
-        <v>1.69</v>
+        <v>2.33</v>
       </c>
       <c r="BE373">
         <v>8</v>
       </c>
       <c r="BF373">
-        <v>2.62</v>
+        <v>1.82</v>
       </c>
       <c r="BG373">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BH373">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="BI373">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BJ373">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="BK373">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BL373">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BM373">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="BN373">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="BO373">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BP373">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="374" spans="1:68">
@@ -78622,7 +78622,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>6652215</v>
+        <v>6652216</v>
       </c>
       <c r="C374" t="s">
         <v>68</v>
@@ -78637,190 +78637,190 @@
         <v>38</v>
       </c>
       <c r="G374" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H374" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I374">
         <v>1</v>
       </c>
       <c r="J374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K374">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L374">
         <v>1</v>
       </c>
       <c r="M374">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N374">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O374" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="P374" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="Q374">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="R374">
-        <v>2.17</v>
+        <v>2.06</v>
       </c>
       <c r="S374">
-        <v>3.4</v>
+        <v>3.66</v>
       </c>
       <c r="T374">
+        <v>1.44</v>
+      </c>
+      <c r="U374">
+        <v>2.67</v>
+      </c>
+      <c r="V374">
+        <v>3.05</v>
+      </c>
+      <c r="W374">
+        <v>1.35</v>
+      </c>
+      <c r="X374">
+        <v>8.1</v>
+      </c>
+      <c r="Y374">
+        <v>1.06</v>
+      </c>
+      <c r="Z374">
+        <v>2.25</v>
+      </c>
+      <c r="AA374">
+        <v>3</v>
+      </c>
+      <c r="AB374">
+        <v>2.9</v>
+      </c>
+      <c r="AC374">
+        <v>1.03</v>
+      </c>
+      <c r="AD374">
+        <v>8</v>
+      </c>
+      <c r="AE374">
+        <v>1.33</v>
+      </c>
+      <c r="AF374">
+        <v>2.93</v>
+      </c>
+      <c r="AG374">
+        <v>2.1</v>
+      </c>
+      <c r="AH374">
+        <v>1.67</v>
+      </c>
+      <c r="AI374">
+        <v>1.85</v>
+      </c>
+      <c r="AJ374">
+        <v>1.89</v>
+      </c>
+      <c r="AK374">
         <v>1.36</v>
       </c>
-      <c r="U374">
-        <v>3</v>
-      </c>
-      <c r="V374">
-        <v>2.61</v>
-      </c>
-      <c r="W374">
-        <v>1.46</v>
-      </c>
-      <c r="X374">
-        <v>6.4</v>
-      </c>
-      <c r="Y374">
-        <v>1.1</v>
-      </c>
-      <c r="Z374">
-        <v>2.3</v>
-      </c>
-      <c r="AA374">
-        <v>3.2</v>
-      </c>
-      <c r="AB374">
-        <v>2.75</v>
-      </c>
-      <c r="AC374">
-        <v>1.01</v>
-      </c>
-      <c r="AD374">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE374">
-        <v>1.22</v>
-      </c>
-      <c r="AF374">
-        <v>3.66</v>
-      </c>
-      <c r="AG374">
-        <v>1.8</v>
-      </c>
-      <c r="AH374">
-        <v>1.91</v>
-      </c>
-      <c r="AI374">
-        <v>1.64</v>
-      </c>
-      <c r="AJ374">
-        <v>2.17</v>
-      </c>
-      <c r="AK374">
-        <v>1.42</v>
-      </c>
       <c r="AL374">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM374">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AN374">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AO374">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AP374">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ374">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="AR374">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="AS374">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AT374">
-        <v>2.61</v>
+        <v>2.77</v>
       </c>
       <c r="AU374">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV374">
+        <v>9</v>
+      </c>
+      <c r="AW374">
         <v>6</v>
-      </c>
-      <c r="AW374">
-        <v>12</v>
       </c>
       <c r="AX374">
         <v>5</v>
       </c>
       <c r="AY374">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AZ374">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA374">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB374">
         <v>5</v>
       </c>
       <c r="BC374">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD374">
-        <v>2.33</v>
+        <v>1.69</v>
       </c>
       <c r="BE374">
         <v>8</v>
       </c>
       <c r="BF374">
-        <v>1.82</v>
+        <v>2.62</v>
       </c>
       <c r="BG374">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BH374">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BI374">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="BJ374">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="BK374">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BL374">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="BM374">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="BN374">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="BO374">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BP374">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="375" spans="1:68">
@@ -78828,7 +78828,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>6652214</v>
+        <v>6652215</v>
       </c>
       <c r="C375" t="s">
         <v>68</v>
@@ -78843,190 +78843,190 @@
         <v>38</v>
       </c>
       <c r="G375" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H375" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J375">
         <v>1</v>
       </c>
       <c r="K375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M375">
         <v>1</v>
       </c>
       <c r="N375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O375" t="s">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="P375" t="s">
-        <v>93</v>
+        <v>426</v>
       </c>
       <c r="Q375">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="R375">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="S375">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="T375">
+        <v>1.36</v>
+      </c>
+      <c r="U375">
+        <v>3</v>
+      </c>
+      <c r="V375">
+        <v>2.61</v>
+      </c>
+      <c r="W375">
+        <v>1.46</v>
+      </c>
+      <c r="X375">
+        <v>6.4</v>
+      </c>
+      <c r="Y375">
+        <v>1.1</v>
+      </c>
+      <c r="Z375">
+        <v>2.3</v>
+      </c>
+      <c r="AA375">
+        <v>3.2</v>
+      </c>
+      <c r="AB375">
+        <v>2.75</v>
+      </c>
+      <c r="AC375">
+        <v>1.01</v>
+      </c>
+      <c r="AD375">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE375">
+        <v>1.22</v>
+      </c>
+      <c r="AF375">
+        <v>3.66</v>
+      </c>
+      <c r="AG375">
+        <v>1.8</v>
+      </c>
+      <c r="AH375">
+        <v>1.91</v>
+      </c>
+      <c r="AI375">
+        <v>1.64</v>
+      </c>
+      <c r="AJ375">
+        <v>2.17</v>
+      </c>
+      <c r="AK375">
         <v>1.42</v>
-      </c>
-      <c r="U375">
-        <v>2.75</v>
-      </c>
-      <c r="V375">
-        <v>2.95</v>
-      </c>
-      <c r="W375">
-        <v>1.37</v>
-      </c>
-      <c r="X375">
-        <v>7.7</v>
-      </c>
-      <c r="Y375">
-        <v>1.07</v>
-      </c>
-      <c r="Z375">
-        <v>1.91</v>
-      </c>
-      <c r="AA375">
-        <v>3.3</v>
-      </c>
-      <c r="AB375">
-        <v>3.5</v>
-      </c>
-      <c r="AC375">
-        <v>1.03</v>
-      </c>
-      <c r="AD375">
-        <v>8.4</v>
-      </c>
-      <c r="AE375">
-        <v>1.31</v>
-      </c>
-      <c r="AF375">
-        <v>3.04</v>
-      </c>
-      <c r="AG375">
-        <v>2.05</v>
-      </c>
-      <c r="AH375">
-        <v>1.7</v>
-      </c>
-      <c r="AI375">
-        <v>1.87</v>
-      </c>
-      <c r="AJ375">
-        <v>1.87</v>
-      </c>
-      <c r="AK375">
-        <v>1.25</v>
       </c>
       <c r="AL375">
         <v>1.25</v>
       </c>
       <c r="AM375">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AN375">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="AO375">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="AP375">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="AQ375">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="AR375">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AS375">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT375">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AU375">
+        <v>8</v>
+      </c>
+      <c r="AV375">
+        <v>6</v>
+      </c>
+      <c r="AW375">
+        <v>12</v>
+      </c>
+      <c r="AX375">
         <v>5</v>
       </c>
-      <c r="AV375">
-        <v>3</v>
-      </c>
-      <c r="AW375">
+      <c r="AY375">
+        <v>20</v>
+      </c>
+      <c r="AZ375">
+        <v>11</v>
+      </c>
+      <c r="BA375">
         <v>8</v>
       </c>
-      <c r="AX375">
-        <v>6</v>
-      </c>
-      <c r="AY375">
-        <v>13</v>
-      </c>
-      <c r="AZ375">
-        <v>9</v>
-      </c>
-      <c r="BA375">
-        <v>12</v>
-      </c>
       <c r="BB375">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC375">
         <v>13</v>
       </c>
       <c r="BD375">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="BE375">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF375">
-        <v>2.45</v>
+        <v>1.82</v>
       </c>
       <c r="BG375">
         <v>1.36</v>
       </c>
       <c r="BH375">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="BI375">
+        <v>1.66</v>
+      </c>
+      <c r="BJ375">
+        <v>2.15</v>
+      </c>
+      <c r="BK375">
+        <v>2.05</v>
+      </c>
+      <c r="BL375">
         <v>1.7</v>
       </c>
-      <c r="BJ375">
-        <v>2.05</v>
-      </c>
-      <c r="BK375">
-        <v>2.15</v>
-      </c>
-      <c r="BL375">
-        <v>1.65</v>
-      </c>
       <c r="BM375">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="BN375">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BO375">
         <v>4.1</v>
       </c>
       <c r="BP375">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="376" spans="1:68">
@@ -79034,7 +79034,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>6652212</v>
+        <v>6652214</v>
       </c>
       <c r="C376" t="s">
         <v>68</v>
@@ -79049,190 +79049,190 @@
         <v>38</v>
       </c>
       <c r="G376" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H376" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J376">
         <v>1</v>
       </c>
       <c r="K376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L376">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M376">
         <v>1</v>
       </c>
       <c r="N376">
+        <v>1</v>
+      </c>
+      <c r="O376" t="s">
+        <v>90</v>
+      </c>
+      <c r="P376" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q376">
+        <v>2.52</v>
+      </c>
+      <c r="R376">
+        <v>2.11</v>
+      </c>
+      <c r="S376">
+        <v>4.5</v>
+      </c>
+      <c r="T376">
+        <v>1.42</v>
+      </c>
+      <c r="U376">
+        <v>2.75</v>
+      </c>
+      <c r="V376">
+        <v>2.95</v>
+      </c>
+      <c r="W376">
+        <v>1.37</v>
+      </c>
+      <c r="X376">
+        <v>7.7</v>
+      </c>
+      <c r="Y376">
+        <v>1.07</v>
+      </c>
+      <c r="Z376">
+        <v>1.91</v>
+      </c>
+      <c r="AA376">
+        <v>3.3</v>
+      </c>
+      <c r="AB376">
+        <v>3.5</v>
+      </c>
+      <c r="AC376">
+        <v>1.03</v>
+      </c>
+      <c r="AD376">
+        <v>8.4</v>
+      </c>
+      <c r="AE376">
+        <v>1.31</v>
+      </c>
+      <c r="AF376">
+        <v>3.04</v>
+      </c>
+      <c r="AG376">
+        <v>2.05</v>
+      </c>
+      <c r="AH376">
+        <v>1.7</v>
+      </c>
+      <c r="AI376">
+        <v>1.87</v>
+      </c>
+      <c r="AJ376">
+        <v>1.87</v>
+      </c>
+      <c r="AK376">
+        <v>1.25</v>
+      </c>
+      <c r="AL376">
+        <v>1.25</v>
+      </c>
+      <c r="AM376">
+        <v>1.8</v>
+      </c>
+      <c r="AN376">
+        <v>1.22</v>
+      </c>
+      <c r="AO376">
+        <v>1.61</v>
+      </c>
+      <c r="AP376">
+        <v>1.16</v>
+      </c>
+      <c r="AQ376">
+        <v>1.68</v>
+      </c>
+      <c r="AR376">
+        <v>1.57</v>
+      </c>
+      <c r="AS376">
+        <v>1.26</v>
+      </c>
+      <c r="AT376">
+        <v>2.83</v>
+      </c>
+      <c r="AU376">
         <v>5</v>
       </c>
-      <c r="O376" t="s">
-        <v>314</v>
-      </c>
-      <c r="P376" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q376">
-        <v>1.82</v>
-      </c>
-      <c r="R376">
-        <v>2.6</v>
-      </c>
-      <c r="S376">
-        <v>6.25</v>
-      </c>
-      <c r="T376">
-        <v>1.26</v>
-      </c>
-      <c r="U376">
-        <v>3.64</v>
-      </c>
-      <c r="V376">
-        <v>2.24</v>
-      </c>
-      <c r="W376">
-        <v>1.61</v>
-      </c>
-      <c r="X376">
-        <v>5</v>
-      </c>
-      <c r="Y376">
-        <v>1.15</v>
-      </c>
-      <c r="Z376">
-        <v>1.35</v>
-      </c>
-      <c r="AA376">
-        <v>4.6</v>
-      </c>
-      <c r="AB376">
-        <v>6.5</v>
-      </c>
-      <c r="AC376">
-        <v>1.02</v>
-      </c>
-      <c r="AD376">
-        <v>21.5</v>
-      </c>
-      <c r="AE376">
-        <v>1.13</v>
-      </c>
-      <c r="AF376">
-        <v>4.8</v>
-      </c>
-      <c r="AG376">
-        <v>1.5</v>
-      </c>
-      <c r="AH376">
-        <v>2.4</v>
-      </c>
-      <c r="AI376">
-        <v>1.75</v>
-      </c>
-      <c r="AJ376">
-        <v>2.01</v>
-      </c>
-      <c r="AK376">
-        <v>1.09</v>
-      </c>
-      <c r="AL376">
-        <v>1.11</v>
-      </c>
-      <c r="AM376">
-        <v>2.95</v>
-      </c>
-      <c r="AN376">
-        <v>2.11</v>
-      </c>
-      <c r="AO376">
-        <v>1</v>
-      </c>
-      <c r="AP376">
-        <v>2.16</v>
-      </c>
-      <c r="AQ376">
-        <v>0.95</v>
-      </c>
-      <c r="AR376">
-        <v>1.69</v>
-      </c>
-      <c r="AS376">
-        <v>1.2</v>
-      </c>
-      <c r="AT376">
-        <v>2.89</v>
-      </c>
-      <c r="AU376">
-        <v>11</v>
-      </c>
       <c r="AV376">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW376">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX376">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY376">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ376">
         <v>9</v>
       </c>
       <c r="BA376">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BB376">
         <v>1</v>
       </c>
       <c r="BC376">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BD376">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="BE376">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BF376">
-        <v>4.64</v>
+        <v>2.45</v>
       </c>
       <c r="BG376">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="BH376">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="BI376">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="BJ376">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="BK376">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="BL376">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="BM376">
-        <v>2.38</v>
+        <v>2.95</v>
       </c>
       <c r="BN376">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="BO376">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="BP376">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="377" spans="1:68">
@@ -79240,7 +79240,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>6652211</v>
+        <v>6652212</v>
       </c>
       <c r="C377" t="s">
         <v>68</v>
@@ -79255,10 +79255,10 @@
         <v>38</v>
       </c>
       <c r="G377" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H377" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I377">
         <v>1</v>
@@ -79270,175 +79270,175 @@
         <v>2</v>
       </c>
       <c r="L377">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M377">
         <v>1</v>
       </c>
       <c r="N377">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O377" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="P377" t="s">
-        <v>444</v>
+        <v>143</v>
       </c>
       <c r="Q377">
-        <v>4.05</v>
+        <v>1.82</v>
       </c>
       <c r="R377">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="S377">
-        <v>2.59</v>
+        <v>6.25</v>
       </c>
       <c r="T377">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="U377">
+        <v>3.64</v>
+      </c>
+      <c r="V377">
+        <v>2.24</v>
+      </c>
+      <c r="W377">
+        <v>1.61</v>
+      </c>
+      <c r="X377">
+        <v>5</v>
+      </c>
+      <c r="Y377">
+        <v>1.15</v>
+      </c>
+      <c r="Z377">
+        <v>1.35</v>
+      </c>
+      <c r="AA377">
+        <v>4.6</v>
+      </c>
+      <c r="AB377">
+        <v>6.5</v>
+      </c>
+      <c r="AC377">
+        <v>1.02</v>
+      </c>
+      <c r="AD377">
+        <v>21.5</v>
+      </c>
+      <c r="AE377">
+        <v>1.13</v>
+      </c>
+      <c r="AF377">
+        <v>4.8</v>
+      </c>
+      <c r="AG377">
+        <v>1.5</v>
+      </c>
+      <c r="AH377">
+        <v>2.4</v>
+      </c>
+      <c r="AI377">
+        <v>1.75</v>
+      </c>
+      <c r="AJ377">
+        <v>2.01</v>
+      </c>
+      <c r="AK377">
+        <v>1.09</v>
+      </c>
+      <c r="AL377">
+        <v>1.11</v>
+      </c>
+      <c r="AM377">
         <v>2.95</v>
       </c>
-      <c r="V377">
-        <v>2.71</v>
-      </c>
-      <c r="W377">
-        <v>1.43</v>
-      </c>
-      <c r="X377">
-        <v>6.75</v>
-      </c>
-      <c r="Y377">
-        <v>1.09</v>
-      </c>
-      <c r="Z377">
-        <v>3.2</v>
-      </c>
-      <c r="AA377">
-        <v>3.5</v>
-      </c>
-      <c r="AB377">
-        <v>1.95</v>
-      </c>
-      <c r="AC377">
-        <v>1.01</v>
-      </c>
-      <c r="AD377">
-        <v>9.5</v>
-      </c>
-      <c r="AE377">
+      <c r="AN377">
+        <v>2.11</v>
+      </c>
+      <c r="AO377">
+        <v>1</v>
+      </c>
+      <c r="AP377">
+        <v>2.16</v>
+      </c>
+      <c r="AQ377">
+        <v>0.95</v>
+      </c>
+      <c r="AR377">
+        <v>1.69</v>
+      </c>
+      <c r="AS377">
+        <v>1.2</v>
+      </c>
+      <c r="AT377">
+        <v>2.89</v>
+      </c>
+      <c r="AU377">
+        <v>11</v>
+      </c>
+      <c r="AV377">
+        <v>5</v>
+      </c>
+      <c r="AW377">
+        <v>10</v>
+      </c>
+      <c r="AX377">
+        <v>4</v>
+      </c>
+      <c r="AY377">
+        <v>21</v>
+      </c>
+      <c r="AZ377">
+        <v>9</v>
+      </c>
+      <c r="BA377">
+        <v>2</v>
+      </c>
+      <c r="BB377">
+        <v>1</v>
+      </c>
+      <c r="BC377">
+        <v>3</v>
+      </c>
+      <c r="BD377">
+        <v>1.26</v>
+      </c>
+      <c r="BE377">
+        <v>10</v>
+      </c>
+      <c r="BF377">
+        <v>4.64</v>
+      </c>
+      <c r="BG377">
         <v>1.25</v>
       </c>
-      <c r="AF377">
-        <v>3.42</v>
-      </c>
-      <c r="AG377">
-        <v>1.95</v>
-      </c>
-      <c r="AH377">
+      <c r="BH377">
+        <v>3.7</v>
+      </c>
+      <c r="BI377">
+        <v>1.47</v>
+      </c>
+      <c r="BJ377">
+        <v>2.55</v>
+      </c>
+      <c r="BK377">
         <v>1.8</v>
       </c>
-      <c r="AI377">
-        <v>1.72</v>
-      </c>
-      <c r="AJ377">
-        <v>2.05</v>
-      </c>
-      <c r="AK377">
-        <v>1.77</v>
-      </c>
-      <c r="AL377">
-        <v>1.22</v>
-      </c>
-      <c r="AM377">
+      <c r="BL377">
+        <v>1.91</v>
+      </c>
+      <c r="BM377">
+        <v>2.38</v>
+      </c>
+      <c r="BN377">
+        <v>1.54</v>
+      </c>
+      <c r="BO377">
+        <v>3.25</v>
+      </c>
+      <c r="BP377">
         <v>1.3</v>
-      </c>
-      <c r="AN377">
-        <v>1.56</v>
-      </c>
-      <c r="AO377">
-        <v>1.33</v>
-      </c>
-      <c r="AP377">
-        <v>1.53</v>
-      </c>
-      <c r="AQ377">
-        <v>1.3</v>
-      </c>
-      <c r="AR377">
-        <v>1.32</v>
-      </c>
-      <c r="AS377">
-        <v>1.34</v>
-      </c>
-      <c r="AT377">
-        <v>2.66</v>
-      </c>
-      <c r="AU377">
-        <v>7</v>
-      </c>
-      <c r="AV377">
-        <v>4</v>
-      </c>
-      <c r="AW377">
-        <v>7</v>
-      </c>
-      <c r="AX377">
-        <v>2</v>
-      </c>
-      <c r="AY377">
-        <v>14</v>
-      </c>
-      <c r="AZ377">
-        <v>6</v>
-      </c>
-      <c r="BA377">
-        <v>7</v>
-      </c>
-      <c r="BB377">
-        <v>3</v>
-      </c>
-      <c r="BC377">
-        <v>10</v>
-      </c>
-      <c r="BD377">
-        <v>2.34</v>
-      </c>
-      <c r="BE377">
-        <v>7.5</v>
-      </c>
-      <c r="BF377">
-        <v>1.82</v>
-      </c>
-      <c r="BG377">
-        <v>1.45</v>
-      </c>
-      <c r="BH377">
-        <v>2.63</v>
-      </c>
-      <c r="BI377">
-        <v>1.8</v>
-      </c>
-      <c r="BJ377">
-        <v>1.91</v>
-      </c>
-      <c r="BK377">
-        <v>2.4</v>
-      </c>
-      <c r="BL377">
-        <v>1.53</v>
-      </c>
-      <c r="BM377">
-        <v>3.35</v>
-      </c>
-      <c r="BN377">
-        <v>1.3</v>
-      </c>
-      <c r="BO377">
-        <v>4.8</v>
-      </c>
-      <c r="BP377">
-        <v>1.17</v>
       </c>
     </row>
     <row r="378" spans="1:68">
@@ -79446,7 +79446,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>6652210</v>
+        <v>6652211</v>
       </c>
       <c r="C378" t="s">
         <v>68</v>
@@ -79461,190 +79461,190 @@
         <v>38</v>
       </c>
       <c r="G378" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H378" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K378">
         <v>2</v>
       </c>
       <c r="L378">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N378">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O378" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="P378" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="Q378">
-        <v>2.34</v>
+        <v>4.05</v>
       </c>
       <c r="R378">
-        <v>2.41</v>
+        <v>2.18</v>
       </c>
       <c r="S378">
-        <v>3.98</v>
+        <v>2.59</v>
       </c>
       <c r="T378">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="U378">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="V378">
-        <v>2.24</v>
+        <v>2.71</v>
       </c>
       <c r="W378">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="X378">
-        <v>5.05</v>
+        <v>6.75</v>
       </c>
       <c r="Y378">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="Z378">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="AA378">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB378">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="AC378">
         <v>1.01</v>
       </c>
       <c r="AD378">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AE378">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AF378">
-        <v>4.75</v>
+        <v>3.42</v>
       </c>
       <c r="AG378">
-        <v>1.61</v>
+        <v>1.95</v>
       </c>
       <c r="AH378">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AI378">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="AJ378">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="AK378">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="AL378">
         <v>1.22</v>
       </c>
       <c r="AM378">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AN378">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AO378">
         <v>1.33</v>
       </c>
       <c r="AP378">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="AQ378">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AR378">
-        <v>1.69</v>
+        <v>1.32</v>
       </c>
       <c r="AS378">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AT378">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="AU378">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV378">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW378">
         <v>7</v>
       </c>
       <c r="AX378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY378">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ378">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA378">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB378">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC378">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD378">
-        <v>1.51</v>
+        <v>2.34</v>
       </c>
       <c r="BE378">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF378">
-        <v>3.16</v>
+        <v>1.82</v>
       </c>
       <c r="BG378">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="BH378">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="BI378">
+        <v>1.8</v>
+      </c>
+      <c r="BJ378">
+        <v>1.91</v>
+      </c>
+      <c r="BK378">
+        <v>2.4</v>
+      </c>
+      <c r="BL378">
         <v>1.53</v>
       </c>
-      <c r="BJ378">
-        <v>2.4</v>
-      </c>
-      <c r="BK378">
-        <v>1.91</v>
-      </c>
-      <c r="BL378">
-        <v>1.8</v>
-      </c>
       <c r="BM378">
-        <v>2.55</v>
+        <v>3.35</v>
       </c>
       <c r="BN378">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="BO378">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="BP378">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="379" spans="1:68">
@@ -79652,7 +79652,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>6652209</v>
+        <v>6652210</v>
       </c>
       <c r="C379" t="s">
         <v>68</v>
@@ -79667,190 +79667,190 @@
         <v>38</v>
       </c>
       <c r="G379" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H379" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J379">
         <v>0</v>
       </c>
       <c r="K379">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M379">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N379">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O379" t="s">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="P379" t="s">
-        <v>90</v>
+        <v>464</v>
       </c>
       <c r="Q379">
-        <v>1.89</v>
+        <v>2.34</v>
       </c>
       <c r="R379">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="S379">
-        <v>6.2</v>
+        <v>3.98</v>
       </c>
       <c r="T379">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U379">
-        <v>3.34</v>
+        <v>3.55</v>
       </c>
       <c r="V379">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="W379">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="X379">
-        <v>5.55</v>
+        <v>5.05</v>
       </c>
       <c r="Y379">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="Z379">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AA379">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AB379">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="AC379">
         <v>1.01</v>
       </c>
       <c r="AD379">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AE379">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AF379">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="AG379">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AH379">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AI379">
-        <v>1.83</v>
+        <v>1.51</v>
       </c>
       <c r="AJ379">
+        <v>2.45</v>
+      </c>
+      <c r="AK379">
+        <v>1.25</v>
+      </c>
+      <c r="AL379">
+        <v>1.22</v>
+      </c>
+      <c r="AM379">
+        <v>1.9</v>
+      </c>
+      <c r="AN379">
+        <v>1.78</v>
+      </c>
+      <c r="AO379">
+        <v>1.33</v>
+      </c>
+      <c r="AP379">
+        <v>1.84</v>
+      </c>
+      <c r="AQ379">
+        <v>1.26</v>
+      </c>
+      <c r="AR379">
+        <v>1.69</v>
+      </c>
+      <c r="AS379">
+        <v>1.25</v>
+      </c>
+      <c r="AT379">
+        <v>2.94</v>
+      </c>
+      <c r="AU379">
+        <v>8</v>
+      </c>
+      <c r="AV379">
+        <v>6</v>
+      </c>
+      <c r="AW379">
+        <v>7</v>
+      </c>
+      <c r="AX379">
+        <v>3</v>
+      </c>
+      <c r="AY379">
+        <v>15</v>
+      </c>
+      <c r="AZ379">
+        <v>9</v>
+      </c>
+      <c r="BA379">
+        <v>5</v>
+      </c>
+      <c r="BB379">
+        <v>4</v>
+      </c>
+      <c r="BC379">
+        <v>9</v>
+      </c>
+      <c r="BD379">
+        <v>1.51</v>
+      </c>
+      <c r="BE379">
+        <v>8.5</v>
+      </c>
+      <c r="BF379">
+        <v>3.16</v>
+      </c>
+      <c r="BG379">
+        <v>1.29</v>
+      </c>
+      <c r="BH379">
+        <v>3.4</v>
+      </c>
+      <c r="BI379">
+        <v>1.53</v>
+      </c>
+      <c r="BJ379">
+        <v>2.4</v>
+      </c>
+      <c r="BK379">
         <v>1.91</v>
       </c>
-      <c r="AK379">
-        <v>1.1</v>
-      </c>
-      <c r="AL379">
-        <v>1.15</v>
-      </c>
-      <c r="AM379">
-        <v>2.75</v>
-      </c>
-      <c r="AN379">
-        <v>2.33</v>
-      </c>
-      <c r="AO379">
-        <v>1.61</v>
-      </c>
-      <c r="AP379">
-        <v>2.26</v>
-      </c>
-      <c r="AQ379">
-        <v>1.58</v>
-      </c>
-      <c r="AR379">
-        <v>1.45</v>
-      </c>
-      <c r="AS379">
-        <v>1.21</v>
-      </c>
-      <c r="AT379">
-        <v>2.66</v>
-      </c>
-      <c r="AU379">
-        <v>3</v>
-      </c>
-      <c r="AV379">
-        <v>3</v>
-      </c>
-      <c r="AW379">
-        <v>6</v>
-      </c>
-      <c r="AX379">
-        <v>1</v>
-      </c>
-      <c r="AY379">
-        <v>9</v>
-      </c>
-      <c r="AZ379">
-        <v>4</v>
-      </c>
-      <c r="BA379">
-        <v>12</v>
-      </c>
-      <c r="BB379">
-        <v>1</v>
-      </c>
-      <c r="BC379">
-        <v>13</v>
-      </c>
-      <c r="BD379">
-        <v>1.26</v>
-      </c>
-      <c r="BE379">
-        <v>10</v>
-      </c>
-      <c r="BF379">
-        <v>4.64</v>
-      </c>
-      <c r="BG379">
+      <c r="BL379">
+        <v>1.8</v>
+      </c>
+      <c r="BM379">
+        <v>2.55</v>
+      </c>
+      <c r="BN379">
+        <v>1.48</v>
+      </c>
+      <c r="BO379">
+        <v>3.5</v>
+      </c>
+      <c r="BP379">
         <v>1.27</v>
-      </c>
-      <c r="BH379">
-        <v>3.55</v>
-      </c>
-      <c r="BI379">
-        <v>1.5</v>
-      </c>
-      <c r="BJ379">
-        <v>2.48</v>
-      </c>
-      <c r="BK379">
-        <v>1.85</v>
-      </c>
-      <c r="BL379">
-        <v>1.85</v>
-      </c>
-      <c r="BM379">
-        <v>2.45</v>
-      </c>
-      <c r="BN379">
-        <v>1.5</v>
-      </c>
-      <c r="BO379">
-        <v>3.4</v>
-      </c>
-      <c r="BP379">
-        <v>1.29</v>
       </c>
     </row>
     <row r="380" spans="1:68">
@@ -79858,7 +79858,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>6652213</v>
+        <v>6652209</v>
       </c>
       <c r="C380" t="s">
         <v>68</v>
@@ -79873,190 +79873,190 @@
         <v>38</v>
       </c>
       <c r="G380" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H380" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380">
         <v>0</v>
       </c>
       <c r="K380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L380">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M380">
         <v>0</v>
       </c>
       <c r="N380">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O380" t="s">
-        <v>316</v>
+        <v>90</v>
       </c>
       <c r="P380" t="s">
         <v>90</v>
       </c>
       <c r="Q380">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R380">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="S380">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="T380">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U380">
-        <v>3.16</v>
+        <v>3.34</v>
       </c>
       <c r="V380">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="W380">
+        <v>1.53</v>
+      </c>
+      <c r="X380">
+        <v>5.55</v>
+      </c>
+      <c r="Y380">
+        <v>1.12</v>
+      </c>
+      <c r="Z380">
         <v>1.48</v>
       </c>
-      <c r="X380">
-        <v>6.15</v>
-      </c>
-      <c r="Y380">
-        <v>1.1</v>
-      </c>
-      <c r="Z380">
-        <v>1.33</v>
-      </c>
       <c r="AA380">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AB380">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="AC380">
         <v>1.01</v>
       </c>
       <c r="AD380">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AE380">
+        <v>1.17</v>
+      </c>
+      <c r="AF380">
+        <v>4.25</v>
+      </c>
+      <c r="AG380">
+        <v>1.7</v>
+      </c>
+      <c r="AH380">
+        <v>2.05</v>
+      </c>
+      <c r="AI380">
+        <v>1.83</v>
+      </c>
+      <c r="AJ380">
+        <v>1.91</v>
+      </c>
+      <c r="AK380">
+        <v>1.1</v>
+      </c>
+      <c r="AL380">
+        <v>1.15</v>
+      </c>
+      <c r="AM380">
+        <v>2.75</v>
+      </c>
+      <c r="AN380">
+        <v>2.33</v>
+      </c>
+      <c r="AO380">
+        <v>1.61</v>
+      </c>
+      <c r="AP380">
+        <v>2.26</v>
+      </c>
+      <c r="AQ380">
+        <v>1.58</v>
+      </c>
+      <c r="AR380">
+        <v>1.45</v>
+      </c>
+      <c r="AS380">
         <v>1.21</v>
       </c>
-      <c r="AF380">
-        <v>3.75</v>
-      </c>
-      <c r="AG380">
-        <v>1.73</v>
-      </c>
-      <c r="AH380">
-        <v>2</v>
-      </c>
-      <c r="AI380">
-        <v>2.01</v>
-      </c>
-      <c r="AJ380">
-        <v>1.75</v>
-      </c>
-      <c r="AK380">
-        <v>1.06</v>
-      </c>
-      <c r="AL380">
-        <v>1.18</v>
-      </c>
-      <c r="AM380">
-        <v>3.1</v>
-      </c>
-      <c r="AN380">
-        <v>1.83</v>
-      </c>
-      <c r="AO380">
-        <v>0.47</v>
-      </c>
-      <c r="AP380">
-        <v>1.89</v>
-      </c>
-      <c r="AQ380">
-        <v>0.44</v>
-      </c>
-      <c r="AR380">
-        <v>1.43</v>
-      </c>
-      <c r="AS380">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="AT380">
-        <v>2.37</v>
+        <v>2.66</v>
       </c>
       <c r="AU380">
+        <v>3</v>
+      </c>
+      <c r="AV380">
+        <v>3</v>
+      </c>
+      <c r="AW380">
+        <v>6</v>
+      </c>
+      <c r="AX380">
+        <v>1</v>
+      </c>
+      <c r="AY380">
         <v>9</v>
       </c>
-      <c r="AV380">
+      <c r="AZ380">
         <v>4</v>
       </c>
-      <c r="AW380">
-        <v>9</v>
-      </c>
-      <c r="AX380">
-        <v>11</v>
-      </c>
-      <c r="AY380">
-        <v>18</v>
-      </c>
-      <c r="AZ380">
-        <v>15</v>
-      </c>
       <c r="BA380">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BB380">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC380">
+        <v>13</v>
+      </c>
+      <c r="BD380">
+        <v>1.26</v>
+      </c>
+      <c r="BE380">
         <v>10</v>
       </c>
-      <c r="BD380">
-        <v>1.14</v>
-      </c>
-      <c r="BE380">
-        <v>11</v>
-      </c>
       <c r="BF380">
-        <v>7.55</v>
+        <v>4.64</v>
       </c>
       <c r="BG380">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="BH380">
-        <v>2.55</v>
+        <v>3.55</v>
       </c>
       <c r="BI380">
+        <v>1.5</v>
+      </c>
+      <c r="BJ380">
+        <v>2.48</v>
+      </c>
+      <c r="BK380">
         <v>1.85</v>
       </c>
-      <c r="BJ380">
+      <c r="BL380">
         <v>1.85</v>
       </c>
-      <c r="BK380">
-        <v>2.5</v>
-      </c>
-      <c r="BL380">
-        <v>1.49</v>
-      </c>
       <c r="BM380">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="BN380">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="BO380">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="BP380">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="381" spans="1:68">
@@ -80064,7 +80064,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>7438106</v>
+        <v>6652213</v>
       </c>
       <c r="C381" t="s">
         <v>68</v>
@@ -80073,196 +80073,196 @@
         <v>69</v>
       </c>
       <c r="E381" s="2">
-        <v>45433.64583333334</v>
+        <v>45429.65625</v>
       </c>
       <c r="F381">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G381" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H381" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I381">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K381">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L381">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M381">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N381">
+        <v>3</v>
+      </c>
+      <c r="O381" t="s">
+        <v>316</v>
+      </c>
+      <c r="P381" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q381">
+        <v>1.86</v>
+      </c>
+      <c r="R381">
+        <v>2.42</v>
+      </c>
+      <c r="S381">
+        <v>7</v>
+      </c>
+      <c r="T381">
+        <v>1.33</v>
+      </c>
+      <c r="U381">
+        <v>3.16</v>
+      </c>
+      <c r="V381">
+        <v>2.55</v>
+      </c>
+      <c r="W381">
+        <v>1.48</v>
+      </c>
+      <c r="X381">
+        <v>6.15</v>
+      </c>
+      <c r="Y381">
+        <v>1.1</v>
+      </c>
+      <c r="Z381">
+        <v>1.33</v>
+      </c>
+      <c r="AA381">
+        <v>4.5</v>
+      </c>
+      <c r="AB381">
+        <v>7</v>
+      </c>
+      <c r="AC381">
+        <v>1.01</v>
+      </c>
+      <c r="AD381">
+        <v>11</v>
+      </c>
+      <c r="AE381">
+        <v>1.21</v>
+      </c>
+      <c r="AF381">
+        <v>3.75</v>
+      </c>
+      <c r="AG381">
+        <v>1.73</v>
+      </c>
+      <c r="AH381">
+        <v>2</v>
+      </c>
+      <c r="AI381">
+        <v>2.01</v>
+      </c>
+      <c r="AJ381">
+        <v>1.75</v>
+      </c>
+      <c r="AK381">
+        <v>1.06</v>
+      </c>
+      <c r="AL381">
+        <v>1.18</v>
+      </c>
+      <c r="AM381">
+        <v>3.1</v>
+      </c>
+      <c r="AN381">
+        <v>1.83</v>
+      </c>
+      <c r="AO381">
+        <v>0.5</v>
+      </c>
+      <c r="AP381">
+        <v>1.89</v>
+      </c>
+      <c r="AQ381">
+        <v>0.47</v>
+      </c>
+      <c r="AR381">
+        <v>1.43</v>
+      </c>
+      <c r="AS381">
+        <v>0.96</v>
+      </c>
+      <c r="AT381">
+        <v>2.39</v>
+      </c>
+      <c r="AU381">
+        <v>9</v>
+      </c>
+      <c r="AV381">
         <v>4</v>
       </c>
-      <c r="O381" t="s">
-        <v>317</v>
-      </c>
-      <c r="P381" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q381">
-        <v>3</v>
-      </c>
-      <c r="R381">
-        <v>2.1</v>
-      </c>
-      <c r="S381">
-        <v>3.75</v>
-      </c>
-      <c r="T381">
-        <v>1.44</v>
-      </c>
-      <c r="U381">
-        <v>2.63</v>
-      </c>
-      <c r="V381">
-        <v>3</v>
-      </c>
-      <c r="W381">
-        <v>1.36</v>
-      </c>
-      <c r="X381">
+      <c r="AW381">
         <v>9</v>
       </c>
-      <c r="Y381">
-        <v>1.07</v>
-      </c>
-      <c r="Z381">
-        <v>2.3</v>
-      </c>
-      <c r="AA381">
-        <v>3.2</v>
-      </c>
-      <c r="AB381">
-        <v>3.1</v>
-      </c>
-      <c r="AC381">
-        <v>0</v>
-      </c>
-      <c r="AD381">
-        <v>0</v>
-      </c>
-      <c r="AE381">
-        <v>0</v>
-      </c>
-      <c r="AF381">
-        <v>0</v>
-      </c>
-      <c r="AG381">
-        <v>2.05</v>
-      </c>
-      <c r="AH381">
-        <v>1.7</v>
-      </c>
-      <c r="AI381">
-        <v>1.8</v>
-      </c>
-      <c r="AJ381">
-        <v>1.91</v>
-      </c>
-      <c r="AK381">
-        <v>0</v>
-      </c>
-      <c r="AL381">
-        <v>0</v>
-      </c>
-      <c r="AM381">
-        <v>0</v>
-      </c>
-      <c r="AN381">
-        <v>1.58</v>
-      </c>
-      <c r="AO381">
-        <v>1.55</v>
-      </c>
-      <c r="AP381">
-        <v>1.53</v>
-      </c>
-      <c r="AQ381">
-        <v>1.54</v>
-      </c>
-      <c r="AR381">
-        <v>1.6</v>
-      </c>
-      <c r="AS381">
-        <v>1.32</v>
-      </c>
-      <c r="AT381">
-        <v>2.92</v>
-      </c>
-      <c r="AU381">
-        <v>12</v>
-      </c>
-      <c r="AV381">
-        <v>6</v>
-      </c>
-      <c r="AW381">
+      <c r="AX381">
         <v>11</v>
       </c>
-      <c r="AX381">
-        <v>5</v>
-      </c>
       <c r="AY381">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ381">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA381">
         <v>5</v>
       </c>
       <c r="BB381">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC381">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD381">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="BE381">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BF381">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="BG381">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BH381">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="BI381">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BJ381">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BK381">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BL381">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BM381">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BN381">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BO381">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BP381">
-        <v>0</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="382" spans="1:68">
@@ -80270,7 +80270,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>7437919</v>
+        <v>7438106</v>
       </c>
       <c r="C382" t="s">
         <v>68</v>
@@ -80279,76 +80279,76 @@
         <v>69</v>
       </c>
       <c r="E382" s="2">
-        <v>45436.64583333334</v>
+        <v>45433.64583333334</v>
       </c>
       <c r="F382">
         <v>0</v>
       </c>
       <c r="G382" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H382" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I382">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K382">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L382">
         <v>2</v>
       </c>
       <c r="M382">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N382">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O382" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P382" t="s">
-        <v>90</v>
+        <v>465</v>
       </c>
       <c r="Q382">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R382">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S382">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="T382">
+        <v>1.44</v>
+      </c>
+      <c r="U382">
+        <v>2.63</v>
+      </c>
+      <c r="V382">
+        <v>3</v>
+      </c>
+      <c r="W382">
         <v>1.36</v>
       </c>
-      <c r="U382">
-        <v>3</v>
-      </c>
-      <c r="V382">
-        <v>2.63</v>
-      </c>
-      <c r="W382">
-        <v>1.44</v>
-      </c>
       <c r="X382">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y382">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z382">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="AA382">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AB382">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AC382">
         <v>0</v>
@@ -80363,16 +80363,16 @@
         <v>0</v>
       </c>
       <c r="AG382">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AH382">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AI382">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AJ382">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK382">
         <v>0</v>
@@ -80384,90 +80384,296 @@
         <v>0</v>
       </c>
       <c r="AN382">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="AO382">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AP382">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="AQ382">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AR382">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AS382">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AT382">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="AU382">
         <v>12</v>
       </c>
       <c r="AV382">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW382">
+        <v>11</v>
+      </c>
+      <c r="AX382">
+        <v>5</v>
+      </c>
+      <c r="AY382">
+        <v>23</v>
+      </c>
+      <c r="AZ382">
+        <v>11</v>
+      </c>
+      <c r="BA382">
+        <v>5</v>
+      </c>
+      <c r="BB382">
+        <v>7</v>
+      </c>
+      <c r="BC382">
+        <v>12</v>
+      </c>
+      <c r="BD382">
+        <v>0</v>
+      </c>
+      <c r="BE382">
+        <v>0</v>
+      </c>
+      <c r="BF382">
+        <v>0</v>
+      </c>
+      <c r="BG382">
+        <v>0</v>
+      </c>
+      <c r="BH382">
+        <v>0</v>
+      </c>
+      <c r="BI382">
+        <v>0</v>
+      </c>
+      <c r="BJ382">
+        <v>0</v>
+      </c>
+      <c r="BK382">
+        <v>0</v>
+      </c>
+      <c r="BL382">
+        <v>0</v>
+      </c>
+      <c r="BM382">
+        <v>0</v>
+      </c>
+      <c r="BN382">
+        <v>0</v>
+      </c>
+      <c r="BO382">
+        <v>0</v>
+      </c>
+      <c r="BP382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:68">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>7437919</v>
+      </c>
+      <c r="C383" t="s">
+        <v>68</v>
+      </c>
+      <c r="D383" t="s">
+        <v>69</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45436.64583333334</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383" t="s">
+        <v>70</v>
+      </c>
+      <c r="H383" t="s">
+        <v>80</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383">
+        <v>2</v>
+      </c>
+      <c r="M383">
+        <v>0</v>
+      </c>
+      <c r="N383">
+        <v>2</v>
+      </c>
+      <c r="O383" t="s">
+        <v>318</v>
+      </c>
+      <c r="P383" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q383">
+        <v>2.5</v>
+      </c>
+      <c r="R383">
+        <v>2.25</v>
+      </c>
+      <c r="S383">
+        <v>4.33</v>
+      </c>
+      <c r="T383">
+        <v>1.36</v>
+      </c>
+      <c r="U383">
+        <v>3</v>
+      </c>
+      <c r="V383">
+        <v>2.63</v>
+      </c>
+      <c r="W383">
+        <v>1.44</v>
+      </c>
+      <c r="X383">
+        <v>7</v>
+      </c>
+      <c r="Y383">
+        <v>1.1</v>
+      </c>
+      <c r="Z383">
+        <v>1.95</v>
+      </c>
+      <c r="AA383">
+        <v>3.3</v>
+      </c>
+      <c r="AB383">
+        <v>3.5</v>
+      </c>
+      <c r="AC383">
+        <v>0</v>
+      </c>
+      <c r="AD383">
+        <v>0</v>
+      </c>
+      <c r="AE383">
+        <v>0</v>
+      </c>
+      <c r="AF383">
+        <v>0</v>
+      </c>
+      <c r="AG383">
+        <v>1.88</v>
+      </c>
+      <c r="AH383">
+        <v>2</v>
+      </c>
+      <c r="AI383">
+        <v>1.73</v>
+      </c>
+      <c r="AJ383">
+        <v>2</v>
+      </c>
+      <c r="AK383">
+        <v>0</v>
+      </c>
+      <c r="AL383">
+        <v>0</v>
+      </c>
+      <c r="AM383">
+        <v>0</v>
+      </c>
+      <c r="AN383">
+        <v>1.71</v>
+      </c>
+      <c r="AO383">
+        <v>1.56</v>
+      </c>
+      <c r="AP383">
+        <v>1.74</v>
+      </c>
+      <c r="AQ383">
+        <v>1.53</v>
+      </c>
+      <c r="AR383">
+        <v>1.46</v>
+      </c>
+      <c r="AS383">
+        <v>1.42</v>
+      </c>
+      <c r="AT383">
+        <v>2.88</v>
+      </c>
+      <c r="AU383">
+        <v>12</v>
+      </c>
+      <c r="AV383">
+        <v>2</v>
+      </c>
+      <c r="AW383">
         <v>13</v>
       </c>
-      <c r="AX382">
+      <c r="AX383">
         <v>7</v>
       </c>
-      <c r="AY382">
+      <c r="AY383">
         <v>25</v>
       </c>
-      <c r="AZ382">
+      <c r="AZ383">
         <v>9</v>
       </c>
-      <c r="BA382">
+      <c r="BA383">
         <v>14</v>
       </c>
-      <c r="BB382">
+      <c r="BB383">
         <v>6</v>
       </c>
-      <c r="BC382">
+      <c r="BC383">
         <v>20</v>
       </c>
-      <c r="BD382">
-        <v>0</v>
-      </c>
-      <c r="BE382">
-        <v>0</v>
-      </c>
-      <c r="BF382">
-        <v>0</v>
-      </c>
-      <c r="BG382">
-        <v>0</v>
-      </c>
-      <c r="BH382">
-        <v>0</v>
-      </c>
-      <c r="BI382">
-        <v>0</v>
-      </c>
-      <c r="BJ382">
-        <v>0</v>
-      </c>
-      <c r="BK382">
-        <v>0</v>
-      </c>
-      <c r="BL382">
-        <v>0</v>
-      </c>
-      <c r="BM382">
-        <v>0</v>
-      </c>
-      <c r="BN382">
-        <v>0</v>
-      </c>
-      <c r="BO382">
-        <v>0</v>
-      </c>
-      <c r="BP382">
+      <c r="BD383">
+        <v>0</v>
+      </c>
+      <c r="BE383">
+        <v>0</v>
+      </c>
+      <c r="BF383">
+        <v>0</v>
+      </c>
+      <c r="BG383">
+        <v>0</v>
+      </c>
+      <c r="BH383">
+        <v>0</v>
+      </c>
+      <c r="BI383">
+        <v>0</v>
+      </c>
+      <c r="BJ383">
+        <v>0</v>
+      </c>
+      <c r="BK383">
+        <v>0</v>
+      </c>
+      <c r="BL383">
+        <v>0</v>
+      </c>
+      <c r="BM383">
+        <v>0</v>
+      </c>
+      <c r="BN383">
+        <v>0</v>
+      </c>
+      <c r="BO383">
+        <v>0</v>
+      </c>
+      <c r="BP383">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20232024.xlsx
@@ -80396,13 +80396,13 @@
         <v>1.54</v>
       </c>
       <c r="AR382">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AS382">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AT382">
-        <v>2.92</v>
+        <v>2.89</v>
       </c>
       <c r="AU382">
         <v>12</v>
@@ -80602,13 +80602,13 @@
         <v>1.53</v>
       </c>
       <c r="AR383">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AS383">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT383">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="AU383">
         <v>12</v>
